--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="0" windowWidth="29360" windowHeight="15320"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="29360" windowHeight="15320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjConf" sheetId="1" r:id="rId1"/>
     <sheet name="EquipConf" sheetId="2" r:id="rId2"/>
     <sheet name="PropertyConf" sheetId="3" r:id="rId3"/>
     <sheet name="SkillConf" sheetId="5" r:id="rId4"/>
+    <sheet name="SmallMapConf" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
   <si>
     <t>道具id</t>
   </si>
@@ -550,20 +551,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Character/ch001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Character/ch002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Character/ch011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>种类
-1角色</t>
+1角色
+2敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Character/hero01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Character/hero02</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/hero03</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/hero04</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/hero05</t>
+  </si>
+  <si>
+    <t>dfsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy02</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy03</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/Group/group_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +679,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -750,7 +804,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="115">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -805,6 +859,9 @@
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -859,6 +916,9 @@
     <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1161,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="L10" sqref="K3:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1180,7 +1240,7 @@
     <col min="20" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28">
+    <row r="1" spans="1:20" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>93</v>
@@ -1312,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1374,7 +1434,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1436,7 +1496,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1487,6 +1547,316 @@
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>100004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>100005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>100006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>100007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>100008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
@@ -1874,7 +2244,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="A6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2423,7 +2793,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2485,6 +2855,91 @@
       </c>
       <c r="D4" t="s">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1010</v>
+      </c>
+      <c r="C3">
+        <v>1010</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="29360" windowHeight="15320" activeTab="4"/>
+    <workbookView xWindow="420" yWindow="4740" windowWidth="25000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjConf" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
   <si>
     <t>道具id</t>
   </si>
@@ -581,37 +581,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Character/enemy01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy02</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy03</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/Group/group_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy04</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy05</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy06</t>
+  </si>
+  <si>
+    <t>Prefabs/Character/enemy07</t>
+  </si>
+  <si>
+    <t>弓箭骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>野牛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Character/enemy01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Character/enemy02</t>
-  </si>
-  <si>
-    <t>Prefabs/Character/enemy03</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/Group/group_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizey</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="K3:L10"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1679,10 +1711,10 @@
         <v>100006</v>
       </c>
       <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1741,10 +1773,10 @@
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1803,10 +1835,10 @@
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1858,6 +1890,259 @@
       </c>
       <c r="T10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>100009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>100010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>100011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>100012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2896,10 +3181,10 @@
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2916,10 +3201,10 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2933,7 +3218,7 @@
         <v>1010</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E3">
         <v>10</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4740" windowWidth="25000" windowHeight="15600"/>
+    <workbookView xWindow="2080" yWindow="0" windowWidth="25000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="MapObjConf" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="169">
   <si>
     <t>道具id</t>
   </si>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,7 +639,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkdis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkskill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,8 +723,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -836,7 +852,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="119">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -894,6 +910,8 @@
     <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -951,6 +969,8 @@
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1253,26 +1273,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="42">
+    <row r="1" spans="1:22" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,60 +1303,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
       </c>
       <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1348,63 +1374,69 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1416,35 +1448,35 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>300001</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.1</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>100</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -1457,16 +1489,22 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1478,35 +1516,35 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>300001</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.1</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>5</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -1519,16 +1557,22 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1537,38 +1581,38 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5">
+        <v>300002</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.1</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1581,16 +1625,22 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1602,35 +1652,35 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>300001</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.1</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>30</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>100</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -1643,16 +1693,22 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1664,35 +1720,35 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>300001</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.1</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>100</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -1705,16 +1761,22 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1726,35 +1788,35 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>300001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>120</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.1</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>100</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -1767,16 +1829,22 @@
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1788,35 +1856,35 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <v>300001</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>80</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.1</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>20</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>0.7</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>100</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1829,16 +1897,22 @@
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1850,35 +1924,35 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>300001</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>50</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.1</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>100</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
@@ -1891,16 +1965,22 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1909,38 +1989,38 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11">
+        <v>300002</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>-1</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>50</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.1</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>100</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
         <v>0</v>
       </c>
@@ -1953,16 +2033,22 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1974,35 +2060,35 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>300001</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-1</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.1</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>5</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>100</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
@@ -2015,16 +2101,22 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2036,35 +2128,35 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>300001</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>-1</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>50</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.1</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>100</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
@@ -2077,16 +2169,22 @@
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2098,35 +2196,35 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <v>300001</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>-1</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>50</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.1</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>100</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
@@ -2139,10 +2237,11 @@
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>165</v>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2180,30 +2279,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2214,13 +2313,13 @@
         <v>200001</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2231,13 +2330,13 @@
         <v>200002</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2248,13 +2347,13 @@
         <v>200003</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2265,13 +2364,13 @@
         <v>200004</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2282,13 +2381,13 @@
         <v>200005</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2299,13 +2398,13 @@
         <v>200006</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2316,13 +2415,13 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2333,13 +2432,13 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2350,13 +2449,13 @@
         <v>200009</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2367,13 +2466,13 @@
         <v>200010</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2384,13 +2483,13 @@
         <v>200011</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2401,13 +2500,13 @@
         <v>200012</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2418,13 +2517,13 @@
         <v>200013</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2435,13 +2534,13 @@
         <v>200014</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1">
@@ -2452,13 +2551,13 @@
         <v>200017</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1">
@@ -2469,13 +2568,13 @@
         <v>200018</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1">
@@ -2486,13 +2585,13 @@
         <v>200019</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1">
@@ -2503,13 +2602,13 @@
         <v>200020</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2541,60 +2640,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2602,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2631,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2660,13 +2759,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2689,13 +2788,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -2718,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2747,13 +2846,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2776,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -2805,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2834,13 +2933,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2863,13 +2962,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -2892,13 +2991,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2921,13 +3020,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -2950,13 +3049,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -2979,13 +3078,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3008,13 +3107,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -3037,13 +3136,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -3078,40 +3177,41 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3119,13 +3219,13 @@
         <v>300001</v>
       </c>
       <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3133,13 +3233,13 @@
         <v>300002</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3259,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3169,42 +3269,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
         <v>152</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
         <v>152</v>
-      </c>
-      <c r="F2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3218,7 +3318,7 @@
         <v>1010</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>10</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="0" windowWidth="25000" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="MapObjConf" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
     <sheet name="EquipConf" sheetId="2" r:id="rId2"/>
     <sheet name="PropertyConf" sheetId="3" r:id="rId3"/>
     <sheet name="SkillConf" sheetId="5" r:id="rId4"/>
     <sheet name="SmallMapConf" sheetId="6" r:id="rId5"/>
+    <sheet name="MapObjConf" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
   <si>
     <t>道具id</t>
   </si>
@@ -656,6 +657,60 @@
   </si>
   <si>
     <t>atkskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_2_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_3_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_4_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_5_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +778,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -852,7 +909,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="121">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -912,6 +969,7 @@
     <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -971,6 +1029,7 @@
     <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1275,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2262,7 +2321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3337,4 +3396,229 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>400001</v>
+      </c>
+      <c r="B3">
+        <v>400001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>400002</v>
+      </c>
+      <c r="B4">
+        <v>400002</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>400003</v>
+      </c>
+      <c r="B5">
+        <v>400003</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>400004</v>
+      </c>
+      <c r="B6">
+        <v>400004</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>400005</v>
+      </c>
+      <c r="B7">
+        <v>400005</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>400006</v>
+      </c>
+      <c r="B8">
+        <v>400006</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>400007</v>
+      </c>
+      <c r="B9">
+        <v>400007</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>400008</v>
+      </c>
+      <c r="B10">
+        <v>400008</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="5560" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
   <si>
     <t>道具id</t>
   </si>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_1_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/MapObj/MapGround_1_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,24 +690,32 @@
     <t>Prefabs/MapObj/MapGround_1_1_3</t>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_1_2_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_3_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_4_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_5_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_5</t>
   </si>
 </sst>
 </file>
@@ -3400,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3428,7 +3432,7 @@
         <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3448,7 +3452,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3522,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3542,10 +3546,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3559,13 +3563,13 @@
         <v>400006</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3579,13 +3583,13 @@
         <v>400007</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3599,15 +3603,55 @@
         <v>400008</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>400009</v>
+      </c>
+      <c r="B11">
+        <v>400009</v>
+      </c>
+      <c r="C11">
+        <v>100001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>400010</v>
+      </c>
+      <c r="B12">
+        <v>400010</v>
+      </c>
+      <c r="C12">
+        <v>100001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="-360" yWindow="220" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
   <si>
     <t>道具id</t>
   </si>
@@ -716,6 +716,10 @@
   </si>
   <si>
     <t>Prefabs/MapObj/MapGround_1_obs_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3404,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3652,6 +3656,26 @@
         <v>1</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>400011</v>
+      </c>
+      <c r="B13">
+        <v>400011</v>
+      </c>
+      <c r="C13">
+        <v>100001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="220" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -480,14 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Texture/icon/equip/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture/icon/skills/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip_icon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,6 +711,14 @@
   </si>
   <si>
     <t>Prefabs/MapObj/MapGround_1_obs_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/itemicon/equip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/itemicon/skills/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,7 +1344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1370,19 +1370,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1444,10 +1444,10 @@
         <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1503,7 +1503,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1704,10 +1704,10 @@
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1772,10 +1772,10 @@
         <v>100005</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1840,10 +1840,10 @@
         <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1908,10 +1908,10 @@
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1938,7 +1938,7 @@
         <v>0.1</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1976,10 +1976,10 @@
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2000,13 +2000,13 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K10">
         <v>0.1</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -2044,10 +2044,10 @@
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2074,13 +2074,13 @@
         <v>0.1</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -2112,10 +2112,10 @@
         <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>300001</v>
@@ -2142,13 +2142,13 @@
         <v>0.1</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -2180,10 +2180,10 @@
         <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>0.1</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -2248,10 +2248,10 @@
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2272,19 +2272,19 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K14">
         <v>0.1</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>5</v>
@@ -2327,9 +2327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2380,10 +2380,10 @@
         <v>200001</v>
       </c>
       <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>118</v>
@@ -2397,10 +2397,10 @@
         <v>200002</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>118</v>
@@ -2414,10 +2414,10 @@
         <v>200003</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
         <v>118</v>
@@ -2431,10 +2431,10 @@
         <v>200004</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>118</v>
@@ -2448,10 +2448,10 @@
         <v>200005</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>118</v>
@@ -2465,10 +2465,10 @@
         <v>200006</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>118</v>
@@ -2482,10 +2482,10 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>118</v>
@@ -2499,10 +2499,10 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
         <v>118</v>
@@ -2516,10 +2516,10 @@
         <v>200009</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
         <v>118</v>
@@ -2533,10 +2533,10 @@
         <v>200010</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
         <v>118</v>
@@ -2550,10 +2550,10 @@
         <v>200011</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
         <v>118</v>
@@ -2567,10 +2567,10 @@
         <v>200012</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
         <v>118</v>
@@ -2584,10 +2584,10 @@
         <v>200013</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>118</v>
@@ -2601,10 +2601,10 @@
         <v>200014</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
@@ -2617,11 +2617,11 @@
       <c r="B17" s="3">
         <v>200017</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>120</v>
+      <c r="C17" t="s">
+        <v>185</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
         <v>118</v>
@@ -2634,11 +2634,11 @@
       <c r="B18" s="3">
         <v>200018</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>120</v>
+      <c r="C18" t="s">
+        <v>185</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>118</v>
@@ -2651,11 +2651,11 @@
       <c r="B19" s="3">
         <v>200019</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>120</v>
+      <c r="C19" t="s">
+        <v>185</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>118</v>
@@ -2668,11 +2668,11 @@
       <c r="B20" s="3">
         <v>200020</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>120</v>
+      <c r="C20" t="s">
+        <v>185</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
         <v>118</v>
@@ -3348,10 +3348,10 @@
         <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3368,10 +3368,10 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3385,7 +3385,7 @@
         <v>1010</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3410,7 +3410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3427,16 +3427,16 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" t="s">
-        <v>171</v>
-      </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3447,16 +3447,16 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3570,7 +3570,7 @@
         <v>100001</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3590,7 +3590,7 @@
         <v>100001</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3610,7 +3610,7 @@
         <v>100001</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3670,7 +3670,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>2</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="2380" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="194">
   <si>
     <t>道具id</t>
   </si>
@@ -720,6 +720,33 @@
   <si>
     <t>Prefabs/itemicon/skills/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_obs_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_obs_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_obs_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_obs_1_4</t>
   </si>
 </sst>
 </file>
@@ -786,8 +813,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -917,7 +950,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="127">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -978,6 +1011,9 @@
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1038,6 +1074,9 @@
     <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2327,9 +2366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3408,10 +3447,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3676,6 +3715,166 @@
         <v>2</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>400012</v>
+      </c>
+      <c r="B14">
+        <v>400012</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>400013</v>
+      </c>
+      <c r="B15">
+        <v>400013</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>400014</v>
+      </c>
+      <c r="B16">
+        <v>400014</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>400015</v>
+      </c>
+      <c r="B17">
+        <v>400015</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>400016</v>
+      </c>
+      <c r="B18">
+        <v>400016</v>
+      </c>
+      <c r="C18">
+        <v>100002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>400017</v>
+      </c>
+      <c r="B19">
+        <v>400017</v>
+      </c>
+      <c r="C19">
+        <v>100002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>400018</v>
+      </c>
+      <c r="B20">
+        <v>400018</v>
+      </c>
+      <c r="C20">
+        <v>100002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>400019</v>
+      </c>
+      <c r="B21">
+        <v>400019</v>
+      </c>
+      <c r="C21">
+        <v>100002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="198">
   <si>
     <t>道具id</t>
   </si>
@@ -747,6 +747,18 @@
   </si>
   <si>
     <t>Prefabs/MapObj/MapGround_2_obs_1_4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_obs_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_obs_1_6</t>
   </si>
 </sst>
 </file>
@@ -813,8 +825,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -950,7 +966,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="131">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1014,6 +1030,8 @@
     <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1077,6 +1095,8 @@
     <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3447,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3806,10 +3826,10 @@
         <v>400016</v>
       </c>
       <c r="C18">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3826,10 +3846,10 @@
         <v>400017</v>
       </c>
       <c r="C19">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3849,7 +3869,7 @@
         <v>100002</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3869,12 +3889,92 @@
         <v>100002</v>
       </c>
       <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>400020</v>
+      </c>
+      <c r="B22">
+        <v>400020</v>
+      </c>
+      <c r="C22">
+        <v>100002</v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>400021</v>
+      </c>
+      <c r="B23">
+        <v>400021</v>
+      </c>
+      <c r="C23">
+        <v>100002</v>
+      </c>
+      <c r="D23" t="s">
         <v>193</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>400022</v>
+      </c>
+      <c r="B24">
+        <v>400022</v>
+      </c>
+      <c r="C24">
+        <v>100002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>400023</v>
+      </c>
+      <c r="B25">
+        <v>400023</v>
+      </c>
+      <c r="C25">
+        <v>100002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="6140" yWindow="0" windowWidth="26220" windowHeight="18980" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -3470,7 +3470,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>400001</v>
+        <v>4001001</v>
       </c>
       <c r="B3">
-        <v>400001</v>
+        <v>4001001</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>400002</v>
+        <v>4001002</v>
       </c>
       <c r="B4">
-        <v>400002</v>
+        <v>4001002</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>400003</v>
+        <v>4001003</v>
       </c>
       <c r="B5">
-        <v>400003</v>
+        <v>4001003</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>400004</v>
+        <v>4001004</v>
       </c>
       <c r="B6">
-        <v>400004</v>
+        <v>4001004</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>400005</v>
+        <v>4001005</v>
       </c>
       <c r="B7">
-        <v>400005</v>
+        <v>4001005</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>400006</v>
+        <v>4001101</v>
       </c>
       <c r="B8">
-        <v>400006</v>
+        <v>4001101</v>
       </c>
       <c r="C8">
         <v>100001</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>400007</v>
+        <v>4001102</v>
       </c>
       <c r="B9">
-        <v>400007</v>
+        <v>4001102</v>
       </c>
       <c r="C9">
         <v>100001</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>400008</v>
+        <v>4001103</v>
       </c>
       <c r="B10">
-        <v>400008</v>
+        <v>4001103</v>
       </c>
       <c r="C10">
         <v>100001</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>400009</v>
+        <v>4001104</v>
       </c>
       <c r="B11">
-        <v>400009</v>
+        <v>4001104</v>
       </c>
       <c r="C11">
         <v>100001</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>400010</v>
+        <v>4001105</v>
       </c>
       <c r="B12">
-        <v>400010</v>
+        <v>4001105</v>
       </c>
       <c r="C12">
         <v>100001</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>400011</v>
+        <v>4001106</v>
       </c>
       <c r="B13">
-        <v>400011</v>
+        <v>4001106</v>
       </c>
       <c r="C13">
         <v>100001</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>400012</v>
+        <v>4002001</v>
       </c>
       <c r="B14">
-        <v>400012</v>
+        <v>4002001</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3760,10 +3760,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>400013</v>
+        <v>4002002</v>
       </c>
       <c r="B15">
-        <v>400013</v>
+        <v>4002002</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>400014</v>
+        <v>4002003</v>
       </c>
       <c r="B16">
-        <v>400014</v>
+        <v>4002003</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>400015</v>
+        <v>4002004</v>
       </c>
       <c r="B17">
-        <v>400015</v>
+        <v>4002004</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>400016</v>
+        <v>4002005</v>
       </c>
       <c r="B18">
-        <v>400016</v>
+        <v>4002005</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>400017</v>
+        <v>4002006</v>
       </c>
       <c r="B19">
-        <v>400017</v>
+        <v>4002006</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>400018</v>
+        <v>4002101</v>
       </c>
       <c r="B20">
-        <v>400018</v>
+        <v>4002101</v>
       </c>
       <c r="C20">
         <v>100002</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>400019</v>
+        <v>4002102</v>
       </c>
       <c r="B21">
-        <v>400019</v>
+        <v>4002102</v>
       </c>
       <c r="C21">
         <v>100002</v>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>400020</v>
+        <v>4002103</v>
       </c>
       <c r="B22">
-        <v>400020</v>
+        <v>4002103</v>
       </c>
       <c r="C22">
         <v>100002</v>
@@ -3920,10 +3920,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>400021</v>
+        <v>4002104</v>
       </c>
       <c r="B23">
-        <v>400021</v>
+        <v>4002104</v>
       </c>
       <c r="C23">
         <v>100002</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>400022</v>
+        <v>4002105</v>
       </c>
       <c r="B24">
-        <v>400022</v>
+        <v>4002105</v>
       </c>
       <c r="C24">
         <v>100002</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>400023</v>
+        <v>4002106</v>
       </c>
       <c r="B25">
-        <v>400023</v>
+        <v>4002106</v>
       </c>
       <c r="C25">
         <v>100002</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="0" windowWidth="26220" windowHeight="18980" activeTab="5"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="26260" windowHeight="18980" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
     <sheet name="EquipConf" sheetId="2" r:id="rId2"/>
     <sheet name="PropertyConf" sheetId="3" r:id="rId3"/>
     <sheet name="SkillConf" sheetId="5" r:id="rId4"/>
-    <sheet name="SmallMapConf" sheetId="6" r:id="rId5"/>
-    <sheet name="MapObjConf" sheetId="7" r:id="rId6"/>
+    <sheet name="MapObjConf" sheetId="7" r:id="rId5"/>
+    <sheet name="MapGroupConf" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="201">
   <si>
     <t>道具id</t>
   </si>
@@ -580,18 +580,6 @@
     <t>Prefabs/Character/enemy03</t>
   </si>
   <si>
-    <t>Prefabs/MapObj/Group/group_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刀骷髅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,6 +747,30 @@
   </si>
   <si>
     <t>Prefabs/MapObj/MapGround_2_obs_1_6</t>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_1_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_1_8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_1_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -825,8 +837,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,7 +980,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="133">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1032,6 +1046,7 @@
     <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1097,6 +1112,7 @@
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1435,13 +1451,13 @@
         <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1503,10 +1519,10 @@
         <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1899,7 +1915,7 @@
         <v>100006</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>145</v>
@@ -1967,7 +1983,7 @@
         <v>100007</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>146</v>
@@ -2035,7 +2051,7 @@
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>147</v>
@@ -2103,10 +2119,10 @@
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2171,10 +2187,10 @@
         <v>100010</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2239,10 +2255,10 @@
         <v>100011</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2307,10 +2323,10 @@
         <v>100012</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2439,7 +2455,7 @@
         <v>200001</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>119</v>
@@ -2456,7 +2472,7 @@
         <v>200002</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
@@ -2473,7 +2489,7 @@
         <v>200003</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>121</v>
@@ -2490,7 +2506,7 @@
         <v>200004</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
         <v>122</v>
@@ -2507,7 +2523,7 @@
         <v>200005</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
         <v>123</v>
@@ -2524,7 +2540,7 @@
         <v>200006</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
         <v>124</v>
@@ -2541,7 +2557,7 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
         <v>125</v>
@@ -2558,7 +2574,7 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
         <v>126</v>
@@ -2575,7 +2591,7 @@
         <v>200009</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
@@ -2592,7 +2608,7 @@
         <v>200010</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
         <v>128</v>
@@ -2609,7 +2625,7 @@
         <v>200011</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
         <v>129</v>
@@ -2626,7 +2642,7 @@
         <v>200012</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>130</v>
@@ -2643,7 +2659,7 @@
         <v>200013</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -2660,7 +2676,7 @@
         <v>200014</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
         <v>132</v>
@@ -2677,7 +2693,7 @@
         <v>200017</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>133</v>
@@ -2694,7 +2710,7 @@
         <v>200018</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>134</v>
@@ -2711,7 +2727,7 @@
         <v>200019</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>135</v>
@@ -2728,7 +2744,7 @@
         <v>200020</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>136</v>
@@ -3382,15 +3398,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3400,17 +3416,17 @@
       <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
+      <c r="C1" t="s">
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3420,37 +3436,477 @@
       <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+      <c r="C2" t="s">
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>4001001</v>
       </c>
       <c r="B3">
-        <v>1010</v>
+        <v>4001001</v>
       </c>
       <c r="C3">
-        <v>1010</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4001002</v>
+      </c>
+      <c r="B4">
+        <v>4001002</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4001003</v>
+      </c>
+      <c r="B5">
+        <v>4001003</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4001004</v>
+      </c>
+      <c r="B6">
+        <v>4001004</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4001005</v>
+      </c>
+      <c r="B7">
+        <v>4001005</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4001101</v>
+      </c>
+      <c r="B8">
+        <v>4001101</v>
+      </c>
+      <c r="C8">
+        <v>100001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>4001102</v>
+      </c>
+      <c r="B9">
+        <v>4001102</v>
+      </c>
+      <c r="C9">
+        <v>100001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>4001103</v>
+      </c>
+      <c r="B10">
+        <v>4001103</v>
+      </c>
+      <c r="C10">
+        <v>100001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>4001104</v>
+      </c>
+      <c r="B11">
+        <v>4001104</v>
+      </c>
+      <c r="C11">
+        <v>100001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>4001105</v>
+      </c>
+      <c r="B12">
+        <v>4001105</v>
+      </c>
+      <c r="C12">
+        <v>100001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>4001106</v>
+      </c>
+      <c r="B13">
+        <v>4001106</v>
+      </c>
+      <c r="C13">
+        <v>100001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>4002001</v>
+      </c>
+      <c r="B14">
+        <v>4002001</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>4002002</v>
+      </c>
+      <c r="B15">
+        <v>4002002</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>4002003</v>
+      </c>
+      <c r="B16">
+        <v>4002003</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>4002004</v>
+      </c>
+      <c r="B17">
+        <v>4002004</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>4002005</v>
+      </c>
+      <c r="B18">
+        <v>4002005</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>4002006</v>
+      </c>
+      <c r="B19">
+        <v>4002006</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>4002101</v>
+      </c>
+      <c r="B20">
+        <v>4002101</v>
+      </c>
+      <c r="C20">
+        <v>100002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>4002102</v>
+      </c>
+      <c r="B21">
+        <v>4002102</v>
+      </c>
+      <c r="C21">
+        <v>100002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>4002103</v>
+      </c>
+      <c r="B22">
+        <v>4002103</v>
+      </c>
+      <c r="C22">
+        <v>100002</v>
+      </c>
+      <c r="D22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>4002104</v>
+      </c>
+      <c r="B23">
+        <v>4002104</v>
+      </c>
+      <c r="C23">
+        <v>100002</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>4002105</v>
+      </c>
+      <c r="B24">
+        <v>4002105</v>
+      </c>
+      <c r="C24">
+        <v>100002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>4002106</v>
+      </c>
+      <c r="B25">
+        <v>4002106</v>
+      </c>
+      <c r="C25">
+        <v>100002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3467,515 +3923,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>4001001</v>
+        <v>5001001</v>
       </c>
       <c r="B3">
-        <v>4001001</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>4001002</v>
+        <v>5001002</v>
       </c>
       <c r="B4">
-        <v>4001002</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4001003</v>
+        <v>5001003</v>
       </c>
       <c r="B5">
-        <v>4001003</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4001004</v>
-      </c>
-      <c r="B6">
-        <v>4001004</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>4001005</v>
-      </c>
-      <c r="B7">
-        <v>4001005</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4001101</v>
-      </c>
-      <c r="B8">
-        <v>4001101</v>
-      </c>
-      <c r="C8">
-        <v>100001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>4001102</v>
-      </c>
-      <c r="B9">
-        <v>4001102</v>
-      </c>
-      <c r="C9">
-        <v>100001</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>4001103</v>
-      </c>
-      <c r="B10">
-        <v>4001103</v>
-      </c>
-      <c r="C10">
-        <v>100001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>4001104</v>
-      </c>
-      <c r="B11">
-        <v>4001104</v>
-      </c>
-      <c r="C11">
-        <v>100001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>4001105</v>
-      </c>
-      <c r="B12">
-        <v>4001105</v>
-      </c>
-      <c r="C12">
-        <v>100001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>4001106</v>
-      </c>
-      <c r="B13">
-        <v>4001106</v>
-      </c>
-      <c r="C13">
-        <v>100001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>4002001</v>
-      </c>
-      <c r="B14">
-        <v>4002001</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>4002002</v>
-      </c>
-      <c r="B15">
-        <v>4002002</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>4002003</v>
-      </c>
-      <c r="B16">
-        <v>4002003</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>4002004</v>
-      </c>
-      <c r="B17">
-        <v>4002004</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>4002005</v>
-      </c>
-      <c r="B18">
-        <v>4002005</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>4002006</v>
-      </c>
-      <c r="B19">
-        <v>4002006</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>4002101</v>
-      </c>
-      <c r="B20">
-        <v>4002101</v>
-      </c>
-      <c r="C20">
-        <v>100002</v>
-      </c>
-      <c r="D20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>4002102</v>
-      </c>
-      <c r="B21">
-        <v>4002102</v>
-      </c>
-      <c r="C21">
-        <v>100002</v>
-      </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>4002103</v>
-      </c>
-      <c r="B22">
-        <v>4002103</v>
-      </c>
-      <c r="C22">
-        <v>100002</v>
-      </c>
-      <c r="D22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>4002104</v>
-      </c>
-      <c r="B23">
-        <v>4002104</v>
-      </c>
-      <c r="C23">
-        <v>100002</v>
-      </c>
-      <c r="D23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>4002105</v>
-      </c>
-      <c r="B24">
-        <v>4002105</v>
-      </c>
-      <c r="C24">
-        <v>100002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>4002106</v>
-      </c>
-      <c r="B25">
-        <v>4002106</v>
-      </c>
-      <c r="C25">
-        <v>100002</v>
-      </c>
-      <c r="D25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="26260" windowHeight="18980" activeTab="5"/>
+    <workbookView xWindow="1240" yWindow="5760" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
   <si>
     <t>道具id</t>
   </si>
@@ -769,7 +769,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_1_10</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_1_obs_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LevelData/group_1_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_1_10_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_1_5_2</t>
+  </si>
+  <si>
+    <t>LevelData/group_1_5_3</t>
+  </si>
+  <si>
+    <t>LevelData/group_1_8_2</t>
+  </si>
+  <si>
+    <t>LevelData/group_1_8_3</t>
+  </si>
+  <si>
+    <t>LevelData/group_1_15_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +884,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -980,7 +1057,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="163">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1047,6 +1124,21 @@
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1113,6 +1205,21 @@
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3398,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3671,139 +3778,139 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>4002001</v>
+        <v>4001107</v>
       </c>
       <c r="B14">
-        <v>4002001</v>
+        <v>4001107</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>4002002</v>
+        <v>4001108</v>
       </c>
       <c r="B15">
-        <v>4002002</v>
+        <v>4001108</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>4002003</v>
+        <v>4001109</v>
       </c>
       <c r="B16">
-        <v>4002003</v>
+        <v>4001109</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>4002004</v>
+        <v>4001110</v>
       </c>
       <c r="B17">
-        <v>4002004</v>
+        <v>4001110</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>4002005</v>
+        <v>4001111</v>
       </c>
       <c r="B18">
-        <v>4002005</v>
+        <v>4001111</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>4002006</v>
+        <v>4001112</v>
       </c>
       <c r="B19">
-        <v>4002006</v>
+        <v>4001112</v>
       </c>
       <c r="C19">
+        <v>100001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>4002101</v>
+        <v>4001113</v>
       </c>
       <c r="B20">
-        <v>4002101</v>
+        <v>4001113</v>
       </c>
       <c r="C20">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3811,19 +3918,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>4002102</v>
+        <v>4001114</v>
       </c>
       <c r="B21">
-        <v>4002102</v>
+        <v>4001114</v>
       </c>
       <c r="C21">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -3831,81 +3938,241 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>4002103</v>
+        <v>4002001</v>
       </c>
       <c r="B22">
-        <v>4002103</v>
+        <v>4002001</v>
       </c>
       <c r="C22">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>4002104</v>
+        <v>4002002</v>
       </c>
       <c r="B23">
-        <v>4002104</v>
+        <v>4002002</v>
       </c>
       <c r="C23">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>4002105</v>
+        <v>4002003</v>
       </c>
       <c r="B24">
-        <v>4002105</v>
+        <v>4002003</v>
       </c>
       <c r="C24">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
+        <v>4002004</v>
+      </c>
+      <c r="B25">
+        <v>4002004</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>4002005</v>
+      </c>
+      <c r="B26">
+        <v>4002005</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>4002006</v>
+      </c>
+      <c r="B27">
+        <v>4002006</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>4002101</v>
+      </c>
+      <c r="B28">
+        <v>4002101</v>
+      </c>
+      <c r="C28">
+        <v>100002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>4002102</v>
+      </c>
+      <c r="B29">
+        <v>4002102</v>
+      </c>
+      <c r="C29">
+        <v>100002</v>
+      </c>
+      <c r="D29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>4002103</v>
+      </c>
+      <c r="B30">
+        <v>4002103</v>
+      </c>
+      <c r="C30">
+        <v>100002</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>4002104</v>
+      </c>
+      <c r="B31">
+        <v>4002104</v>
+      </c>
+      <c r="C31">
+        <v>100002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>4002105</v>
+      </c>
+      <c r="B32">
+        <v>4002105</v>
+      </c>
+      <c r="C32">
+        <v>100002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
         <v>4002106</v>
       </c>
-      <c r="B25">
+      <c r="B33">
         <v>4002106</v>
       </c>
-      <c r="C25">
+      <c r="C33">
         <v>100002</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D33" t="s">
         <v>194</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
@@ -3923,10 +4190,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3984,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3998,10 +4265,94 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5001004</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5001005</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5001006</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5001007</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>200</v>
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5001008</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>5001009</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="5760" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="20800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="SkillConf" sheetId="5" r:id="rId4"/>
     <sheet name="MapObjConf" sheetId="7" r:id="rId5"/>
     <sheet name="MapGroupConf" sheetId="8" r:id="rId6"/>
+    <sheet name="EquipQuality" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="234">
   <si>
     <t>道具id</t>
   </si>
@@ -383,10 +384,6 @@
   </si>
   <si>
     <t>远程普通伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,6 +814,86 @@
   </si>
   <si>
     <t>LevelData/group_1_15_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A6A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0090FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1AFF00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFC700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF1F00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertycount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertycount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -883,8 +960,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1048,16 +1140,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1139,6 +1238,9 @@
     <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1220,6 +1322,9 @@
     <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1522,26 +1627,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="42">
+    <row r="1" spans="1:21" ht="42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1552,64 +1657,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1623,61 +1725,58 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>163</v>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -1685,46 +1784,46 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>300001</v>
       </c>
       <c r="G3">
-        <v>300001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>800</v>
       </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>100</v>
       </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
       <c r="P3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1741,11 +1840,8 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -1753,46 +1849,46 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>300001</v>
       </c>
       <c r="G4">
-        <v>300001</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>800</v>
       </c>
       <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="K4">
-        <v>0.1</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
       <c r="P4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1809,11 +1905,8 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -1821,46 +1914,46 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
+        <v>300002</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>800</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>300002</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
+      <c r="O5">
         <v>100</v>
       </c>
-      <c r="K5">
-        <v>0.1</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
       <c r="P5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1877,58 +1970,55 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>100004</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>300001</v>
       </c>
       <c r="G6">
-        <v>300001</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>800</v>
       </c>
       <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="K6">
-        <v>0.1</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
       <c r="P6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1945,551 +2035,524 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>100005</v>
       </c>
       <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>300001</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>800</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>100006</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>300001</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>-1</v>
       </c>
-      <c r="J7">
+      <c r="I8" s="4">
+        <v>200</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
         <v>100</v>
       </c>
-      <c r="K7">
-        <v>0.1</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>300002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>170</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>27</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="O9" s="4">
         <v>100</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
-        <v>100006</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>100008</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="C10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>300001</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>-1</v>
       </c>
-      <c r="J8">
-        <v>120</v>
-      </c>
-      <c r="K8">
-        <v>0.1</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="I10" s="4">
+        <v>300</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="P8">
+      <c r="O10" s="4">
         <v>100</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
-        <v>100007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="4" customFormat="1">
+      <c r="A11" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>300002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>300</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>20</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>100</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>100010</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>300001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>150</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>35</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4">
+        <v>100</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="4" customFormat="1">
+      <c r="A13" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>300001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>150</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>69</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>100</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="4" customFormat="1">
+      <c r="A14" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>300001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>150</v>
+      </c>
+      <c r="J14" s="4">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>300001</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>80</v>
-      </c>
-      <c r="K9">
-        <v>0.1</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0.7</v>
-      </c>
-      <c r="O9">
+      <c r="K14" s="4">
+        <v>45</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="4">
         <v>5</v>
       </c>
-      <c r="P9">
+      <c r="O14" s="4">
         <v>100</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
-        <v>100008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>300001</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>200</v>
-      </c>
-      <c r="K10">
-        <v>0.1</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>100</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
-        <v>100009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>300002</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>0.1</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>100</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12">
-        <v>100010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>300001</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>0.1</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>0.5</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>100</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
-        <v>100011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>300001</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.1</v>
-      </c>
-      <c r="L13">
-        <v>7</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>100</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
-        <v>100012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>300001</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
-      <c r="J14">
-        <v>300</v>
-      </c>
-      <c r="K14">
-        <v>0.1</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2507,20 +2570,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="54.5" customWidth="1"/>
-    <col min="4" max="5" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2536,8 +2600,14 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2553,8 +2623,14 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>200001</v>
       </c>
@@ -2562,16 +2638,16 @@
         <v>200001</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>200002</v>
       </c>
@@ -2579,16 +2655,16 @@
         <v>200002</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>200003</v>
       </c>
@@ -2596,16 +2672,16 @@
         <v>200003</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>200004</v>
       </c>
@@ -2613,16 +2689,16 @@
         <v>200004</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>200005</v>
       </c>
@@ -2630,16 +2706,16 @@
         <v>200005</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>200006</v>
       </c>
@@ -2647,16 +2723,16 @@
         <v>200006</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>200007</v>
       </c>
@@ -2664,16 +2740,16 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>200008</v>
       </c>
@@ -2681,16 +2757,16 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>200009</v>
       </c>
@@ -2698,16 +2774,16 @@
         <v>200009</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>200010</v>
       </c>
@@ -2715,16 +2791,16 @@
         <v>200010</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>200011</v>
       </c>
@@ -2732,16 +2808,16 @@
         <v>200011</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>200012</v>
       </c>
@@ -2749,16 +2825,16 @@
         <v>200012</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>200013</v>
       </c>
@@ -2766,16 +2842,16 @@
         <v>200013</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>200014</v>
       </c>
@@ -2783,13 +2859,13 @@
         <v>200014</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1">
@@ -2800,13 +2876,13 @@
         <v>200017</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1">
@@ -2817,13 +2893,13 @@
         <v>200018</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1">
@@ -2834,13 +2910,13 @@
         <v>200019</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1">
@@ -2851,13 +2927,13 @@
         <v>200020</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +2953,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="A6:I7"/>
+      <selection activeCell="B15" sqref="B15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2898,13 +2974,13 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
       </c>
       <c r="G1" t="s">
         <v>87</v>
@@ -2913,7 +2989,7 @@
         <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2927,22 +3003,22 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2956,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2968,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2985,10 +3061,10 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.4</v>
@@ -2997,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3014,10 +3090,10 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.4</v>
@@ -3043,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -3072,7 +3148,7 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3101,7 +3177,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -3130,7 +3206,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -3159,10 +3235,10 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>0.4</v>
@@ -3171,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3188,7 +3264,7 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3217,7 +3293,7 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -3246,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -3275,7 +3351,7 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -3304,7 +3380,7 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -3333,7 +3409,7 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3362,7 +3438,7 @@
         <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -3391,7 +3467,7 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -3524,16 +3600,16 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3544,16 +3620,16 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
         <v>165</v>
       </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3567,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3587,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3607,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3627,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3647,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3667,7 +3743,7 @@
         <v>100001</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3687,7 +3763,7 @@
         <v>100001</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3707,7 +3783,7 @@
         <v>100001</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3727,7 +3803,7 @@
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3747,7 +3823,7 @@
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3767,7 +3843,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3787,7 +3863,7 @@
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3807,7 +3883,7 @@
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3827,7 +3903,7 @@
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3847,7 +3923,7 @@
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3867,7 +3943,7 @@
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3887,7 +3963,7 @@
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3907,7 +3983,7 @@
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3927,7 +4003,7 @@
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -3947,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3967,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3987,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4007,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4027,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4047,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4067,7 +4143,7 @@
         <v>100002</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4087,7 +4163,7 @@
         <v>100002</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4107,7 +4183,7 @@
         <v>100002</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4127,7 +4203,7 @@
         <v>100002</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4147,7 +4223,7 @@
         <v>100002</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4167,7 +4243,7 @@
         <v>100002</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4192,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4206,13 +4282,13 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>196</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4220,13 +4296,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
         <v>195</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>196</v>
-      </c>
-      <c r="D2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4240,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4254,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4268,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4282,7 +4358,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4296,7 +4372,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4310,7 +4386,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4324,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4338,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4352,7 +4428,168 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="20800" windowHeight="14820"/>
+    <workbookView xWindow="37960" yWindow="3260" windowWidth="24720" windowHeight="15940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="238">
   <si>
     <t>道具id</t>
   </si>
@@ -894,6 +894,22 @@
   </si>
   <si>
     <t>propertycount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_2_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapEnemyPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapStartPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1629,9 +1645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3581,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3634,16 +3650,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>4001001</v>
+        <v>4000001</v>
       </c>
       <c r="B3">
-        <v>4001001</v>
+        <v>4000001</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3654,16 +3670,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>4001002</v>
+        <v>4000002</v>
       </c>
       <c r="B4">
-        <v>4001002</v>
+        <v>4000002</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3674,16 +3690,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4001003</v>
+        <v>4000003</v>
       </c>
       <c r="B5">
-        <v>4001003</v>
+        <v>4000003</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3694,19 +3710,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>4001004</v>
+        <v>4001001</v>
       </c>
       <c r="B6">
-        <v>4001004</v>
+        <v>4001001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3714,19 +3730,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>4001005</v>
+        <v>4001002</v>
       </c>
       <c r="B7">
-        <v>4001005</v>
+        <v>4001002</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3734,76 +3750,76 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>4001101</v>
+        <v>4001003</v>
       </c>
       <c r="B8">
-        <v>4001101</v>
+        <v>4001003</v>
       </c>
       <c r="C8">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>4001102</v>
+        <v>4001004</v>
       </c>
       <c r="B9">
-        <v>4001102</v>
+        <v>4001004</v>
       </c>
       <c r="C9">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>4001103</v>
+        <v>4001005</v>
       </c>
       <c r="B10">
-        <v>4001103</v>
+        <v>4001005</v>
       </c>
       <c r="C10">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>4001104</v>
+        <v>4001101</v>
       </c>
       <c r="B11">
-        <v>4001104</v>
+        <v>4001101</v>
       </c>
       <c r="C11">
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3814,16 +3830,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>4001105</v>
+        <v>4001102</v>
       </c>
       <c r="B12">
-        <v>4001105</v>
+        <v>4001102</v>
       </c>
       <c r="C12">
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3834,19 +3850,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>4001106</v>
+        <v>4001103</v>
       </c>
       <c r="B13">
-        <v>4001106</v>
+        <v>4001103</v>
       </c>
       <c r="C13">
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3854,16 +3870,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>4001107</v>
+        <v>4001104</v>
       </c>
       <c r="B14">
-        <v>4001107</v>
+        <v>4001104</v>
       </c>
       <c r="C14">
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3874,16 +3890,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>4001108</v>
+        <v>4001105</v>
       </c>
       <c r="B15">
-        <v>4001108</v>
+        <v>4001105</v>
       </c>
       <c r="C15">
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3894,19 +3910,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>4001109</v>
+        <v>4001106</v>
       </c>
       <c r="B16">
-        <v>4001109</v>
+        <v>4001106</v>
       </c>
       <c r="C16">
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3914,16 +3930,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>4001110</v>
+        <v>4001107</v>
       </c>
       <c r="B17">
-        <v>4001110</v>
+        <v>4001107</v>
       </c>
       <c r="C17">
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3934,16 +3950,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>4001111</v>
+        <v>4001108</v>
       </c>
       <c r="B18">
-        <v>4001111</v>
+        <v>4001108</v>
       </c>
       <c r="C18">
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3954,19 +3970,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>4001112</v>
+        <v>4001109</v>
       </c>
       <c r="B19">
-        <v>4001112</v>
+        <v>4001109</v>
       </c>
       <c r="C19">
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -3974,19 +3990,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>4001113</v>
+        <v>4001110</v>
       </c>
       <c r="B20">
-        <v>4001113</v>
+        <v>4001110</v>
       </c>
       <c r="C20">
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3994,19 +4010,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>4001114</v>
+        <v>4001111</v>
       </c>
       <c r="B21">
-        <v>4001114</v>
+        <v>4001111</v>
       </c>
       <c r="C21">
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -4014,76 +4030,76 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>4002001</v>
+        <v>4001112</v>
       </c>
       <c r="B22">
-        <v>4002001</v>
+        <v>4001112</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>4002002</v>
+        <v>4001113</v>
       </c>
       <c r="B23">
-        <v>4002002</v>
+        <v>4001113</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>4002003</v>
+        <v>4001114</v>
       </c>
       <c r="B24">
-        <v>4002003</v>
+        <v>4001114</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>4002004</v>
+        <v>4002001</v>
       </c>
       <c r="B25">
-        <v>4002004</v>
+        <v>4002001</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4094,16 +4110,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>4002005</v>
+        <v>4002002</v>
       </c>
       <c r="B26">
-        <v>4002005</v>
+        <v>4002002</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4114,16 +4130,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>4002006</v>
+        <v>4002003</v>
       </c>
       <c r="B27">
-        <v>4002006</v>
+        <v>4002003</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4134,76 +4150,76 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>4002101</v>
+        <v>4002004</v>
       </c>
       <c r="B28">
-        <v>4002101</v>
+        <v>4002004</v>
       </c>
       <c r="C28">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>4002102</v>
+        <v>4002005</v>
       </c>
       <c r="B29">
-        <v>4002102</v>
+        <v>4002005</v>
       </c>
       <c r="C29">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>4002103</v>
+        <v>4002006</v>
       </c>
       <c r="B30">
-        <v>4002103</v>
+        <v>4002006</v>
       </c>
       <c r="C30">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>4002104</v>
+        <v>4002101</v>
       </c>
       <c r="B31">
-        <v>4002104</v>
+        <v>4002101</v>
       </c>
       <c r="C31">
         <v>100002</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4214,16 +4230,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>4002105</v>
+        <v>4002102</v>
       </c>
       <c r="B32">
-        <v>4002105</v>
+        <v>4002102</v>
       </c>
       <c r="C32">
         <v>100002</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4234,21 +4250,81 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>4002106</v>
+        <v>4002103</v>
       </c>
       <c r="B33">
-        <v>4002106</v>
+        <v>4002103</v>
       </c>
       <c r="C33">
         <v>100002</v>
       </c>
       <c r="D33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>4002104</v>
+      </c>
+      <c r="B34">
+        <v>4002104</v>
+      </c>
+      <c r="C34">
+        <v>100002</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>4002105</v>
+      </c>
+      <c r="B35">
+        <v>4002105</v>
+      </c>
+      <c r="C35">
+        <v>100002</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>4002106</v>
+      </c>
+      <c r="B36">
+        <v>4002106</v>
+      </c>
+      <c r="C36">
+        <v>100002</v>
+      </c>
+      <c r="D36" t="s">
         <v>193</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>3</v>
       </c>
     </row>
@@ -4266,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4429,6 +4505,20 @@
       </c>
       <c r="D11" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>5002001</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37960" yWindow="3260" windowWidth="24720" windowHeight="15940" activeTab="4"/>
+    <workbookView xWindow="1460" yWindow="6020" windowWidth="25000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="243">
   <si>
     <t>道具id</t>
   </si>
@@ -910,6 +910,22 @@
   </si>
   <si>
     <t>Prefabs/MapObj/MapGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/MapGround_2_1_10</t>
+  </si>
+  <si>
+    <t>LevelData/group_2_90_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1645,9 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3597,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4210,96 +4226,96 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>4002101</v>
+        <v>4002007</v>
       </c>
       <c r="B31">
-        <v>4002101</v>
+        <v>4002007</v>
       </c>
       <c r="C31">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>4002102</v>
+        <v>4002008</v>
       </c>
       <c r="B32">
-        <v>4002102</v>
+        <v>4002008</v>
       </c>
       <c r="C32">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>4002103</v>
+        <v>4002009</v>
       </c>
       <c r="B33">
-        <v>4002103</v>
+        <v>4002009</v>
       </c>
       <c r="C33">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>4002104</v>
+        <v>4002010</v>
       </c>
       <c r="B34">
-        <v>4002104</v>
+        <v>4002010</v>
       </c>
       <c r="C34">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>4002105</v>
+        <v>4002101</v>
       </c>
       <c r="B35">
-        <v>4002105</v>
+        <v>4002101</v>
       </c>
       <c r="C35">
         <v>100002</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4310,21 +4326,101 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>4002106</v>
+        <v>4002102</v>
       </c>
       <c r="B36">
-        <v>4002106</v>
+        <v>4002102</v>
       </c>
       <c r="C36">
         <v>100002</v>
       </c>
       <c r="D36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>4002103</v>
+      </c>
+      <c r="B37">
+        <v>4002103</v>
+      </c>
+      <c r="C37">
+        <v>100002</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>4002104</v>
+      </c>
+      <c r="B38">
+        <v>4002104</v>
+      </c>
+      <c r="C38">
+        <v>100002</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>4002105</v>
+      </c>
+      <c r="B39">
+        <v>4002105</v>
+      </c>
+      <c r="C39">
+        <v>100002</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>4002106</v>
+      </c>
+      <c r="B40">
+        <v>4002106</v>
+      </c>
+      <c r="C40">
+        <v>100002</v>
+      </c>
+      <c r="D40" t="s">
         <v>193</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
     </row>
@@ -4342,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="A8:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4519,6 +4615,20 @@
       </c>
       <c r="D12" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>5002002</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="6020" windowWidth="25000" windowHeight="15600"/>
+    <workbookView xWindow="940" yWindow="4480" windowWidth="25000" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="269">
   <si>
     <t>道具id</t>
   </si>
@@ -657,48 +657,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_1_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_1_2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_1_3</t>
-  </si>
-  <si>
     <t>depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_1_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/itemicon/equip/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -707,45 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_2_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_obs_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_obs_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_obs_1_3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_obs_1_4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_obs_1_5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_obs_1_6</t>
-  </si>
-  <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,33 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_7</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_8</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_9</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_1_10</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_1_obs_4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelData/group_1_10_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,19 +809,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/MapObj/MapGround_2_1_7</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_8</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_9</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/MapGround_2_1_10</t>
-  </si>
-  <si>
     <t>LevelData/group_2_90_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_10</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_11</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_12</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_13</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_14</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_15</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_16</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_17</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_21</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_22</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_23</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_24</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_25</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_26</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_27</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_28</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_29</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_30</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_31</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_32</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_1_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group1/MapGround_1_obs_4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1661,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -2633,10 +2717,10 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2656,10 +2740,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2670,7 +2754,7 @@
         <v>200001</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
         <v>118</v>
@@ -2687,7 +2771,7 @@
         <v>200002</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>119</v>
@@ -2704,7 +2788,7 @@
         <v>200003</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
         <v>120</v>
@@ -2721,7 +2805,7 @@
         <v>200004</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>121</v>
@@ -2738,7 +2822,7 @@
         <v>200005</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
         <v>122</v>
@@ -2755,7 +2839,7 @@
         <v>200006</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
         <v>123</v>
@@ -2772,7 +2856,7 @@
         <v>200007</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
         <v>124</v>
@@ -2789,7 +2873,7 @@
         <v>200008</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
         <v>125</v>
@@ -2806,7 +2890,7 @@
         <v>200009</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
@@ -2823,7 +2907,7 @@
         <v>200010</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
         <v>127</v>
@@ -2840,7 +2924,7 @@
         <v>200011</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -2857,7 +2941,7 @@
         <v>200012</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -2874,7 +2958,7 @@
         <v>200013</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
@@ -2891,7 +2975,7 @@
         <v>200014</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -2908,7 +2992,7 @@
         <v>200017</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>132</v>
@@ -2925,7 +3009,7 @@
         <v>200018</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>133</v>
@@ -2942,7 +3026,7 @@
         <v>200019</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>134</v>
@@ -2959,7 +3043,7 @@
         <v>200020</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>135</v>
@@ -3613,15 +3697,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3641,7 +3725,7 @@
         <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3661,7 +3745,7 @@
         <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3675,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3695,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3715,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3735,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3755,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3775,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3795,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3815,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -3835,7 +3919,7 @@
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3855,7 +3939,7 @@
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3875,7 +3959,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3895,7 +3979,7 @@
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3915,7 +3999,7 @@
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3935,7 +4019,7 @@
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3955,7 +4039,7 @@
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3975,7 +4059,7 @@
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3995,7 +4079,7 @@
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4015,7 +4099,7 @@
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4035,7 +4119,7 @@
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4055,7 +4139,7 @@
         <v>100001</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4075,7 +4159,7 @@
         <v>100001</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4095,7 +4179,7 @@
         <v>100001</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -4115,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4135,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4155,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4175,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4195,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4215,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4235,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4255,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4275,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4295,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4315,7 +4399,7 @@
         <v>100002</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4335,7 +4419,7 @@
         <v>100002</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4355,7 +4439,7 @@
         <v>100002</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4375,7 +4459,7 @@
         <v>100002</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4395,7 +4479,7 @@
         <v>100002</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4415,12 +4499,532 @@
         <v>100002</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>4002107</v>
+      </c>
+      <c r="B41">
+        <v>4002107</v>
+      </c>
+      <c r="C41">
+        <v>100002</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>4002108</v>
+      </c>
+      <c r="B42">
+        <v>4002108</v>
+      </c>
+      <c r="C42">
+        <v>100002</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>4002109</v>
+      </c>
+      <c r="B43">
+        <v>4002109</v>
+      </c>
+      <c r="C43">
+        <v>100002</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>4002110</v>
+      </c>
+      <c r="B44">
+        <v>4002110</v>
+      </c>
+      <c r="C44">
+        <v>100002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>4002111</v>
+      </c>
+      <c r="B45">
+        <v>4002111</v>
+      </c>
+      <c r="C45">
+        <v>100002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>4002112</v>
+      </c>
+      <c r="B46">
+        <v>4002112</v>
+      </c>
+      <c r="C46">
+        <v>100002</v>
+      </c>
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>4002113</v>
+      </c>
+      <c r="B47">
+        <v>4002113</v>
+      </c>
+      <c r="C47">
+        <v>100002</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>4002114</v>
+      </c>
+      <c r="B48">
+        <v>4002114</v>
+      </c>
+      <c r="C48">
+        <v>100002</v>
+      </c>
+      <c r="D48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>4002115</v>
+      </c>
+      <c r="B49">
+        <v>4002115</v>
+      </c>
+      <c r="C49">
+        <v>100002</v>
+      </c>
+      <c r="D49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>4002116</v>
+      </c>
+      <c r="B50">
+        <v>4002116</v>
+      </c>
+      <c r="C50">
+        <v>100002</v>
+      </c>
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>4002117</v>
+      </c>
+      <c r="B51">
+        <v>4002117</v>
+      </c>
+      <c r="C51">
+        <v>100002</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>4002118</v>
+      </c>
+      <c r="B52">
+        <v>4002118</v>
+      </c>
+      <c r="C52">
+        <v>100002</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>4002119</v>
+      </c>
+      <c r="B53">
+        <v>4002119</v>
+      </c>
+      <c r="C53">
+        <v>100002</v>
+      </c>
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>4002120</v>
+      </c>
+      <c r="B54">
+        <v>4002120</v>
+      </c>
+      <c r="C54">
+        <v>100002</v>
+      </c>
+      <c r="D54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>4002121</v>
+      </c>
+      <c r="B55">
+        <v>4002121</v>
+      </c>
+      <c r="C55">
+        <v>100002</v>
+      </c>
+      <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>4002122</v>
+      </c>
+      <c r="B56">
+        <v>4002122</v>
+      </c>
+      <c r="C56">
+        <v>100002</v>
+      </c>
+      <c r="D56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>4002123</v>
+      </c>
+      <c r="B57">
+        <v>4002123</v>
+      </c>
+      <c r="C57">
+        <v>100002</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>4002124</v>
+      </c>
+      <c r="B58">
+        <v>4002124</v>
+      </c>
+      <c r="C58">
+        <v>100002</v>
+      </c>
+      <c r="D58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>4002125</v>
+      </c>
+      <c r="B59">
+        <v>4002125</v>
+      </c>
+      <c r="C59">
+        <v>100002</v>
+      </c>
+      <c r="D59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>4002126</v>
+      </c>
+      <c r="B60">
+        <v>4002126</v>
+      </c>
+      <c r="C60">
+        <v>100002</v>
+      </c>
+      <c r="D60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>4002127</v>
+      </c>
+      <c r="B61">
+        <v>4002127</v>
+      </c>
+      <c r="C61">
+        <v>100002</v>
+      </c>
+      <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>4002128</v>
+      </c>
+      <c r="B62">
+        <v>4002128</v>
+      </c>
+      <c r="C62">
+        <v>100002</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>4002129</v>
+      </c>
+      <c r="B63">
+        <v>4002129</v>
+      </c>
+      <c r="C63">
+        <v>100002</v>
+      </c>
+      <c r="D63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>4002130</v>
+      </c>
+      <c r="B64">
+        <v>4002130</v>
+      </c>
+      <c r="C64">
+        <v>100002</v>
+      </c>
+      <c r="D64" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>4002131</v>
+      </c>
+      <c r="B65">
+        <v>4002131</v>
+      </c>
+      <c r="C65">
+        <v>100002</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>4002132</v>
+      </c>
+      <c r="B66">
+        <v>4002132</v>
+      </c>
+      <c r="C66">
+        <v>100002</v>
+      </c>
+      <c r="D66" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>3</v>
       </c>
     </row>
@@ -4454,13 +5058,13 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4468,13 +5072,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4488,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4502,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4516,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4530,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4544,7 +5148,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4558,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4572,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4586,7 +5190,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4600,7 +5204,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4614,7 +5218,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4628,7 +5232,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4661,16 +5265,16 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
         <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4678,16 +5282,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4698,10 +5302,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4715,10 +5319,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4732,10 +5336,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4749,10 +5353,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4766,10 +5370,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -4783,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E8">
         <v>6</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="4480" windowWidth="25000" windowHeight="15600" activeTab="4"/>
+    <workbookView xWindow="6440" yWindow="0" windowWidth="26480" windowHeight="18680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="282">
   <si>
     <t>道具id</t>
   </si>
@@ -1011,6 +1011,50 @@
   <si>
     <t>Prefabs/MapObj/group1/MapGround_1_obs_4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isstatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_11</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_12</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_13</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_14</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_15</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_16</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_17</t>
+  </si>
+  <si>
+    <t>LevelData/group_2_90_2</t>
   </si>
 </sst>
 </file>
@@ -3697,10 +3741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3708,7 +3752,7 @@
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3727,8 +3771,11 @@
       <c r="F1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3747,13 +3794,16 @@
       <c r="F2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>4000001</v>
       </c>
-      <c r="B3">
-        <v>4000001</v>
+      <c r="B3" t="s">
+        <v>269</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3767,13 +3817,16 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4000002</v>
       </c>
-      <c r="B4">
-        <v>4000002</v>
+      <c r="B4" t="s">
+        <v>270</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3787,13 +3840,16 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4000003</v>
       </c>
-      <c r="B5">
-        <v>4000003</v>
+      <c r="B5" t="s">
+        <v>271</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3807,8 +3863,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4001001</v>
       </c>
@@ -3827,8 +3886,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4001002</v>
       </c>
@@ -3847,8 +3909,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4001003</v>
       </c>
@@ -3867,8 +3932,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4001004</v>
       </c>
@@ -3887,8 +3955,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>4001005</v>
       </c>
@@ -3907,8 +3978,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>4001101</v>
       </c>
@@ -3927,8 +4001,11 @@
       <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4001102</v>
       </c>
@@ -3947,8 +4024,11 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>4001103</v>
       </c>
@@ -3967,8 +4047,11 @@
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4001104</v>
       </c>
@@ -3987,8 +4070,11 @@
       <c r="F14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>4001105</v>
       </c>
@@ -4007,8 +4093,11 @@
       <c r="F15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>4001106</v>
       </c>
@@ -4027,8 +4116,11 @@
       <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4001107</v>
       </c>
@@ -4047,8 +4139,11 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>4001108</v>
       </c>
@@ -4067,8 +4162,11 @@
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>4001109</v>
       </c>
@@ -4087,8 +4185,11 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>4001110</v>
       </c>
@@ -4107,8 +4208,11 @@
       <c r="F20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>4001111</v>
       </c>
@@ -4127,8 +4231,11 @@
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>4001112</v>
       </c>
@@ -4147,13 +4254,16 @@
       <c r="F22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>4001113</v>
       </c>
-      <c r="B23">
-        <v>4001113</v>
+      <c r="B23" t="s">
+        <v>273</v>
       </c>
       <c r="C23">
         <v>100001</v>
@@ -4162,13 +4272,16 @@
         <v>267</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4001114</v>
       </c>
@@ -4187,8 +4300,11 @@
       <c r="F24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>4002001</v>
       </c>
@@ -4207,8 +4323,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>4002002</v>
       </c>
@@ -4227,8 +4346,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>4002003</v>
       </c>
@@ -4247,8 +4369,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>4002004</v>
       </c>
@@ -4267,8 +4392,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>4002005</v>
       </c>
@@ -4287,8 +4415,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>4002006</v>
       </c>
@@ -4307,8 +4438,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>4002007</v>
       </c>
@@ -4327,8 +4461,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32">
         <v>4002008</v>
       </c>
@@ -4347,8 +4484,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4002009</v>
       </c>
@@ -4367,8 +4507,11 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>4002010</v>
       </c>
@@ -4387,159 +4530,183 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35">
+        <v>4002011</v>
+      </c>
+      <c r="B35">
+        <v>4002011</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
+      <c r="A36">
+        <v>4002012</v>
+      </c>
+      <c r="B36">
+        <v>4002012</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37">
+        <v>4002013</v>
+      </c>
+      <c r="B37">
+        <v>4002013</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38">
+        <v>4002014</v>
+      </c>
+      <c r="B38">
+        <v>4002014</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39">
+        <v>4002015</v>
+      </c>
+      <c r="B39">
+        <v>4002015</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
+      <c r="A40">
+        <v>4002016</v>
+      </c>
+      <c r="B40">
+        <v>4002016</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1">
+      <c r="A41">
+        <v>4002017</v>
+      </c>
+      <c r="B41">
+        <v>4002017</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
         <v>4002101</v>
       </c>
-      <c r="B35">
+      <c r="B42">
         <v>4002101</v>
-      </c>
-      <c r="C35">
-        <v>100002</v>
-      </c>
-      <c r="D35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>4002102</v>
-      </c>
-      <c r="B36">
-        <v>4002102</v>
-      </c>
-      <c r="C36">
-        <v>100002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>4002103</v>
-      </c>
-      <c r="B37">
-        <v>4002103</v>
-      </c>
-      <c r="C37">
-        <v>100002</v>
-      </c>
-      <c r="D37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>4002104</v>
-      </c>
-      <c r="B38">
-        <v>4002104</v>
-      </c>
-      <c r="C38">
-        <v>100002</v>
-      </c>
-      <c r="D38" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>4002105</v>
-      </c>
-      <c r="B39">
-        <v>4002105</v>
-      </c>
-      <c r="C39">
-        <v>100002</v>
-      </c>
-      <c r="D39" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>4002106</v>
-      </c>
-      <c r="B40">
-        <v>4002106</v>
-      </c>
-      <c r="C40">
-        <v>100002</v>
-      </c>
-      <c r="D40" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>4002107</v>
-      </c>
-      <c r="B41">
-        <v>4002107</v>
-      </c>
-      <c r="C41">
-        <v>100002</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>4002108</v>
-      </c>
-      <c r="B42">
-        <v>4002108</v>
       </c>
       <c r="C42">
         <v>100002</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4547,19 +4714,22 @@
       <c r="F42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
-        <v>4002109</v>
+        <v>4002102</v>
       </c>
       <c r="B43">
-        <v>4002109</v>
+        <v>4002102</v>
       </c>
       <c r="C43">
         <v>100002</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4567,19 +4737,22 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
-        <v>4002110</v>
+        <v>4002103</v>
       </c>
       <c r="B44">
-        <v>4002110</v>
+        <v>4002103</v>
       </c>
       <c r="C44">
         <v>100002</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4587,19 +4760,22 @@
       <c r="F44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
-        <v>4002111</v>
+        <v>4002104</v>
       </c>
       <c r="B45">
-        <v>4002111</v>
+        <v>4002104</v>
       </c>
       <c r="C45">
         <v>100002</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4607,19 +4783,22 @@
       <c r="F45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
-        <v>4002112</v>
+        <v>4002105</v>
       </c>
       <c r="B46">
-        <v>4002112</v>
+        <v>4002105</v>
       </c>
       <c r="C46">
         <v>100002</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4627,19 +4806,22 @@
       <c r="F46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
-        <v>4002113</v>
+        <v>4002106</v>
       </c>
       <c r="B47">
-        <v>4002113</v>
+        <v>4002106</v>
       </c>
       <c r="C47">
         <v>100002</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4647,19 +4829,22 @@
       <c r="F47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
-        <v>4002114</v>
+        <v>4002107</v>
       </c>
       <c r="B48">
-        <v>4002114</v>
+        <v>4002107</v>
       </c>
       <c r="C48">
         <v>100002</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4667,19 +4852,22 @@
       <c r="F48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
-        <v>4002115</v>
+        <v>4002108</v>
       </c>
       <c r="B49">
-        <v>4002115</v>
+        <v>4002108</v>
       </c>
       <c r="C49">
         <v>100002</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4687,19 +4875,22 @@
       <c r="F49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
-        <v>4002116</v>
+        <v>4002109</v>
       </c>
       <c r="B50">
-        <v>4002116</v>
+        <v>4002109</v>
       </c>
       <c r="C50">
         <v>100002</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4707,19 +4898,22 @@
       <c r="F50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
-        <v>4002117</v>
+        <v>4002110</v>
       </c>
       <c r="B51">
-        <v>4002117</v>
+        <v>4002110</v>
       </c>
       <c r="C51">
         <v>100002</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4727,19 +4921,22 @@
       <c r="F51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
-        <v>4002118</v>
+        <v>4002111</v>
       </c>
       <c r="B52">
-        <v>4002118</v>
+        <v>4002111</v>
       </c>
       <c r="C52">
         <v>100002</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4747,19 +4944,22 @@
       <c r="F52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
-        <v>4002119</v>
+        <v>4002112</v>
       </c>
       <c r="B53">
-        <v>4002119</v>
+        <v>4002112</v>
       </c>
       <c r="C53">
         <v>100002</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4767,79 +4967,91 @@
       <c r="F53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
-        <v>4002120</v>
+        <v>4002113</v>
       </c>
       <c r="B54">
-        <v>4002120</v>
+        <v>4002113</v>
       </c>
       <c r="C54">
         <v>100002</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
-        <v>4002121</v>
+        <v>4002114</v>
       </c>
       <c r="B55">
-        <v>4002121</v>
+        <v>4002114</v>
       </c>
       <c r="C55">
         <v>100002</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
-        <v>4002122</v>
+        <v>4002115</v>
       </c>
       <c r="B56">
-        <v>4002122</v>
+        <v>4002115</v>
       </c>
       <c r="C56">
         <v>100002</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
-        <v>4002123</v>
+        <v>4002116</v>
       </c>
       <c r="B57">
-        <v>4002123</v>
+        <v>4002116</v>
       </c>
       <c r="C57">
         <v>100002</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4847,19 +5059,22 @@
       <c r="F57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
-        <v>4002124</v>
+        <v>4002117</v>
       </c>
       <c r="B58">
-        <v>4002124</v>
+        <v>4002117</v>
       </c>
       <c r="C58">
         <v>100002</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4867,19 +5082,22 @@
       <c r="F58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
-        <v>4002125</v>
+        <v>4002118</v>
       </c>
       <c r="B59">
-        <v>4002125</v>
+        <v>4002118</v>
       </c>
       <c r="C59">
         <v>100002</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4887,19 +5105,22 @@
       <c r="F59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
-        <v>4002126</v>
+        <v>4002119</v>
       </c>
       <c r="B60">
-        <v>4002126</v>
+        <v>4002119</v>
       </c>
       <c r="C60">
         <v>100002</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4907,125 +5128,307 @@
       <c r="F60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
-        <v>4002127</v>
+        <v>4002120</v>
       </c>
       <c r="B61">
-        <v>4002127</v>
+        <v>4002120</v>
       </c>
       <c r="C61">
         <v>100002</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
-        <v>4002128</v>
+        <v>4002121</v>
       </c>
       <c r="B62">
-        <v>4002128</v>
+        <v>4002121</v>
       </c>
       <c r="C62">
         <v>100002</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
-        <v>4002129</v>
+        <v>4002122</v>
       </c>
       <c r="B63">
-        <v>4002129</v>
+        <v>4002122</v>
       </c>
       <c r="C63">
         <v>100002</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
-        <v>4002130</v>
+        <v>4002123</v>
       </c>
       <c r="B64">
-        <v>4002130</v>
+        <v>4002123</v>
       </c>
       <c r="C64">
         <v>100002</v>
       </c>
       <c r="D64" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
-        <v>4002131</v>
+        <v>4002124</v>
       </c>
       <c r="B65">
-        <v>4002131</v>
+        <v>4002124</v>
       </c>
       <c r="C65">
         <v>100002</v>
       </c>
       <c r="D65" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
-        <v>4002132</v>
+        <v>4002125</v>
       </c>
       <c r="B66">
-        <v>4002132</v>
+        <v>4002125</v>
       </c>
       <c r="C66">
         <v>100002</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
         <v>3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>4002126</v>
+      </c>
+      <c r="B67">
+        <v>4002126</v>
+      </c>
+      <c r="C67">
+        <v>100002</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>4002127</v>
+      </c>
+      <c r="B68">
+        <v>4002127</v>
+      </c>
+      <c r="C68">
+        <v>100002</v>
+      </c>
+      <c r="D68" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>4002128</v>
+      </c>
+      <c r="B69">
+        <v>4002128</v>
+      </c>
+      <c r="C69">
+        <v>100002</v>
+      </c>
+      <c r="D69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>4002129</v>
+      </c>
+      <c r="B70">
+        <v>4002129</v>
+      </c>
+      <c r="C70">
+        <v>100002</v>
+      </c>
+      <c r="D70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>4002130</v>
+      </c>
+      <c r="B71">
+        <v>4002130</v>
+      </c>
+      <c r="C71">
+        <v>100002</v>
+      </c>
+      <c r="D71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>4002131</v>
+      </c>
+      <c r="B72">
+        <v>4002131</v>
+      </c>
+      <c r="C72">
+        <v>100002</v>
+      </c>
+      <c r="D72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>4002132</v>
+      </c>
+      <c r="B73">
+        <v>4002132</v>
+      </c>
+      <c r="C73">
+        <v>100002</v>
+      </c>
+      <c r="D73" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5042,10 +5445,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="A8:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5233,6 +5636,20 @@
       </c>
       <c r="D13" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>5002003</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="0" windowWidth="26480" windowHeight="18680" activeTab="5"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25080" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="286">
   <si>
     <t>道具id</t>
   </si>
@@ -1055,6 +1055,18 @@
   </si>
   <si>
     <t>LevelData/group_2_90_2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_33</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_34</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_35</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_36</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3741,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5428,6 +5440,98 @@
         <v>3</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>4002133</v>
+      </c>
+      <c r="B74">
+        <v>4002133</v>
+      </c>
+      <c r="C74">
+        <v>100002</v>
+      </c>
+      <c r="D74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>4002134</v>
+      </c>
+      <c r="B75">
+        <v>4002134</v>
+      </c>
+      <c r="C75">
+        <v>100002</v>
+      </c>
+      <c r="D75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>4002135</v>
+      </c>
+      <c r="B76">
+        <v>4002135</v>
+      </c>
+      <c r="C76">
+        <v>100002</v>
+      </c>
+      <c r="D76" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>4002136</v>
+      </c>
+      <c r="B77">
+        <v>4002136</v>
+      </c>
+      <c r="C77">
+        <v>100002</v>
+      </c>
+      <c r="D77" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
         <v>0</v>
       </c>
     </row>
@@ -5447,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1540" windowWidth="31280" windowHeight="21140" activeTab="3"/>
+    <workbookView xWindow="3760" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="302">
   <si>
     <t>道具id</t>
   </si>
@@ -835,73 +835,236 @@
     <t>Prefabs/MapObj/group2/MapGround_2_obs_1_35</t>
   </si>
   <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_21</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_22</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_23</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_24</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_25</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_26</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_27</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_28</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_29</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_30</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_31</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_32</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_33</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_34</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_35</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_36</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_37</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_38</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_39</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_40</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_41</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_42</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_43</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_44</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_45</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_46</t>
+  </si>
+  <si>
     <t>Prefabs/MapObj/group2/MapGround_2_obs_1_36</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_18</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_19</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_20</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_21</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_22</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_23</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_24</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_25</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_26</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_27</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_28</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_29</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_30</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_31</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_32</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_33</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_34</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_35</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_36</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_37</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_38</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_37</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_38</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_39</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_40</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_41</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_42</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_43</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_44</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_45</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_46</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_47</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_48</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_49</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_50</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_51</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_52</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_53</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_54</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_55</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_56</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_57</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_58</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_59</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_60</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_61</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_62</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_63</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_64</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_65</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_66</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_67</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_68</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_69</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_70</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_71</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_72</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_73</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_74</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_75</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_76</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_77</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_78</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_79</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_80</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_81</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_82</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_83</t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3598,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -3621,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3644,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3667,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3690,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3713,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3736,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3759,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3782,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3805,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3828,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3851,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3874,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3897,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3920,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3943,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3966,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3989,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4012,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4035,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4058,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4081,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4095,22 +4258,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>4002101</v>
+        <v>4002040</v>
       </c>
       <c r="B64">
-        <v>4002101</v>
+        <v>4002040</v>
       </c>
       <c r="C64">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4118,22 +4281,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>4002102</v>
+        <v>4002041</v>
       </c>
       <c r="B65">
-        <v>4002102</v>
+        <v>4002041</v>
       </c>
       <c r="C65">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4141,22 +4304,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>4002103</v>
+        <v>4002042</v>
       </c>
       <c r="B66">
-        <v>4002103</v>
+        <v>4002042</v>
       </c>
       <c r="C66">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -4164,22 +4327,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>4002104</v>
+        <v>4002043</v>
       </c>
       <c r="B67">
-        <v>4002104</v>
+        <v>4002043</v>
       </c>
       <c r="C67">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4187,22 +4350,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>4002105</v>
+        <v>4002044</v>
       </c>
       <c r="B68">
-        <v>4002105</v>
+        <v>4002044</v>
       </c>
       <c r="C68">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4210,22 +4373,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>4002106</v>
+        <v>4002045</v>
       </c>
       <c r="B69">
-        <v>4002106</v>
+        <v>4002045</v>
       </c>
       <c r="C69">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4233,22 +4396,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>4002107</v>
+        <v>4002046</v>
       </c>
       <c r="B70">
-        <v>4002107</v>
+        <v>4002046</v>
       </c>
       <c r="C70">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4256,16 +4419,16 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>4002108</v>
+        <v>4002101</v>
       </c>
       <c r="B71">
-        <v>4002108</v>
+        <v>4002101</v>
       </c>
       <c r="C71">
         <v>100002</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4279,16 +4442,16 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>4002109</v>
+        <v>4002102</v>
       </c>
       <c r="B72">
-        <v>4002109</v>
+        <v>4002102</v>
       </c>
       <c r="C72">
         <v>100002</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4302,16 +4465,16 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>4002110</v>
+        <v>4002103</v>
       </c>
       <c r="B73">
-        <v>4002110</v>
+        <v>4002103</v>
       </c>
       <c r="C73">
         <v>100002</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4325,16 +4488,16 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>4002111</v>
+        <v>4002104</v>
       </c>
       <c r="B74">
-        <v>4002111</v>
+        <v>4002104</v>
       </c>
       <c r="C74">
         <v>100002</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4348,16 +4511,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>4002112</v>
+        <v>4002105</v>
       </c>
       <c r="B75">
-        <v>4002112</v>
+        <v>4002105</v>
       </c>
       <c r="C75">
         <v>100002</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4371,16 +4534,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>4002113</v>
+        <v>4002106</v>
       </c>
       <c r="B76">
-        <v>4002113</v>
+        <v>4002106</v>
       </c>
       <c r="C76">
         <v>100002</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4394,16 +4557,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>4002114</v>
+        <v>4002107</v>
       </c>
       <c r="B77">
-        <v>4002114</v>
+        <v>4002107</v>
       </c>
       <c r="C77">
         <v>100002</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4417,16 +4580,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>4002115</v>
+        <v>4002108</v>
       </c>
       <c r="B78">
-        <v>4002115</v>
+        <v>4002108</v>
       </c>
       <c r="C78">
         <v>100002</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4440,16 +4603,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>4002116</v>
+        <v>4002109</v>
       </c>
       <c r="B79">
-        <v>4002116</v>
+        <v>4002109</v>
       </c>
       <c r="C79">
         <v>100002</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4463,16 +4626,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>4002117</v>
+        <v>4002110</v>
       </c>
       <c r="B80">
-        <v>4002117</v>
+        <v>4002110</v>
       </c>
       <c r="C80">
         <v>100002</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4486,16 +4649,16 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>4002118</v>
+        <v>4002111</v>
       </c>
       <c r="B81">
-        <v>4002118</v>
+        <v>4002111</v>
       </c>
       <c r="C81">
         <v>100002</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4509,16 +4672,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>4002119</v>
+        <v>4002112</v>
       </c>
       <c r="B82">
-        <v>4002119</v>
+        <v>4002112</v>
       </c>
       <c r="C82">
         <v>100002</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4532,19 +4695,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>4002120</v>
+        <v>4002113</v>
       </c>
       <c r="B83">
-        <v>4002120</v>
+        <v>4002113</v>
       </c>
       <c r="C83">
         <v>100002</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -4555,19 +4718,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>4002121</v>
+        <v>4002114</v>
       </c>
       <c r="B84">
-        <v>4002121</v>
+        <v>4002114</v>
       </c>
       <c r="C84">
         <v>100002</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -4578,19 +4741,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>4002122</v>
+        <v>4002115</v>
       </c>
       <c r="B85">
-        <v>4002122</v>
+        <v>4002115</v>
       </c>
       <c r="C85">
         <v>100002</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -4601,16 +4764,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>4002123</v>
+        <v>4002116</v>
       </c>
       <c r="B86">
-        <v>4002123</v>
+        <v>4002116</v>
       </c>
       <c r="C86">
         <v>100002</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4624,16 +4787,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>4002124</v>
+        <v>4002117</v>
       </c>
       <c r="B87">
-        <v>4002124</v>
+        <v>4002117</v>
       </c>
       <c r="C87">
         <v>100002</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4647,16 +4810,16 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>4002125</v>
+        <v>4002118</v>
       </c>
       <c r="B88">
-        <v>4002125</v>
+        <v>4002118</v>
       </c>
       <c r="C88">
         <v>100002</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4670,16 +4833,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>4002126</v>
+        <v>4002119</v>
       </c>
       <c r="B89">
-        <v>4002126</v>
+        <v>4002119</v>
       </c>
       <c r="C89">
         <v>100002</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4693,19 +4856,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>4002127</v>
+        <v>4002120</v>
       </c>
       <c r="B90">
-        <v>4002127</v>
+        <v>4002120</v>
       </c>
       <c r="C90">
         <v>100002</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -4716,19 +4879,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>4002128</v>
+        <v>4002121</v>
       </c>
       <c r="B91">
-        <v>4002128</v>
+        <v>4002121</v>
       </c>
       <c r="C91">
         <v>100002</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>3</v>
@@ -4739,19 +4902,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>4002129</v>
+        <v>4002122</v>
       </c>
       <c r="B92">
-        <v>4002129</v>
+        <v>4002122</v>
       </c>
       <c r="C92">
         <v>100002</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -4762,19 +4925,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>4002130</v>
+        <v>4002123</v>
       </c>
       <c r="B93">
-        <v>4002130</v>
+        <v>4002123</v>
       </c>
       <c r="C93">
         <v>100002</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -4785,19 +4948,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>4002131</v>
+        <v>4002124</v>
       </c>
       <c r="B94">
-        <v>4002131</v>
+        <v>4002124</v>
       </c>
       <c r="C94">
         <v>100002</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -4808,16 +4971,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>4002132</v>
+        <v>4002125</v>
       </c>
       <c r="B95">
-        <v>4002132</v>
+        <v>4002125</v>
       </c>
       <c r="C95">
         <v>100002</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4831,16 +4994,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>4002133</v>
+        <v>4002126</v>
       </c>
       <c r="B96">
-        <v>4002133</v>
+        <v>4002126</v>
       </c>
       <c r="C96">
         <v>100002</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4854,16 +5017,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>4002134</v>
+        <v>4002127</v>
       </c>
       <c r="B97">
-        <v>4002134</v>
+        <v>4002127</v>
       </c>
       <c r="C97">
         <v>100002</v>
       </c>
       <c r="D97" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4877,16 +5040,16 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>4002135</v>
+        <v>4002128</v>
       </c>
       <c r="B98">
-        <v>4002135</v>
+        <v>4002128</v>
       </c>
       <c r="C98">
         <v>100002</v>
       </c>
       <c r="D98" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4900,24 +5063,1266 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
+        <v>4002129</v>
+      </c>
+      <c r="B99">
+        <v>4002129</v>
+      </c>
+      <c r="C99">
+        <v>100002</v>
+      </c>
+      <c r="D99" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>4002130</v>
+      </c>
+      <c r="B100">
+        <v>4002130</v>
+      </c>
+      <c r="C100">
+        <v>100002</v>
+      </c>
+      <c r="D100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>4002131</v>
+      </c>
+      <c r="B101">
+        <v>4002131</v>
+      </c>
+      <c r="C101">
+        <v>100002</v>
+      </c>
+      <c r="D101" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>4002132</v>
+      </c>
+      <c r="B102">
+        <v>4002132</v>
+      </c>
+      <c r="C102">
+        <v>100002</v>
+      </c>
+      <c r="D102" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>4002133</v>
+      </c>
+      <c r="B103">
+        <v>4002133</v>
+      </c>
+      <c r="C103">
+        <v>100002</v>
+      </c>
+      <c r="D103" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>4002134</v>
+      </c>
+      <c r="B104">
+        <v>4002134</v>
+      </c>
+      <c r="C104">
+        <v>100002</v>
+      </c>
+      <c r="D104" t="s">
+        <v>223</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>4002135</v>
+      </c>
+      <c r="B105">
+        <v>4002135</v>
+      </c>
+      <c r="C105">
+        <v>100002</v>
+      </c>
+      <c r="D105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
         <v>4002136</v>
       </c>
-      <c r="B99">
+      <c r="B106">
         <v>4002136</v>
       </c>
-      <c r="C99">
-        <v>100002</v>
-      </c>
-      <c r="D99" t="s">
-        <v>225</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
+      <c r="C106">
+        <v>100002</v>
+      </c>
+      <c r="D106" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>4002137</v>
+      </c>
+      <c r="B107">
+        <v>4002137</v>
+      </c>
+      <c r="C107">
+        <v>100002</v>
+      </c>
+      <c r="D107" t="s">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>4002138</v>
+      </c>
+      <c r="B108">
+        <v>4002138</v>
+      </c>
+      <c r="C108">
+        <v>100002</v>
+      </c>
+      <c r="D108" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>4002139</v>
+      </c>
+      <c r="B109">
+        <v>4002139</v>
+      </c>
+      <c r="C109">
+        <v>100002</v>
+      </c>
+      <c r="D109" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>4002140</v>
+      </c>
+      <c r="B110">
+        <v>4002140</v>
+      </c>
+      <c r="C110">
+        <v>100002</v>
+      </c>
+      <c r="D110" t="s">
+        <v>258</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>4002141</v>
+      </c>
+      <c r="B111">
+        <v>4002141</v>
+      </c>
+      <c r="C111">
+        <v>100002</v>
+      </c>
+      <c r="D111" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>4002142</v>
+      </c>
+      <c r="B112">
+        <v>4002142</v>
+      </c>
+      <c r="C112">
+        <v>100002</v>
+      </c>
+      <c r="D112" t="s">
+        <v>260</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>4002143</v>
+      </c>
+      <c r="B113">
+        <v>4002143</v>
+      </c>
+      <c r="C113">
+        <v>100002</v>
+      </c>
+      <c r="D113" t="s">
+        <v>261</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>4002144</v>
+      </c>
+      <c r="B114">
+        <v>4002144</v>
+      </c>
+      <c r="C114">
+        <v>100002</v>
+      </c>
+      <c r="D114" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>4002145</v>
+      </c>
+      <c r="B115">
+        <v>4002145</v>
+      </c>
+      <c r="C115">
+        <v>100002</v>
+      </c>
+      <c r="D115" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>4002146</v>
+      </c>
+      <c r="B116">
+        <v>4002146</v>
+      </c>
+      <c r="C116">
+        <v>100002</v>
+      </c>
+      <c r="D116" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>4002147</v>
+      </c>
+      <c r="B117">
+        <v>4002147</v>
+      </c>
+      <c r="C117">
+        <v>100002</v>
+      </c>
+      <c r="D117" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>4002148</v>
+      </c>
+      <c r="B118">
+        <v>4002148</v>
+      </c>
+      <c r="C118">
+        <v>100002</v>
+      </c>
+      <c r="D118" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>4002149</v>
+      </c>
+      <c r="B119">
+        <v>4002149</v>
+      </c>
+      <c r="C119">
+        <v>100002</v>
+      </c>
+      <c r="D119" t="s">
+        <v>267</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>4002150</v>
+      </c>
+      <c r="B120">
+        <v>4002150</v>
+      </c>
+      <c r="C120">
+        <v>100002</v>
+      </c>
+      <c r="D120" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>4002151</v>
+      </c>
+      <c r="B121">
+        <v>4002151</v>
+      </c>
+      <c r="C121">
+        <v>100002</v>
+      </c>
+      <c r="D121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>4002152</v>
+      </c>
+      <c r="B122">
+        <v>4002152</v>
+      </c>
+      <c r="C122">
+        <v>100002</v>
+      </c>
+      <c r="D122" t="s">
+        <v>270</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>4002153</v>
+      </c>
+      <c r="B123">
+        <v>4002153</v>
+      </c>
+      <c r="C123">
+        <v>100002</v>
+      </c>
+      <c r="D123" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>4002154</v>
+      </c>
+      <c r="B124">
+        <v>4002154</v>
+      </c>
+      <c r="C124">
+        <v>100002</v>
+      </c>
+      <c r="D124" t="s">
+        <v>272</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>4002155</v>
+      </c>
+      <c r="B125">
+        <v>4002155</v>
+      </c>
+      <c r="C125">
+        <v>100002</v>
+      </c>
+      <c r="D125" t="s">
+        <v>273</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>4002156</v>
+      </c>
+      <c r="B126">
+        <v>4002156</v>
+      </c>
+      <c r="C126">
+        <v>100002</v>
+      </c>
+      <c r="D126" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>4002157</v>
+      </c>
+      <c r="B127">
+        <v>4002157</v>
+      </c>
+      <c r="C127">
+        <v>100002</v>
+      </c>
+      <c r="D127" t="s">
+        <v>275</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>4002158</v>
+      </c>
+      <c r="B128">
+        <v>4002158</v>
+      </c>
+      <c r="C128">
+        <v>100002</v>
+      </c>
+      <c r="D128" t="s">
+        <v>276</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>4002159</v>
+      </c>
+      <c r="B129">
+        <v>4002159</v>
+      </c>
+      <c r="C129">
+        <v>100002</v>
+      </c>
+      <c r="D129" t="s">
+        <v>277</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>4002160</v>
+      </c>
+      <c r="B130">
+        <v>4002160</v>
+      </c>
+      <c r="C130">
+        <v>100002</v>
+      </c>
+      <c r="D130" t="s">
+        <v>278</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>4002161</v>
+      </c>
+      <c r="B131">
+        <v>4002161</v>
+      </c>
+      <c r="C131">
+        <v>100002</v>
+      </c>
+      <c r="D131" t="s">
+        <v>279</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>4002162</v>
+      </c>
+      <c r="B132">
+        <v>4002162</v>
+      </c>
+      <c r="C132">
+        <v>100002</v>
+      </c>
+      <c r="D132" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>4002163</v>
+      </c>
+      <c r="B133">
+        <v>4002163</v>
+      </c>
+      <c r="C133">
+        <v>100002</v>
+      </c>
+      <c r="D133" t="s">
+        <v>281</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>4002164</v>
+      </c>
+      <c r="B134">
+        <v>4002164</v>
+      </c>
+      <c r="C134">
+        <v>100002</v>
+      </c>
+      <c r="D134" t="s">
+        <v>282</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>4002165</v>
+      </c>
+      <c r="B135">
+        <v>4002165</v>
+      </c>
+      <c r="C135">
+        <v>100002</v>
+      </c>
+      <c r="D135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>4002166</v>
+      </c>
+      <c r="B136">
+        <v>4002166</v>
+      </c>
+      <c r="C136">
+        <v>100002</v>
+      </c>
+      <c r="D136" t="s">
+        <v>284</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>4002167</v>
+      </c>
+      <c r="B137">
+        <v>4002167</v>
+      </c>
+      <c r="C137">
+        <v>100002</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>4002168</v>
+      </c>
+      <c r="B138">
+        <v>4002168</v>
+      </c>
+      <c r="C138">
+        <v>100002</v>
+      </c>
+      <c r="D138" t="s">
+        <v>286</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>4002169</v>
+      </c>
+      <c r="B139">
+        <v>4002169</v>
+      </c>
+      <c r="C139">
+        <v>100002</v>
+      </c>
+      <c r="D139" t="s">
+        <v>287</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>4002170</v>
+      </c>
+      <c r="B140">
+        <v>4002170</v>
+      </c>
+      <c r="C140">
+        <v>100002</v>
+      </c>
+      <c r="D140" t="s">
+        <v>288</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>4002171</v>
+      </c>
+      <c r="B141">
+        <v>4002171</v>
+      </c>
+      <c r="C141">
+        <v>100002</v>
+      </c>
+      <c r="D141" t="s">
+        <v>289</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>4002172</v>
+      </c>
+      <c r="B142">
+        <v>4002172</v>
+      </c>
+      <c r="C142">
+        <v>100002</v>
+      </c>
+      <c r="D142" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>4002173</v>
+      </c>
+      <c r="B143">
+        <v>4002173</v>
+      </c>
+      <c r="C143">
+        <v>100002</v>
+      </c>
+      <c r="D143" t="s">
+        <v>291</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>4002174</v>
+      </c>
+      <c r="B144">
+        <v>4002174</v>
+      </c>
+      <c r="C144">
+        <v>100002</v>
+      </c>
+      <c r="D144" t="s">
+        <v>292</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>4002175</v>
+      </c>
+      <c r="B145">
+        <v>4002175</v>
+      </c>
+      <c r="C145">
+        <v>100002</v>
+      </c>
+      <c r="D145" t="s">
+        <v>293</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>4002176</v>
+      </c>
+      <c r="B146">
+        <v>4002176</v>
+      </c>
+      <c r="C146">
+        <v>100002</v>
+      </c>
+      <c r="D146" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>4002177</v>
+      </c>
+      <c r="B147">
+        <v>4002177</v>
+      </c>
+      <c r="C147">
+        <v>100002</v>
+      </c>
+      <c r="D147" t="s">
+        <v>295</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>4002178</v>
+      </c>
+      <c r="B148">
+        <v>4002178</v>
+      </c>
+      <c r="C148">
+        <v>100002</v>
+      </c>
+      <c r="D148" t="s">
+        <v>296</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>4002179</v>
+      </c>
+      <c r="B149">
+        <v>4002179</v>
+      </c>
+      <c r="C149">
+        <v>100002</v>
+      </c>
+      <c r="D149" t="s">
+        <v>297</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>4002180</v>
+      </c>
+      <c r="B150">
+        <v>4002180</v>
+      </c>
+      <c r="C150">
+        <v>100002</v>
+      </c>
+      <c r="D150" t="s">
+        <v>298</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>4002181</v>
+      </c>
+      <c r="B151">
+        <v>4002181</v>
+      </c>
+      <c r="C151">
+        <v>100002</v>
+      </c>
+      <c r="D151" t="s">
+        <v>299</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>4002182</v>
+      </c>
+      <c r="B152">
+        <v>4002182</v>
+      </c>
+      <c r="C152">
+        <v>100002</v>
+      </c>
+      <c r="D152" t="s">
+        <v>300</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>4002183</v>
+      </c>
+      <c r="B153">
+        <v>4002183</v>
+      </c>
+      <c r="C153">
+        <v>100002</v>
+      </c>
+      <c r="D153" t="s">
+        <v>301</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153">
         <v>0</v>
       </c>
     </row>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="3"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="25060" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="379">
   <si>
     <t>道具id</t>
   </si>
@@ -1065,6 +1065,242 @@
   </si>
   <si>
     <t>Prefabs/MapObj/group2/MapGround_2_obs_1_83</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_10</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_11</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_12</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_13</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_14</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_15</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_16</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_17</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_21</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_22</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_23</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_24</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_25</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_26</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_27</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_28</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_29</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_30</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_31</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_32</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_33</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_34</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_35</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_36</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_37</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_38</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_39</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_40</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_41</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_42</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_43</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_44</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_45</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_46</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_47</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_48</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_49</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_50</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_51</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_52</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_53</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_54</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_55</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_56</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_57</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_58</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_59</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_60</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_61</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_62</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_63</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_64</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_65</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_66</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_67</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_68</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_69</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_70</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_71</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_72</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_73</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_74</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_75</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_76</t>
+  </si>
+  <si>
+    <t>LevelData/group_3_100_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2796,10 +3032,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4425,7 +4662,7 @@
         <v>4002101</v>
       </c>
       <c r="C71">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="D71" t="s">
         <v>158</v>
@@ -4448,7 +4685,7 @@
         <v>4002102</v>
       </c>
       <c r="C72">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="D72" t="s">
         <v>159</v>
@@ -6323,6 +6560,1754 @@
         <v>3</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>4003001</v>
+      </c>
+      <c r="B154">
+        <v>4003001</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>302</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>4003002</v>
+      </c>
+      <c r="B155">
+        <v>4003002</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>303</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>4003003</v>
+      </c>
+      <c r="B156">
+        <v>4003003</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>304</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>4003004</v>
+      </c>
+      <c r="B157">
+        <v>4003004</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>305</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>4003005</v>
+      </c>
+      <c r="B158">
+        <v>4003005</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>306</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>4003006</v>
+      </c>
+      <c r="B159">
+        <v>4003006</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>307</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>4003007</v>
+      </c>
+      <c r="B160">
+        <v>4003007</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>308</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>4003008</v>
+      </c>
+      <c r="B161">
+        <v>4003008</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>309</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>4003009</v>
+      </c>
+      <c r="B162">
+        <v>4003009</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>310</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>4003010</v>
+      </c>
+      <c r="B163">
+        <v>4003010</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>311</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>4003011</v>
+      </c>
+      <c r="B164">
+        <v>4003011</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>312</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>4003012</v>
+      </c>
+      <c r="B165">
+        <v>4003012</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>313</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>4003013</v>
+      </c>
+      <c r="B166">
+        <v>4003013</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>314</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>4003014</v>
+      </c>
+      <c r="B167">
+        <v>4003014</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>315</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>4003015</v>
+      </c>
+      <c r="B168">
+        <v>4003015</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>316</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>4003016</v>
+      </c>
+      <c r="B169">
+        <v>4003016</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>317</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>4003017</v>
+      </c>
+      <c r="B170">
+        <v>4003017</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170" t="s">
+        <v>318</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>4003018</v>
+      </c>
+      <c r="B171">
+        <v>4003018</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>319</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>4003019</v>
+      </c>
+      <c r="B172">
+        <v>4003019</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172" t="s">
+        <v>320</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>4003020</v>
+      </c>
+      <c r="B173">
+        <v>4003020</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>321</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>4003021</v>
+      </c>
+      <c r="B174">
+        <v>4003021</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>322</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>4003022</v>
+      </c>
+      <c r="B175">
+        <v>4003022</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>323</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>4003023</v>
+      </c>
+      <c r="B176">
+        <v>4003023</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>324</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>4003024</v>
+      </c>
+      <c r="B177">
+        <v>4003024</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>325</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>4003025</v>
+      </c>
+      <c r="B178">
+        <v>4003025</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>326</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>4003026</v>
+      </c>
+      <c r="B179">
+        <v>4003026</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>327</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>4003027</v>
+      </c>
+      <c r="B180">
+        <v>4003027</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>328</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>4003028</v>
+      </c>
+      <c r="B181">
+        <v>4003028</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181" t="s">
+        <v>329</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>4003029</v>
+      </c>
+      <c r="B182">
+        <v>4003029</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>330</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>4003030</v>
+      </c>
+      <c r="B183">
+        <v>4003030</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>331</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>4003031</v>
+      </c>
+      <c r="B184">
+        <v>4003031</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>332</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>4003032</v>
+      </c>
+      <c r="B185">
+        <v>4003032</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>333</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>4003033</v>
+      </c>
+      <c r="B186">
+        <v>4003033</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>334</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>4003034</v>
+      </c>
+      <c r="B187">
+        <v>4003034</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>335</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>4003035</v>
+      </c>
+      <c r="B188">
+        <v>4003035</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>336</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>4003036</v>
+      </c>
+      <c r="B189">
+        <v>4003036</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>337</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>4003037</v>
+      </c>
+      <c r="B190">
+        <v>4003037</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190" t="s">
+        <v>338</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>4003038</v>
+      </c>
+      <c r="B191">
+        <v>4003038</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>339</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>4003039</v>
+      </c>
+      <c r="B192">
+        <v>4003039</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>340</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>4003040</v>
+      </c>
+      <c r="B193">
+        <v>4003040</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>341</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>4003041</v>
+      </c>
+      <c r="B194">
+        <v>4003041</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>342</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>4003042</v>
+      </c>
+      <c r="B195">
+        <v>4003042</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195" t="s">
+        <v>343</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>4003043</v>
+      </c>
+      <c r="B196">
+        <v>4003043</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>344</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>4003044</v>
+      </c>
+      <c r="B197">
+        <v>4003044</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>345</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>4003045</v>
+      </c>
+      <c r="B198">
+        <v>4003045</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>346</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>4003046</v>
+      </c>
+      <c r="B199">
+        <v>4003046</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>347</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>4003047</v>
+      </c>
+      <c r="B200">
+        <v>4003047</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>348</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>4003048</v>
+      </c>
+      <c r="B201">
+        <v>4003048</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>349</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>4003049</v>
+      </c>
+      <c r="B202">
+        <v>4003049</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202" t="s">
+        <v>350</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>4003050</v>
+      </c>
+      <c r="B203">
+        <v>4003050</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>351</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>4003051</v>
+      </c>
+      <c r="B204">
+        <v>4003051</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s">
+        <v>352</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>4003052</v>
+      </c>
+      <c r="B205">
+        <v>4003052</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>353</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>4003053</v>
+      </c>
+      <c r="B206">
+        <v>4003053</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>354</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>4003054</v>
+      </c>
+      <c r="B207">
+        <v>4003054</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207" t="s">
+        <v>355</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>4003055</v>
+      </c>
+      <c r="B208">
+        <v>4003055</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>356</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>4003056</v>
+      </c>
+      <c r="B209">
+        <v>4003056</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>357</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>4003057</v>
+      </c>
+      <c r="B210">
+        <v>4003057</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>358</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>4003058</v>
+      </c>
+      <c r="B211">
+        <v>4003058</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211" t="s">
+        <v>359</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>4003059</v>
+      </c>
+      <c r="B212">
+        <v>4003059</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212" t="s">
+        <v>360</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>4003060</v>
+      </c>
+      <c r="B213">
+        <v>4003060</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213" t="s">
+        <v>361</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>4003061</v>
+      </c>
+      <c r="B214">
+        <v>4003061</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214" t="s">
+        <v>362</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>4003062</v>
+      </c>
+      <c r="B215">
+        <v>4003062</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>363</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>4003063</v>
+      </c>
+      <c r="B216">
+        <v>4003063</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216" t="s">
+        <v>364</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>4003064</v>
+      </c>
+      <c r="B217">
+        <v>4003064</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>365</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>4003065</v>
+      </c>
+      <c r="B218">
+        <v>4003065</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>366</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>4003066</v>
+      </c>
+      <c r="B219">
+        <v>4003066</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219" t="s">
+        <v>367</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>4003067</v>
+      </c>
+      <c r="B220">
+        <v>4003067</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>368</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>4003068</v>
+      </c>
+      <c r="B221">
+        <v>4003068</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221" t="s">
+        <v>369</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>4003069</v>
+      </c>
+      <c r="B222">
+        <v>4003069</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" t="s">
+        <v>370</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>4003070</v>
+      </c>
+      <c r="B223">
+        <v>4003070</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>371</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>4003071</v>
+      </c>
+      <c r="B224">
+        <v>4003071</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" t="s">
+        <v>372</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>4003072</v>
+      </c>
+      <c r="B225">
+        <v>4003072</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>373</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>4003073</v>
+      </c>
+      <c r="B226">
+        <v>4003073</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226" t="s">
+        <v>374</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>4003074</v>
+      </c>
+      <c r="B227">
+        <v>4003074</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227" t="s">
+        <v>375</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>4003075</v>
+      </c>
+      <c r="B228">
+        <v>4003075</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228" t="s">
+        <v>376</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>4003076</v>
+      </c>
+      <c r="B229">
+        <v>4003076</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229" t="s">
+        <v>377</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
         <v>0</v>
       </c>
     </row>
@@ -6340,10 +8325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6545,6 +8530,20 @@
       </c>
       <c r="D14" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>5003001</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="25060" windowHeight="15600" activeTab="3"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22980" windowHeight="20880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="466">
   <si>
     <t>道具id</t>
   </si>
@@ -1301,6 +1301,272 @@
   <si>
     <t>LevelData/group_3_100_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A10</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A11</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A12</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A13</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A14</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A15</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A16</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A17</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_A1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_A2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_A3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_B1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_B2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_C1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_C2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_C3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_E1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_E2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_E3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_F1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_F2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_F3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F4</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1633,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1548,7 +1820,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="177">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1634,6 +1906,9 @@
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1719,6 +1994,9 @@
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3032,11 +3310,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G299" sqref="G299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8308,6 +8586,2007 @@
         <v>1</v>
       </c>
       <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>4003077</v>
+      </c>
+      <c r="B230">
+        <v>4003077</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230" t="s">
+        <v>379</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>3</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>4003078</v>
+      </c>
+      <c r="B231">
+        <v>4003078</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>380</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>4003079</v>
+      </c>
+      <c r="B232">
+        <v>4003079</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>381</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>4003080</v>
+      </c>
+      <c r="B233">
+        <v>4003080</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>382</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>3</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>4003081</v>
+      </c>
+      <c r="B234">
+        <v>4003081</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>383</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>4003082</v>
+      </c>
+      <c r="B235">
+        <v>4003082</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235" t="s">
+        <v>384</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>4003083</v>
+      </c>
+      <c r="B236">
+        <v>4003083</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>385</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>4003084</v>
+      </c>
+      <c r="B237">
+        <v>4003084</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>386</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>4003085</v>
+      </c>
+      <c r="B238">
+        <v>4003085</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238" t="s">
+        <v>387</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>4003086</v>
+      </c>
+      <c r="B239">
+        <v>4003086</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>388</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>4003087</v>
+      </c>
+      <c r="B240">
+        <v>4003087</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240" t="s">
+        <v>389</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>4003088</v>
+      </c>
+      <c r="B241">
+        <v>4003088</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>390</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>4003089</v>
+      </c>
+      <c r="B242">
+        <v>4003089</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242" t="s">
+        <v>391</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>4003090</v>
+      </c>
+      <c r="B243">
+        <v>4003090</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>392</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>4003091</v>
+      </c>
+      <c r="B244">
+        <v>4003091</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>393</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>4003092</v>
+      </c>
+      <c r="B245">
+        <v>4003092</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>394</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>4003093</v>
+      </c>
+      <c r="B246">
+        <v>4003093</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>395</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>4003094</v>
+      </c>
+      <c r="B247">
+        <v>4003094</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>396</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>4003095</v>
+      </c>
+      <c r="B248">
+        <v>4003095</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248" t="s">
+        <v>397</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>4003096</v>
+      </c>
+      <c r="B249">
+        <v>4003096</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249" t="s">
+        <v>398</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>4003097</v>
+      </c>
+      <c r="B250">
+        <v>4003097</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250" t="s">
+        <v>399</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>4003098</v>
+      </c>
+      <c r="B251">
+        <v>4003098</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251" t="s">
+        <v>400</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>4003099</v>
+      </c>
+      <c r="B252">
+        <v>4003099</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252" t="s">
+        <v>401</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>4003100</v>
+      </c>
+      <c r="B253">
+        <v>4003100</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253" t="s">
+        <v>402</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>4003101</v>
+      </c>
+      <c r="B254">
+        <v>4003101</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" t="s">
+        <v>403</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>4003102</v>
+      </c>
+      <c r="B255">
+        <v>4003102</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255" t="s">
+        <v>404</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>4003103</v>
+      </c>
+      <c r="B256">
+        <v>4003103</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256" t="s">
+        <v>405</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>4003104</v>
+      </c>
+      <c r="B257">
+        <v>4003104</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257" t="s">
+        <v>406</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>4003105</v>
+      </c>
+      <c r="B258">
+        <v>4003105</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258" t="s">
+        <v>407</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>4003106</v>
+      </c>
+      <c r="B259">
+        <v>4003106</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259" t="s">
+        <v>408</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>4003107</v>
+      </c>
+      <c r="B260">
+        <v>4003107</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260" t="s">
+        <v>409</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>4003108</v>
+      </c>
+      <c r="B261">
+        <v>4003108</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261" t="s">
+        <v>410</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>4003109</v>
+      </c>
+      <c r="B262">
+        <v>4003109</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+      <c r="D262" t="s">
+        <v>411</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>4003110</v>
+      </c>
+      <c r="B263">
+        <v>4003110</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263" t="s">
+        <v>412</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>4003111</v>
+      </c>
+      <c r="B264">
+        <v>4003111</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+      <c r="D264" t="s">
+        <v>413</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>4003112</v>
+      </c>
+      <c r="B265">
+        <v>4003112</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265" t="s">
+        <v>414</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>4003113</v>
+      </c>
+      <c r="B266">
+        <v>4003113</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+      <c r="D266" t="s">
+        <v>415</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>4003114</v>
+      </c>
+      <c r="B267">
+        <v>4003114</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267" t="s">
+        <v>416</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>4003115</v>
+      </c>
+      <c r="B268">
+        <v>4003115</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>417</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>4003116</v>
+      </c>
+      <c r="B269">
+        <v>4003116</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>418</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>4003117</v>
+      </c>
+      <c r="B270">
+        <v>4003117</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" t="s">
+        <v>419</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>4003118</v>
+      </c>
+      <c r="B271">
+        <v>4003118</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>420</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>4003119</v>
+      </c>
+      <c r="B272">
+        <v>4003119</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>421</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>4003120</v>
+      </c>
+      <c r="B273">
+        <v>4003120</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273" t="s">
+        <v>422</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>4003121</v>
+      </c>
+      <c r="B274">
+        <v>4003121</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>423</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>4003122</v>
+      </c>
+      <c r="B275">
+        <v>4003122</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275" t="s">
+        <v>424</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>4003123</v>
+      </c>
+      <c r="B276">
+        <v>4003123</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>425</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>4003124</v>
+      </c>
+      <c r="B277">
+        <v>4003124</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277" t="s">
+        <v>426</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>4003125</v>
+      </c>
+      <c r="B278">
+        <v>4003125</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278" t="s">
+        <v>427</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>4003126</v>
+      </c>
+      <c r="B279">
+        <v>4003126</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279" t="s">
+        <v>428</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>4003127</v>
+      </c>
+      <c r="B280">
+        <v>4003127</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>429</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>4003128</v>
+      </c>
+      <c r="B281">
+        <v>4003128</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281" t="s">
+        <v>430</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>4003129</v>
+      </c>
+      <c r="B282">
+        <v>4003129</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>431</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>4003130</v>
+      </c>
+      <c r="B283">
+        <v>4003130</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283" t="s">
+        <v>432</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>4003131</v>
+      </c>
+      <c r="B284">
+        <v>4003131</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>433</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>4003132</v>
+      </c>
+      <c r="B285">
+        <v>4003132</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>434</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>4003133</v>
+      </c>
+      <c r="B286">
+        <v>4003133</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>435</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>4003134</v>
+      </c>
+      <c r="B287">
+        <v>4003134</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287" t="s">
+        <v>436</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>4003135</v>
+      </c>
+      <c r="B288">
+        <v>4003135</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>437</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>4003136</v>
+      </c>
+      <c r="B289">
+        <v>4003136</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289" t="s">
+        <v>438</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>4003137</v>
+      </c>
+      <c r="B290">
+        <v>4003137</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>439</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>4003138</v>
+      </c>
+      <c r="B291">
+        <v>4003138</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>440</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>4003139</v>
+      </c>
+      <c r="B292">
+        <v>4003139</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>441</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>2</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>4003140</v>
+      </c>
+      <c r="B293">
+        <v>4003140</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293" t="s">
+        <v>442</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>4003141</v>
+      </c>
+      <c r="B294">
+        <v>4003141</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294" t="s">
+        <v>443</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>4003142</v>
+      </c>
+      <c r="B295">
+        <v>4003142</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295" t="s">
+        <v>444</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>4003143</v>
+      </c>
+      <c r="B296">
+        <v>4003143</v>
+      </c>
+      <c r="C296">
+        <v>3</v>
+      </c>
+      <c r="D296" t="s">
+        <v>445</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>4003144</v>
+      </c>
+      <c r="B297">
+        <v>4003144</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>446</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>4003145</v>
+      </c>
+      <c r="B298">
+        <v>4003145</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+      <c r="D298" t="s">
+        <v>447</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>4003146</v>
+      </c>
+      <c r="B299">
+        <v>4003146</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299" t="s">
+        <v>448</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>3</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>4003147</v>
+      </c>
+      <c r="B300">
+        <v>4003147</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+      <c r="D300" t="s">
+        <v>449</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>3</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>4003148</v>
+      </c>
+      <c r="B301">
+        <v>4003148</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301" t="s">
+        <v>450</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>3</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>4003149</v>
+      </c>
+      <c r="B302">
+        <v>4003149</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+      <c r="D302" t="s">
+        <v>451</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>3</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>4003150</v>
+      </c>
+      <c r="B303">
+        <v>4003150</v>
+      </c>
+      <c r="C303">
+        <v>3</v>
+      </c>
+      <c r="D303" t="s">
+        <v>452</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>3</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>4003151</v>
+      </c>
+      <c r="B304">
+        <v>4003151</v>
+      </c>
+      <c r="C304">
+        <v>3</v>
+      </c>
+      <c r="D304" t="s">
+        <v>453</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>3</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>4003152</v>
+      </c>
+      <c r="B305">
+        <v>4003152</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305" t="s">
+        <v>454</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>3</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>4003153</v>
+      </c>
+      <c r="B306">
+        <v>4003153</v>
+      </c>
+      <c r="C306">
+        <v>3</v>
+      </c>
+      <c r="D306" t="s">
+        <v>455</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>3</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>4003154</v>
+      </c>
+      <c r="B307">
+        <v>4003154</v>
+      </c>
+      <c r="C307">
+        <v>3</v>
+      </c>
+      <c r="D307" t="s">
+        <v>456</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>3</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308">
+        <v>4003155</v>
+      </c>
+      <c r="B308">
+        <v>4003155</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308" t="s">
+        <v>457</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>3</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>4003156</v>
+      </c>
+      <c r="B309">
+        <v>4003156</v>
+      </c>
+      <c r="C309">
+        <v>3</v>
+      </c>
+      <c r="D309" t="s">
+        <v>458</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>3</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>4003157</v>
+      </c>
+      <c r="B310">
+        <v>4003157</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310" t="s">
+        <v>459</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>3</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>4003158</v>
+      </c>
+      <c r="B311">
+        <v>4003158</v>
+      </c>
+      <c r="C311">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>460</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>3</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>4003159</v>
+      </c>
+      <c r="B312">
+        <v>4003159</v>
+      </c>
+      <c r="C312">
+        <v>3</v>
+      </c>
+      <c r="D312" t="s">
+        <v>461</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>3</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>4003160</v>
+      </c>
+      <c r="B313">
+        <v>4003160</v>
+      </c>
+      <c r="C313">
+        <v>3</v>
+      </c>
+      <c r="D313" t="s">
+        <v>462</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>3</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314">
+        <v>4003161</v>
+      </c>
+      <c r="B314">
+        <v>4003161</v>
+      </c>
+      <c r="C314">
+        <v>3</v>
+      </c>
+      <c r="D314" t="s">
+        <v>463</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>3</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315">
+        <v>4003162</v>
+      </c>
+      <c r="B315">
+        <v>4003162</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315" t="s">
+        <v>464</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>3</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316">
+        <v>4003163</v>
+      </c>
+      <c r="B316">
+        <v>4003163</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316" t="s">
+        <v>465</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>3</v>
+      </c>
+      <c r="G316">
         <v>0</v>
       </c>
     </row>
@@ -8328,7 +10607,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="22980" windowHeight="20880" activeTab="3"/>
+    <workbookView xWindow="2580" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2764,7 +2764,7 @@
         <v>68</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0.4</v>
@@ -3312,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G299" sqref="G299"/>
     </sheetView>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="5780" yWindow="3980" windowWidth="25020" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="469">
   <si>
     <t>道具id</t>
   </si>
@@ -1567,6 +1567,17 @@
   </si>
   <si>
     <t>Prefabs/MapObj/group3/Plants_Tree_F4</t>
+  </si>
+  <si>
+    <t>Prefabs/Skill/300003</t>
+  </si>
+  <si>
+    <t>绿火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2681,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3228,15 +3239,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3294,6 +3306,20 @@
       </c>
       <c r="D4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>300003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3339,7 @@
   <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G299" sqref="G299"/>
     </sheetView>
   </sheetViews>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="3980" windowWidth="25020" windowHeight="15600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -526,30 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A6A6A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0090FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1AFF00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFC700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF1F00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>劣质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1577,6 +1553,30 @@
   </si>
   <si>
     <t>远程魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A6A6FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0090FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1AFF00FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFC700FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF1F00FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3241,7 +3241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3313,13 +3313,13 @@
         <v>300003</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3368,7 @@
         <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3391,7 +3391,7 @@
         <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3399,13 +3399,13 @@
         <v>4000001</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3422,13 +3422,13 @@
         <v>4000002</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3445,13 +3445,13 @@
         <v>4000003</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -3589,7 +3589,7 @@
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3819,7 +3819,7 @@
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3842,7 +3842,7 @@
         <v>100001</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -3859,13 +3859,13 @@
         <v>4001113</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C23">
         <v>100001</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>100001</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -3911,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4095,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4141,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4187,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -4325,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4486,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4555,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4647,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4739,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4854,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4923,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4946,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>100004</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>100004</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5015,7 +5015,7 @@
         <v>100002</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5038,7 +5038,7 @@
         <v>100002</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>100002</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>100002</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5107,7 +5107,7 @@
         <v>100002</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>100002</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>100002</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>100002</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>100002</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>100002</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>100002</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>100002</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>100002</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>100002</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>100002</v>
       </c>
       <c r="D87" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5360,7 +5360,7 @@
         <v>100002</v>
       </c>
       <c r="D88" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5383,7 +5383,7 @@
         <v>100002</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5406,7 +5406,7 @@
         <v>100002</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -5429,7 +5429,7 @@
         <v>100002</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -5452,7 +5452,7 @@
         <v>100002</v>
       </c>
       <c r="D92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -5475,7 +5475,7 @@
         <v>100002</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5498,7 +5498,7 @@
         <v>100002</v>
       </c>
       <c r="D94" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5521,7 +5521,7 @@
         <v>100002</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5544,7 +5544,7 @@
         <v>100002</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>100002</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5590,7 +5590,7 @@
         <v>100002</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>100002</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5636,7 +5636,7 @@
         <v>100002</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -5659,7 +5659,7 @@
         <v>100002</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -5682,7 +5682,7 @@
         <v>100002</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5705,7 +5705,7 @@
         <v>100002</v>
       </c>
       <c r="D103" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>100002</v>
       </c>
       <c r="D104" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5751,7 +5751,7 @@
         <v>100002</v>
       </c>
       <c r="D105" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>100002</v>
       </c>
       <c r="D106" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>100002</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5820,7 +5820,7 @@
         <v>100002</v>
       </c>
       <c r="D108" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5843,7 +5843,7 @@
         <v>100002</v>
       </c>
       <c r="D109" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5866,7 +5866,7 @@
         <v>100002</v>
       </c>
       <c r="D110" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>100002</v>
       </c>
       <c r="D111" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5912,7 +5912,7 @@
         <v>100002</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5935,7 +5935,7 @@
         <v>100002</v>
       </c>
       <c r="D113" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5958,7 +5958,7 @@
         <v>100002</v>
       </c>
       <c r="D114" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5981,7 +5981,7 @@
         <v>100002</v>
       </c>
       <c r="D115" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>100002</v>
       </c>
       <c r="D116" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6027,7 +6027,7 @@
         <v>100002</v>
       </c>
       <c r="D117" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>100002</v>
       </c>
       <c r="D118" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>100002</v>
       </c>
       <c r="D119" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>100002</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6119,7 +6119,7 @@
         <v>100002</v>
       </c>
       <c r="D121" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6142,7 +6142,7 @@
         <v>100002</v>
       </c>
       <c r="D122" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         <v>100002</v>
       </c>
       <c r="D123" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6188,7 +6188,7 @@
         <v>100002</v>
       </c>
       <c r="D124" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>100002</v>
       </c>
       <c r="D125" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6234,7 +6234,7 @@
         <v>100002</v>
       </c>
       <c r="D126" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6257,7 +6257,7 @@
         <v>100002</v>
       </c>
       <c r="D127" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6280,7 +6280,7 @@
         <v>100002</v>
       </c>
       <c r="D128" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>100002</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6326,7 +6326,7 @@
         <v>100002</v>
       </c>
       <c r="D130" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>100002</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>100002</v>
       </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>100002</v>
       </c>
       <c r="D133" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>100002</v>
       </c>
       <c r="D134" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>100002</v>
       </c>
       <c r="D135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6464,7 +6464,7 @@
         <v>100002</v>
       </c>
       <c r="D136" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>100002</v>
       </c>
       <c r="D137" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6510,7 +6510,7 @@
         <v>100002</v>
       </c>
       <c r="D138" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>100002</v>
       </c>
       <c r="D139" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6556,7 +6556,7 @@
         <v>100002</v>
       </c>
       <c r="D140" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6579,7 +6579,7 @@
         <v>100002</v>
       </c>
       <c r="D141" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>100002</v>
       </c>
       <c r="D142" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6625,7 +6625,7 @@
         <v>100002</v>
       </c>
       <c r="D143" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>100002</v>
       </c>
       <c r="D144" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>100002</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6694,7 +6694,7 @@
         <v>100002</v>
       </c>
       <c r="D146" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6717,7 +6717,7 @@
         <v>100002</v>
       </c>
       <c r="D147" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6740,7 +6740,7 @@
         <v>100002</v>
       </c>
       <c r="D148" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>100002</v>
       </c>
       <c r="D149" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>100002</v>
       </c>
       <c r="D150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>100002</v>
       </c>
       <c r="D151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>100002</v>
       </c>
       <c r="D152" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6855,7 +6855,7 @@
         <v>100002</v>
       </c>
       <c r="D153" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6878,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -6901,7 +6901,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6924,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -6970,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7154,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7177,7 +7177,7 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7200,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7246,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7269,7 +7269,7 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -7338,7 +7338,7 @@
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -7361,7 +7361,7 @@
         <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7453,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -7476,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7522,7 +7522,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7545,7 +7545,7 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7568,7 +7568,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -7614,7 +7614,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7637,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7660,7 +7660,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7683,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -7729,7 +7729,7 @@
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -7775,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -7867,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -7890,7 +7890,7 @@
         <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -7913,7 +7913,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -7936,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -7959,7 +7959,7 @@
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -7982,7 +7982,7 @@
         <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -8051,7 +8051,7 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -8074,7 +8074,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -8120,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -8166,7 +8166,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -8189,7 +8189,7 @@
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -8212,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -8235,7 +8235,7 @@
         <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8258,7 +8258,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -8281,7 +8281,7 @@
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -8304,7 +8304,7 @@
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -8327,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -8350,7 +8350,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -8373,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -8419,7 +8419,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -8465,7 +8465,7 @@
         <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -8488,7 +8488,7 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -8534,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -8557,7 +8557,7 @@
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -8580,7 +8580,7 @@
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -8603,7 +8603,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8649,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -8695,7 +8695,7 @@
         <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -8787,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="D237" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -8810,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -8833,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="D239" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -8856,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="D240" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -8971,7 +8971,7 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -9017,7 +9017,7 @@
         <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -9040,7 +9040,7 @@
         <v>3</v>
       </c>
       <c r="D248" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -9063,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="D249" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -9109,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -9155,7 +9155,7 @@
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -9201,7 +9201,7 @@
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -9247,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -9293,7 +9293,7 @@
         <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -9385,7 +9385,7 @@
         <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -9408,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="D264" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -9431,7 +9431,7 @@
         <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -9500,7 +9500,7 @@
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -9523,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -9569,7 +9569,7 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -9615,7 +9615,7 @@
         <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -9638,7 +9638,7 @@
         <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -9661,7 +9661,7 @@
         <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -9684,7 +9684,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -9707,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -9730,7 +9730,7 @@
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -9753,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -9776,7 +9776,7 @@
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -9799,7 +9799,7 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -9845,7 +9845,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -9868,7 +9868,7 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -9891,7 +9891,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -9914,7 +9914,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -9937,7 +9937,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -9960,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -9983,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -10006,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -10052,7 +10052,7 @@
         <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -10098,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -10144,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -10167,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -10190,7 +10190,7 @@
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -10213,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="D299" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -10236,7 +10236,7 @@
         <v>3</v>
       </c>
       <c r="D300" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="D301" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -10282,7 +10282,7 @@
         <v>3</v>
       </c>
       <c r="D302" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -10305,7 +10305,7 @@
         <v>3</v>
       </c>
       <c r="D303" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -10328,7 +10328,7 @@
         <v>3</v>
       </c>
       <c r="D304" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -10351,7 +10351,7 @@
         <v>3</v>
       </c>
       <c r="D305" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -10374,7 +10374,7 @@
         <v>3</v>
       </c>
       <c r="D306" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -10397,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="D307" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -10420,7 +10420,7 @@
         <v>3</v>
       </c>
       <c r="D308" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -10443,7 +10443,7 @@
         <v>3</v>
       </c>
       <c r="D309" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -10466,7 +10466,7 @@
         <v>3</v>
       </c>
       <c r="D310" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -10489,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="D311" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -10512,7 +10512,7 @@
         <v>3</v>
       </c>
       <c r="D312" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -10535,7 +10535,7 @@
         <v>3</v>
       </c>
       <c r="D313" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -10558,7 +10558,7 @@
         <v>3</v>
       </c>
       <c r="D314" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -10581,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="D315" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -10604,7 +10604,7 @@
         <v>3</v>
       </c>
       <c r="D316" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -10806,7 +10806,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10848,7 +10848,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -10867,8 +10867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10890,7 +10890,7 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10907,7 +10907,7 @@
         <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10918,10 +10918,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10935,7 +10935,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
         <v>129</v>
@@ -10952,7 +10952,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
@@ -10969,7 +10969,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>466</v>
       </c>
       <c r="D6" t="s">
         <v>131</v>
@@ -10986,7 +10986,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>467</v>
       </c>
       <c r="D7" t="s">
         <v>132</v>
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>468</v>
       </c>
       <c r="D8" t="s">
         <v>133</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="26300" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="504">
   <si>
     <t>道具id</t>
   </si>
@@ -1577,6 +1577,146 @@
   </si>
   <si>
     <t>FF1F00FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/itemicon/equip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师战袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊头杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜之哀伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低等级等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minlv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100;3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property id,rate;id,reate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100;2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100;6,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,100;4,100;6,100;7,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,100;13,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢战甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,100;16,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100;15,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,100;13,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100;5,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill id,val;id,val</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1644,7 +1784,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1822,16 +1962,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="179">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1920,6 +2064,7 @@
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2008,6 +2153,7 @@
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2310,11 +2456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2322,9 +2468,11 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="30" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2341,13 +2489,19 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>503</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2366,19 +2520,25 @@
       <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>200001</v>
       </c>
-      <c r="B3">
-        <v>200001</v>
+      <c r="B3" t="s">
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
@@ -2386,13 +2546,22 @@
       <c r="E3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>200002</v>
       </c>
-      <c r="B4">
-        <v>200002</v>
+      <c r="B4" t="s">
+        <v>471</v>
       </c>
       <c r="C4" t="s">
         <v>109</v>
@@ -2403,13 +2572,22 @@
       <c r="E4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>200003</v>
       </c>
-      <c r="B5">
-        <v>200003</v>
+      <c r="B5" t="s">
+        <v>472</v>
       </c>
       <c r="C5" t="s">
         <v>109</v>
@@ -2420,13 +2598,22 @@
       <c r="E5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>200004</v>
       </c>
-      <c r="B6">
-        <v>200004</v>
+      <c r="B6" t="s">
+        <v>473</v>
       </c>
       <c r="C6" t="s">
         <v>109</v>
@@ -2437,13 +2624,22 @@
       <c r="E6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>200005</v>
       </c>
-      <c r="B7">
-        <v>200005</v>
+      <c r="B7" t="s">
+        <v>474</v>
       </c>
       <c r="C7" t="s">
         <v>109</v>
@@ -2454,13 +2650,22 @@
       <c r="E7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>200006</v>
       </c>
-      <c r="B8">
-        <v>200006</v>
+      <c r="B8" t="s">
+        <v>475</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -2471,13 +2676,22 @@
       <c r="E8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>200007</v>
       </c>
-      <c r="B9">
-        <v>200007</v>
+      <c r="B9" t="s">
+        <v>476</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -2488,13 +2702,22 @@
       <c r="E9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>200008</v>
       </c>
-      <c r="B10">
-        <v>200008</v>
+      <c r="B10" t="s">
+        <v>477</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
@@ -2505,13 +2728,22 @@
       <c r="E10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>200009</v>
       </c>
-      <c r="B11">
-        <v>200009</v>
+      <c r="B11" t="s">
+        <v>495</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -2522,13 +2754,22 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>200010</v>
       </c>
-      <c r="B12">
-        <v>200010</v>
+      <c r="B12" t="s">
+        <v>478</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -2539,13 +2780,22 @@
       <c r="E12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>200011</v>
       </c>
-      <c r="B13">
-        <v>200011</v>
+      <c r="B13" t="s">
+        <v>479</v>
       </c>
       <c r="C13" t="s">
         <v>109</v>
@@ -2556,13 +2806,22 @@
       <c r="E13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>200012</v>
       </c>
-      <c r="B14">
-        <v>200012</v>
+      <c r="B14" t="s">
+        <v>480</v>
       </c>
       <c r="C14" t="s">
         <v>109</v>
@@ -2573,13 +2832,22 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>200013</v>
       </c>
-      <c r="B15">
-        <v>200013</v>
+      <c r="B15" t="s">
+        <v>481</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
@@ -2590,13 +2858,22 @@
       <c r="E15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>200014</v>
       </c>
-      <c r="B16">
-        <v>200014</v>
+      <c r="B16" t="s">
+        <v>482</v>
       </c>
       <c r="C16" t="s">
         <v>109</v>
@@ -2607,8 +2884,17 @@
       <c r="E16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1">
+      <c r="G16" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1">
       <c r="A17" s="3">
         <v>200017</v>
       </c>
@@ -2624,8 +2910,15 @@
       <c r="E17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+      <c r="G17" s="5"/>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>200018</v>
       </c>
@@ -2641,8 +2934,15 @@
       <c r="E18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="G18" s="5"/>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>200019</v>
       </c>
@@ -2658,8 +2958,15 @@
       <c r="E19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
+      <c r="G19" s="5"/>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>200020</v>
       </c>
@@ -2674,6 +2981,13 @@
       </c>
       <c r="E20" t="s">
         <v>84</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +3007,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10867,8 +11181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="0" windowWidth="26300" windowHeight="21140" activeTab="3"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="537">
   <si>
     <t>道具id</t>
   </si>
@@ -795,944 +795,1047 @@
     <t>Prefabs/MapObj/group2/MapGround_2_1_17</t>
   </si>
   <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_33</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_34</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_35</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_21</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_22</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_23</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_24</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_25</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_26</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_27</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_28</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_29</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_30</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_31</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_32</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_33</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_34</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_35</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_36</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_37</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_38</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_39</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_40</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_41</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_42</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_43</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_44</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_45</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_1_46</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_37</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_38</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_39</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_40</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_41</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_42</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_43</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_44</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_45</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_46</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_47</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_48</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_49</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_50</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_51</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_52</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_53</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_54</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_55</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_56</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_57</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_58</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_59</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_60</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_61</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_62</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_63</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_64</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_65</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_66</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_67</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_68</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_69</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_70</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_71</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_72</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_73</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_74</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_75</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_76</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_77</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_78</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_79</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_80</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_81</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_82</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_83</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_10</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_11</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_12</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_13</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_14</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_15</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_16</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_17</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_21</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_22</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_23</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_24</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_25</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_26</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_27</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_28</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_29</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_30</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_31</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_32</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_33</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_34</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_35</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_36</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_37</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_38</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_39</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_40</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_41</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_42</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_43</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_44</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_45</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_46</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_47</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_48</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_49</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_50</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_51</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_52</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_53</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_54</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_55</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_56</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_57</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_58</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_59</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_60</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_61</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_62</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_63</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_64</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_65</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_66</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_67</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_68</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_69</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_70</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_71</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_72</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_73</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_74</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_75</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/MapGround_3_1_76</t>
+  </si>
+  <si>
+    <t>LevelData/group_3_100_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A7</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A8</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A9</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A10</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A11</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A12</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A13</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A14</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A15</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A16</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A17</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A18</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A19</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A20</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Tree_A21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_B6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_C4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_D4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_E4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_F4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Flower_G4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_A1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_A2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_A3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_B1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_B2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_C1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_C2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_C3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_D4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_E1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_E2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_E3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_F1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_F2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_F3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Grass_G4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_C5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D5</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_D6</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_E4</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F1</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F2</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F3</t>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/group3/Plants_Tree_F4</t>
+  </si>
+  <si>
+    <t>Prefabs/Skill/300003</t>
+  </si>
+  <si>
+    <t>绿火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A6A6FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0090FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1AFF00FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFC700FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF1F00FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/itemicon/equip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师战袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊头杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜之哀伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低等级等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minlv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100;3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property id,rate;id,reate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100;2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100;6,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,100;4,100;6,100;7,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,100;13,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢战甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,100;16,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100;15,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,100;13,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100;5,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill id,val;id,val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group_3_100_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_1</t>
+  </si>
+  <si>
     <t>LevelData/group_2_90_2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_33</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_34</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_35</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_18</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_19</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_20</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_21</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_22</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_23</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_24</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_25</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_26</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_27</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_28</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_29</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_30</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_31</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_32</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_33</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_34</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_35</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_36</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_37</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_38</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_39</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_40</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_41</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_42</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_43</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_44</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_45</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_1_46</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_37</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_38</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_39</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_40</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_41</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_42</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_43</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_44</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_45</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_46</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_47</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_48</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_49</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_50</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_51</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_52</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_53</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_54</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_55</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_56</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_57</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_58</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_59</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_60</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_61</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_62</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_63</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_64</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_65</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_66</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_67</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_68</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_69</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_70</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_71</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_72</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_73</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_74</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_75</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_76</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_77</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_78</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_79</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_80</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_81</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_82</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group2/MapGround_2_obs_1_83</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_7</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_8</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_9</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_10</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_11</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_12</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_13</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_14</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_15</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_16</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_17</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_18</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_19</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_20</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_21</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_22</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_23</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_24</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_25</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_26</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_27</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_28</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_29</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_30</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_31</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_32</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_33</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_34</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_35</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_36</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_37</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_38</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_39</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_40</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_41</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_42</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_43</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_44</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_45</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_46</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_47</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_48</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_49</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_50</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_51</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_52</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_53</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_54</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_55</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_56</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_57</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_58</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_59</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_60</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_61</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_62</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_63</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_64</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_65</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_66</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_67</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_68</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_69</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_70</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_71</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_72</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_73</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_74</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_75</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/MapGround_3_1_76</t>
-  </si>
-  <si>
-    <t>LevelData/group_3_100_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A7</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A8</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A9</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A10</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A11</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A12</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A13</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A14</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A15</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A16</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A17</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A18</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A19</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A20</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Tree_A21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_B3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_B4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_B5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_B6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_C1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_C2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_C3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_C4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_D1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_D2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_D3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_D4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_E1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_E2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_E3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_E4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_F1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_F2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_F3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_F4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_G1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_G2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_G3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Flower_G4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_A1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_A2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_A3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_B1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_B2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_C1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_C2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_C3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_D1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_D2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_D3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_D4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_E1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_E2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_E3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_F1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_F2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_F3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_G1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_G2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_G3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Grass_G4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_C1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_C2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_C3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_C4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_C5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_D2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_D3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_D4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_D5</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_D6</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_E1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_E2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_E3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_E4</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_F1</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_F2</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_F3</t>
-  </si>
-  <si>
-    <t>Prefabs/MapObj/group3/Plants_Tree_F4</t>
-  </si>
-  <si>
-    <t>Prefabs/Skill/300003</t>
-  </si>
-  <si>
-    <t>绿火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程魔法伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6A6A6FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFFFFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0090FFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1AFF00FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFC700FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF1F00FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/itemicon/equip/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰之戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧师战袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊头杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜之哀伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽绒披风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫师帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低等级等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minlv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100;3,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property id,rate;id,reate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100;2,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,100;6,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,100;4,100;6,100;7,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,100;13,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精钢战甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,100;16,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100;15,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,100;13,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,100;5,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill id,val;id,val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sizeY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/group_3_100_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0110_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_1</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_start_1111_1</t>
+  </si>
+  <si>
+    <t>way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2508,16 +2611,16 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2543,10 +2646,10 @@
         <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2554,10 +2657,10 @@
         <v>200001</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
@@ -2566,7 +2669,7 @@
         <v>84</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2580,7 +2683,7 @@
         <v>200002</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" t="s">
         <v>108</v>
@@ -2592,7 +2695,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2606,7 +2709,7 @@
         <v>200003</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
@@ -2618,7 +2721,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2632,7 +2735,7 @@
         <v>200004</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C6" t="s">
         <v>108</v>
@@ -2644,7 +2747,7 @@
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2658,7 +2761,7 @@
         <v>200005</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -2670,7 +2773,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2684,7 +2787,7 @@
         <v>200006</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -2696,7 +2799,7 @@
         <v>84</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2710,7 +2813,7 @@
         <v>200007</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -2722,7 +2825,7 @@
         <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2736,7 +2839,7 @@
         <v>200008</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -2748,7 +2851,7 @@
         <v>84</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2762,7 +2865,7 @@
         <v>200009</v>
       </c>
       <c r="B11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -2774,7 +2877,7 @@
         <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2788,7 +2891,7 @@
         <v>200010</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C12" t="s">
         <v>108</v>
@@ -2800,7 +2903,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2814,7 +2917,7 @@
         <v>200011</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
         <v>108</v>
@@ -2826,7 +2929,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2840,7 +2943,7 @@
         <v>200012</v>
       </c>
       <c r="B14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -2852,7 +2955,7 @@
         <v>84</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2866,7 +2969,7 @@
         <v>200013</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C15" t="s">
         <v>108</v>
@@ -2878,7 +2981,7 @@
         <v>84</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2892,7 +2995,7 @@
         <v>200014</v>
       </c>
       <c r="B16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C16" t="s">
         <v>108</v>
@@ -2904,7 +3007,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3646,13 +3749,13 @@
         <v>300003</v>
       </c>
       <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" t="s">
         <v>460</v>
       </c>
-      <c r="C5" t="s">
-        <v>461</v>
-      </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
     </sheetView>
@@ -3695,10 +3798,10 @@
         <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G1" t="s">
         <v>107</v>
@@ -3721,10 +3824,10 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
         <v>107</v>
@@ -4758,7 +4861,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -4784,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -4810,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4836,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4862,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4888,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4914,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4940,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4966,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4992,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5018,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5044,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5070,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5096,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5122,7 +5225,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5148,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5174,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5200,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5226,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5252,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5278,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5304,7 +5407,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5330,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5356,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5382,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5408,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5434,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5460,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -5486,7 +5589,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6344,7 +6447,7 @@
         <v>100002</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6370,7 +6473,7 @@
         <v>100002</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6396,7 +6499,7 @@
         <v>100002</v>
       </c>
       <c r="D105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6422,7 +6525,7 @@
         <v>100002</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6448,7 +6551,7 @@
         <v>100002</v>
       </c>
       <c r="D107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6474,7 +6577,7 @@
         <v>100002</v>
       </c>
       <c r="D108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6500,7 +6603,7 @@
         <v>100002</v>
       </c>
       <c r="D109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6526,7 +6629,7 @@
         <v>100002</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6552,7 +6655,7 @@
         <v>100002</v>
       </c>
       <c r="D111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -6578,7 +6681,7 @@
         <v>100002</v>
       </c>
       <c r="D112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -6604,7 +6707,7 @@
         <v>100002</v>
       </c>
       <c r="D113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6630,7 +6733,7 @@
         <v>100002</v>
       </c>
       <c r="D114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6656,7 +6759,7 @@
         <v>100002</v>
       </c>
       <c r="D115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6682,7 +6785,7 @@
         <v>100002</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6708,7 +6811,7 @@
         <v>100002</v>
       </c>
       <c r="D117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6734,7 +6837,7 @@
         <v>100002</v>
       </c>
       <c r="D118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6760,7 +6863,7 @@
         <v>100002</v>
       </c>
       <c r="D119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6786,7 +6889,7 @@
         <v>100002</v>
       </c>
       <c r="D120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6812,7 +6915,7 @@
         <v>100002</v>
       </c>
       <c r="D121" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6838,7 +6941,7 @@
         <v>100002</v>
       </c>
       <c r="D122" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6864,7 +6967,7 @@
         <v>100002</v>
       </c>
       <c r="D123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6890,7 +6993,7 @@
         <v>100002</v>
       </c>
       <c r="D124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6916,7 +7019,7 @@
         <v>100002</v>
       </c>
       <c r="D125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6942,7 +7045,7 @@
         <v>100002</v>
       </c>
       <c r="D126" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6968,7 +7071,7 @@
         <v>100002</v>
       </c>
       <c r="D127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6994,7 +7097,7 @@
         <v>100002</v>
       </c>
       <c r="D128" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7020,7 +7123,7 @@
         <v>100002</v>
       </c>
       <c r="D129" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7046,7 +7149,7 @@
         <v>100002</v>
       </c>
       <c r="D130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7072,7 +7175,7 @@
         <v>100002</v>
       </c>
       <c r="D131" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7098,7 +7201,7 @@
         <v>100002</v>
       </c>
       <c r="D132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7124,7 +7227,7 @@
         <v>100002</v>
       </c>
       <c r="D133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7150,7 +7253,7 @@
         <v>100002</v>
       </c>
       <c r="D134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7176,7 +7279,7 @@
         <v>100002</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7202,7 +7305,7 @@
         <v>100002</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7228,7 +7331,7 @@
         <v>100002</v>
       </c>
       <c r="D137" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7254,7 +7357,7 @@
         <v>100002</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7280,7 +7383,7 @@
         <v>100002</v>
       </c>
       <c r="D139" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7306,7 +7409,7 @@
         <v>100002</v>
       </c>
       <c r="D140" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7332,7 +7435,7 @@
         <v>100002</v>
       </c>
       <c r="D141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7358,7 +7461,7 @@
         <v>100002</v>
       </c>
       <c r="D142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7384,7 +7487,7 @@
         <v>100002</v>
       </c>
       <c r="D143" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7410,7 +7513,7 @@
         <v>100002</v>
       </c>
       <c r="D144" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7436,7 +7539,7 @@
         <v>100002</v>
       </c>
       <c r="D145" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7462,7 +7565,7 @@
         <v>100002</v>
       </c>
       <c r="D146" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7488,7 +7591,7 @@
         <v>100002</v>
       </c>
       <c r="D147" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7514,7 +7617,7 @@
         <v>100002</v>
       </c>
       <c r="D148" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7540,7 +7643,7 @@
         <v>100002</v>
       </c>
       <c r="D149" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7566,7 +7669,7 @@
         <v>100002</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7592,7 +7695,7 @@
         <v>100002</v>
       </c>
       <c r="D151" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7618,7 +7721,7 @@
         <v>100002</v>
       </c>
       <c r="D152" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7644,7 +7747,7 @@
         <v>100002</v>
       </c>
       <c r="D153" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7670,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7696,7 +7799,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7722,7 +7825,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7748,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7774,7 +7877,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7800,7 +7903,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7826,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7852,7 +7955,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7878,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7904,7 +8007,7 @@
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7930,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7956,7 +8059,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7982,7 +8085,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8008,7 +8111,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8034,7 +8137,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8060,7 +8163,7 @@
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8086,7 +8189,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8112,7 +8215,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8138,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8164,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8190,7 +8293,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8216,7 +8319,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8242,7 +8345,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8268,7 +8371,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8294,7 +8397,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8320,7 +8423,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8346,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8372,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8398,7 +8501,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8424,7 +8527,7 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8450,7 +8553,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8476,7 +8579,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8502,7 +8605,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -8528,7 +8631,7 @@
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -8554,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -8580,7 +8683,7 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -8606,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -8632,7 +8735,7 @@
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -8658,7 +8761,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -8684,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -8710,7 +8813,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -8736,7 +8839,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -8762,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -8788,7 +8891,7 @@
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -8814,7 +8917,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -8840,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -8866,7 +8969,7 @@
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -8892,7 +8995,7 @@
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -8918,7 +9021,7 @@
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -8944,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -8970,7 +9073,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -8996,7 +9099,7 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9022,7 +9125,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9048,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -9074,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -9100,7 +9203,7 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -9126,7 +9229,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -9152,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -9178,7 +9281,7 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -9204,7 +9307,7 @@
         <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9230,7 +9333,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9256,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9282,7 +9385,7 @@
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9308,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9334,7 +9437,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -9360,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -9386,7 +9489,7 @@
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -9412,7 +9515,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -9438,7 +9541,7 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -9464,7 +9567,7 @@
         <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -9490,7 +9593,7 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -9516,7 +9619,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -9542,7 +9645,7 @@
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -9568,7 +9671,7 @@
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -9594,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -9620,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -9646,7 +9749,7 @@
         <v>100004</v>
       </c>
       <c r="D230" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -9672,7 +9775,7 @@
         <v>100004</v>
       </c>
       <c r="D231" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -9698,7 +9801,7 @@
         <v>100004</v>
       </c>
       <c r="D232" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -9724,7 +9827,7 @@
         <v>100004</v>
       </c>
       <c r="D233" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -9750,7 +9853,7 @@
         <v>100004</v>
       </c>
       <c r="D234" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -9776,7 +9879,7 @@
         <v>100003</v>
       </c>
       <c r="D235" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -9802,7 +9905,7 @@
         <v>100003</v>
       </c>
       <c r="D236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -9828,7 +9931,7 @@
         <v>100003</v>
       </c>
       <c r="D237" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -9854,7 +9957,7 @@
         <v>100003</v>
       </c>
       <c r="D238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -9880,7 +9983,7 @@
         <v>100003</v>
       </c>
       <c r="D239" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -9906,7 +10009,7 @@
         <v>100003</v>
       </c>
       <c r="D240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -9932,7 +10035,7 @@
         <v>100003</v>
       </c>
       <c r="D241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -9958,7 +10061,7 @@
         <v>100003</v>
       </c>
       <c r="D242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -9984,7 +10087,7 @@
         <v>100003</v>
       </c>
       <c r="D243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10010,7 +10113,7 @@
         <v>100003</v>
       </c>
       <c r="D244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10036,7 +10139,7 @@
         <v>100003</v>
       </c>
       <c r="D245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10062,7 +10165,7 @@
         <v>100003</v>
       </c>
       <c r="D246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10088,7 +10191,7 @@
         <v>100003</v>
       </c>
       <c r="D247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10114,7 +10217,7 @@
         <v>100003</v>
       </c>
       <c r="D248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -10140,7 +10243,7 @@
         <v>100003</v>
       </c>
       <c r="D249" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -10166,7 +10269,7 @@
         <v>100003</v>
       </c>
       <c r="D250" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -10192,7 +10295,7 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10218,7 +10321,7 @@
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -10244,7 +10347,7 @@
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -10270,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -10296,7 +10399,7 @@
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -10322,7 +10425,7 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -10348,7 +10451,7 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -10374,7 +10477,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -10400,7 +10503,7 @@
         <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -10426,7 +10529,7 @@
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -10452,7 +10555,7 @@
         <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -10478,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -10504,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -10530,7 +10633,7 @@
         <v>3</v>
       </c>
       <c r="D264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -10556,7 +10659,7 @@
         <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -10582,7 +10685,7 @@
         <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -10608,7 +10711,7 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -10634,7 +10737,7 @@
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -10660,7 +10763,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -10686,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -10712,7 +10815,7 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -10738,7 +10841,7 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -10764,7 +10867,7 @@
         <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -10790,7 +10893,7 @@
         <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -10816,7 +10919,7 @@
         <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -10842,7 +10945,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -10868,7 +10971,7 @@
         <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -10894,7 +10997,7 @@
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -10920,7 +11023,7 @@
         <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -10946,7 +11049,7 @@
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -10972,7 +11075,7 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -10998,7 +11101,7 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11024,7 +11127,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -11050,7 +11153,7 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -11076,7 +11179,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -11102,7 +11205,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -11128,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11154,7 +11257,7 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -11180,7 +11283,7 @@
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -11206,7 +11309,7 @@
         <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -11232,7 +11335,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -11258,7 +11361,7 @@
         <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11284,7 +11387,7 @@
         <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11310,7 +11413,7 @@
         <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11336,7 +11439,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11362,7 +11465,7 @@
         <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11388,7 +11491,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -11414,7 +11517,7 @@
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -11440,7 +11543,7 @@
         <v>100003</v>
       </c>
       <c r="D299" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -11466,7 +11569,7 @@
         <v>100003</v>
       </c>
       <c r="D300" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -11492,7 +11595,7 @@
         <v>100003</v>
       </c>
       <c r="D301" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -11518,7 +11621,7 @@
         <v>100003</v>
       </c>
       <c r="D302" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -11544,7 +11647,7 @@
         <v>100003</v>
       </c>
       <c r="D303" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -11570,7 +11673,7 @@
         <v>100003</v>
       </c>
       <c r="D304" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -11596,7 +11699,7 @@
         <v>100003</v>
       </c>
       <c r="D305" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -11622,7 +11725,7 @@
         <v>100003</v>
       </c>
       <c r="D306" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -11648,7 +11751,7 @@
         <v>100003</v>
       </c>
       <c r="D307" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -11674,7 +11777,7 @@
         <v>100003</v>
       </c>
       <c r="D308" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -11700,7 +11803,7 @@
         <v>100003</v>
       </c>
       <c r="D309" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -11726,7 +11829,7 @@
         <v>100003</v>
       </c>
       <c r="D310" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -11752,7 +11855,7 @@
         <v>100003</v>
       </c>
       <c r="D311" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -11778,7 +11881,7 @@
         <v>100003</v>
       </c>
       <c r="D312" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -11804,7 +11907,7 @@
         <v>100003</v>
       </c>
       <c r="D313" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -11830,7 +11933,7 @@
         <v>100003</v>
       </c>
       <c r="D314" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -11856,7 +11959,7 @@
         <v>100003</v>
       </c>
       <c r="D315" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -11882,7 +11985,7 @@
         <v>100003</v>
       </c>
       <c r="D316" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -11911,18 +12014,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11935,8 +12039,11 @@
       <c r="D1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11949,8 +12056,11 @@
       <c r="D2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>5001001</v>
       </c>
@@ -11963,8 +12073,11 @@
       <c r="D3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>5001002</v>
       </c>
@@ -11977,8 +12090,11 @@
       <c r="D4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5001003</v>
       </c>
@@ -11991,8 +12107,11 @@
       <c r="D5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5001004</v>
       </c>
@@ -12005,8 +12124,11 @@
       <c r="D6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5001005</v>
       </c>
@@ -12019,8 +12141,11 @@
       <c r="D7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5001006</v>
       </c>
@@ -12033,8 +12158,11 @@
       <c r="D8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5001007</v>
       </c>
@@ -12047,8 +12175,11 @@
       <c r="D9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5001008</v>
       </c>
@@ -12061,8 +12192,11 @@
       <c r="D10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>5001009</v>
       </c>
@@ -12075,8 +12209,11 @@
       <c r="D11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>5002001</v>
       </c>
@@ -12089,8 +12226,11 @@
       <c r="D12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>5002002</v>
       </c>
@@ -12103,8 +12243,11 @@
       <c r="D13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>5002003</v>
       </c>
@@ -12115,10 +12258,13 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>508</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>5003001</v>
       </c>
@@ -12129,10 +12275,13 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>370</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>5003002</v>
       </c>
@@ -12143,13 +12292,257 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>5004001</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>507</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>5004002</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>5004003</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>510</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>5004004</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>5004005</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>512</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>5004006</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>5004007</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>5004008</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>5004009</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>5004010</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>517</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>5004011</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>518</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>5004012</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>519</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>5004013</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>520</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>5004014</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>521</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="E17:E19" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12213,7 +12606,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
         <v>133</v>
@@ -12230,7 +12623,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
@@ -12247,7 +12640,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
         <v>129</v>
@@ -12264,7 +12657,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
         <v>130</v>
@@ -12281,7 +12674,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
         <v>131</v>
@@ -12298,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D8" t="s">
         <v>132</v>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="4"/>
+    <workbookView xWindow="860" yWindow="0" windowWidth="24720" windowHeight="16940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="630">
   <si>
     <t>道具id</t>
   </si>
@@ -1798,44 +1798,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_2</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_6</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_7</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_8</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_9</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_10</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_2</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_5</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_6</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_7</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_8</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_2</t>
+  </si>
+  <si>
     <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_6</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_6</t>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_6</t>
   </si>
   <si>
     <t>0111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_6</t>
   </si>
   <si>
     <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_5</t>
   </si>
   <si>
     <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_2</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_5</t>
   </si>
   <si>
     <t>1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_6</t>
   </si>
   <si>
     <t>1011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LevelData/grassland_1100_2</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_5</t>
+  </si>
+  <si>
     <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_5</t>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_2</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_5</t>
   </si>
   <si>
     <t>1110</t>
+  </si>
+  <si>
+    <t>1110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1111_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1111_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1111_3</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +2193,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2095,7 +2432,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="227">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2186,6 +2523,29 @@
     <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2276,6 +2636,29 @@
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12014,10 +12397,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12215,7 +12598,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5002001</v>
+        <v>5001010</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -12232,7 +12615,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5002002</v>
+        <v>5001011</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -12249,7 +12632,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>5002003</v>
+        <v>5001012</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -12266,7 +12649,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>5003001</v>
+        <v>5001013</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -12283,7 +12666,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>5003002</v>
+        <v>5001014</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -12300,7 +12683,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5004001</v>
+        <v>5001015</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -12317,7 +12700,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5004002</v>
+        <v>5001016</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -12326,15 +12709,15 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5004003</v>
+        <v>5001017</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -12343,15 +12726,15 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5004004</v>
+        <v>5001018</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -12360,15 +12743,15 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5004005</v>
+        <v>5001019</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -12377,15 +12760,15 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>5004006</v>
+        <v>5001020</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -12394,15 +12777,15 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5004007</v>
+        <v>5001021</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -12411,15 +12794,15 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>5004008</v>
+        <v>5001022</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -12428,15 +12811,15 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>5004009</v>
+        <v>5001023</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -12445,15 +12828,15 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>5004010</v>
+        <v>5001024</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -12462,15 +12845,15 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>5004011</v>
+        <v>5001025</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -12479,15 +12862,15 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>5004012</v>
+        <v>5001026</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -12496,15 +12879,15 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>5004013</v>
+        <v>5001027</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -12513,15 +12896,15 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>5004014</v>
+        <v>5001028</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -12530,10 +12913,1183 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>552</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>5001029</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>553</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>5001030</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>510</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>5001031</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>556</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>5001032</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>557</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>5001033</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>558</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>5001034</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>559</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>5001035</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>560</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>5001036</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>561</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>5001037</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>562</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>5001038</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>511</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>5001039</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>563</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>5001040</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>565</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>5001041</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>566</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>5001042</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>567</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>5001043</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>5001044</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>512</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>5001045</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>571</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>5001046</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>572</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>5001047</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>573</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>5001048</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>574</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>5001049</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>575</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>5001050</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>513</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>5001051</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>514</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>5001052</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>578</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>5001053</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>579</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>5001054</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>580</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>5001055</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>581</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>5001056</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>582</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>5001057</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>515</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>5001058</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>5001059</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>585</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>5001060</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>586</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>5001061</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>587</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>5001062</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>588</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>5001063</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>516</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>5001064</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>590</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>5001065</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>591</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>5001066</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>592</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>5001067</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>593</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>5001068</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>517</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>5001069</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>595</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>5001070</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>597</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>5001071</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>598</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>5001072</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>599</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>5001073</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>518</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>5001074</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>601</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>5001075</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>602</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>5001076</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>603</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>5001077</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>604</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>5001078</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>605</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>5001079</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>519</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>5001080</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>607</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>5001081</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>609</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>5001082</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>610</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>5001083</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>611</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>5001084</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>520</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>5001085</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>619</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>5001086</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>621</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>5001087</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>622</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>5001088</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>623</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>5001089</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>537</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>5001090</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>614</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>5001091</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>615</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>5001092</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>616</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>5001093</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>617</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>5001094</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>627</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>5001095</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>628</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>5001096</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>629</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>5001097</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
         <v>521</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>536</v>
+      <c r="E99" s="4" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -12541,7 +14097,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:E19" numberStoredAsText="1"/>
+    <ignoredError sqref="E32 E17 E27" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="0" windowWidth="24720" windowHeight="16940" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -1830,292 +1830,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_2</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_6</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_7</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_8</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_9</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0001_10</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_2</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0010_5</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_6</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_7</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0011_8</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_2</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0100_6</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0101_6</t>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_0111_6</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1000_6</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1001_5</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_2</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1010_5</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_5</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1011_6</t>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_2</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1100_5</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1101_5</t>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_2</t>
+  </si>
+  <si>
     <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_1101_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_2</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_6</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_7</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_8</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_9</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0001_10</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0010_2</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0010_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0010_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0010_5</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_6</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_7</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0011_8</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0100_2</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0100_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0100_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0100_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0100_6</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>0100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_0101_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0101_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0101_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0101_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0101_6</t>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_0111_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0111_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0111_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0111_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_0111_6</t>
-  </si>
-  <si>
-    <t>0111</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1000_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1000_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1000_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1000_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1000_6</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1001_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1001_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1001_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1001_5</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1010_2</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1010_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1010_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1010_5</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1011_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1011_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1011_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1011_5</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1011_6</t>
-  </si>
-  <si>
-    <t>1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_1100_2</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1100_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1100_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1100_5</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_1101_2</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1101_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1101_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1101_5</t>
-  </si>
-  <si>
-    <t>1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelData/grassland_1110_2</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_3</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_4</t>
+  </si>
+  <si>
+    <t>LevelData/grassland_1110_5</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1111</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1110_3</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1110_4</t>
-  </si>
-  <si>
-    <t>LevelData/grassland_1110_5</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2127,6 +2123,10 @@
   </si>
   <si>
     <t>LevelData/grassland_1111_3</t>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12399,8 +12399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12709,10 +12709,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12726,10 +12726,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12743,10 +12743,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12760,10 +12760,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12777,10 +12777,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12794,10 +12794,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12811,10 +12811,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12828,10 +12828,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12845,10 +12845,10 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12879,10 +12879,10 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12896,10 +12896,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12913,10 +12913,10 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12930,10 +12930,10 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>552</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12964,7 +12964,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>525</v>
@@ -12981,10 +12981,10 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12998,10 +12998,10 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -13015,10 +13015,10 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -13032,10 +13032,10 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -13049,10 +13049,10 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13066,10 +13066,10 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13100,10 +13100,10 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13117,10 +13117,10 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13134,10 +13134,10 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13151,10 +13151,10 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13168,10 +13168,10 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
+        <v>567</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13188,7 +13188,7 @@
         <v>512</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13202,10 +13202,10 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13219,10 +13219,10 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13236,10 +13236,10 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13253,10 +13253,10 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13270,10 +13270,10 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13321,7 +13321,7 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>528</v>
@@ -13338,10 +13338,10 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13355,10 +13355,10 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13372,10 +13372,10 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13389,10 +13389,10 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
+        <v>581</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13423,7 +13423,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>529</v>
@@ -13440,10 +13440,10 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -13457,10 +13457,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -13474,10 +13474,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -13491,10 +13491,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
+        <v>587</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -13525,7 +13525,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>530</v>
@@ -13542,10 +13542,10 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -13559,10 +13559,10 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -13576,10 +13576,10 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
+        <v>592</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -13610,7 +13610,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>531</v>
@@ -13627,10 +13627,10 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -13644,10 +13644,10 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -13661,10 +13661,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
+        <v>598</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -13695,10 +13695,10 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13712,10 +13712,10 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13729,10 +13729,10 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13746,10 +13746,10 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13763,10 +13763,10 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -13797,10 +13797,10 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -13814,10 +13814,10 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13831,10 +13831,10 @@
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -13848,10 +13848,10 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
+        <v>610</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -13882,10 +13882,10 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -13899,10 +13899,10 @@
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -13916,10 +13916,10 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -13933,10 +13933,10 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
+        <v>622</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -13950,10 +13950,10 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -13967,10 +13967,10 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -13984,10 +13984,10 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -14001,10 +14001,10 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -14018,10 +14018,10 @@
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -14035,10 +14035,10 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -14052,10 +14052,10 @@
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -14069,10 +14069,10 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -14089,7 +14089,7 @@
         <v>521</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="MapObjConf" sheetId="7" r:id="rId4"/>
     <sheet name="MapGroupConf" sheetId="8" r:id="rId5"/>
     <sheet name="EquipQuality" sheetId="9" r:id="rId6"/>
+    <sheet name="LevelExp" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="642">
   <si>
     <t>道具id</t>
   </si>
@@ -193,10 +194,6 @@
   </si>
   <si>
     <t>攻击力增加{0}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{0}生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2126,6 +2123,58 @@
   </si>
   <si>
     <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2994,16 +3043,16 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3023,16 +3072,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="H2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3040,19 +3089,19 @@
         <v>200001</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3066,19 +3115,19 @@
         <v>200002</v>
       </c>
       <c r="B4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3092,19 +3141,19 @@
         <v>200003</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3118,19 +3167,19 @@
         <v>200004</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3144,19 +3193,19 @@
         <v>200005</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3170,19 +3219,19 @@
         <v>200006</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3196,19 +3245,19 @@
         <v>200007</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3222,19 +3271,19 @@
         <v>200008</v>
       </c>
       <c r="B10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3248,19 +3297,19 @@
         <v>200009</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3274,19 +3323,19 @@
         <v>200010</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3300,19 +3349,19 @@
         <v>200011</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3326,19 +3375,19 @@
         <v>200012</v>
       </c>
       <c r="B14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3352,19 +3401,19 @@
         <v>200013</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3378,19 +3427,19 @@
         <v>200014</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3407,13 +3456,13 @@
         <v>200017</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17">
@@ -3431,13 +3480,13 @@
         <v>200018</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18">
@@ -3455,13 +3504,13 @@
         <v>200019</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19">
@@ -3479,13 +3528,13 @@
         <v>200020</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20">
@@ -3509,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3533,22 +3582,22 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3562,22 +3611,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3588,10 +3637,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3620,7 +3669,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3649,7 +3698,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3678,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -3707,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -3736,7 +3785,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -3765,7 +3814,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -3794,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -3823,7 +3872,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3852,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -3881,7 +3930,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -3910,7 +3959,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -3939,7 +3988,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -3968,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3997,7 +4046,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -4026,7 +4075,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -4041,6 +4090,93 @@
         <v>1</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" t="s">
+        <v>635</v>
+      </c>
+      <c r="D19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>630</v>
+      </c>
+      <c r="C20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" t="s">
+        <v>637</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" t="s">
+        <v>634</v>
+      </c>
+      <c r="D21" t="s">
+        <v>638</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.4</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>
@@ -4076,13 +4212,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4090,13 +4226,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4104,13 +4240,13 @@
         <v>300001</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4118,13 +4254,13 @@
         <v>300002</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4132,13 +4268,13 @@
         <v>300003</v>
       </c>
       <c r="B5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5" t="s">
         <v>459</v>
       </c>
-      <c r="C5" t="s">
-        <v>460</v>
-      </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4172,25 +4308,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4198,25 +4334,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4224,13 +4360,13 @@
         <v>4000001</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4250,13 +4386,13 @@
         <v>4000002</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4276,13 +4412,13 @@
         <v>4000003</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4308,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4334,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4360,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4386,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4412,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4438,7 +4574,7 @@
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4464,7 +4600,7 @@
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4490,7 +4626,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4516,7 +4652,7 @@
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4542,7 +4678,7 @@
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4568,7 +4704,7 @@
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4594,7 +4730,7 @@
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4620,7 +4756,7 @@
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4646,7 +4782,7 @@
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4672,7 +4808,7 @@
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4698,7 +4834,7 @@
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4724,7 +4860,7 @@
         <v>100001</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4744,13 +4880,13 @@
         <v>4001113</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>100001</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4776,7 +4912,7 @@
         <v>100001</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -4802,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4828,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4854,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4880,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4906,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4932,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4958,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4984,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5010,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5036,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5062,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5088,7 +5224,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5114,7 +5250,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5140,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5166,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5192,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5218,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5244,7 +5380,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -5270,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5296,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5322,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5348,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5374,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5400,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -5426,7 +5562,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5452,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5478,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5504,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5530,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5556,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5582,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5608,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5634,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5660,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5686,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5712,7 +5848,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5738,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5764,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5790,7 +5926,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5816,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5842,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5868,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5894,7 +6030,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5920,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5946,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -5972,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5998,7 +6134,7 @@
         <v>100002</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6024,7 +6160,7 @@
         <v>100002</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6050,7 +6186,7 @@
         <v>100002</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6076,7 +6212,7 @@
         <v>100002</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6102,7 +6238,7 @@
         <v>100002</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6128,7 +6264,7 @@
         <v>100002</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6154,7 +6290,7 @@
         <v>100002</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6180,7 +6316,7 @@
         <v>100002</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -6206,7 +6342,7 @@
         <v>100002</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -6232,7 +6368,7 @@
         <v>100002</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -6258,7 +6394,7 @@
         <v>100002</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -6284,7 +6420,7 @@
         <v>100002</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6310,7 +6446,7 @@
         <v>100002</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6336,7 +6472,7 @@
         <v>100002</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -6362,7 +6498,7 @@
         <v>100002</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -6388,7 +6524,7 @@
         <v>100002</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -6414,7 +6550,7 @@
         <v>100002</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6440,7 +6576,7 @@
         <v>100002</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6466,7 +6602,7 @@
         <v>100002</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6492,7 +6628,7 @@
         <v>100002</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -6518,7 +6654,7 @@
         <v>100002</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -6544,7 +6680,7 @@
         <v>100002</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -6570,7 +6706,7 @@
         <v>100002</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6596,7 +6732,7 @@
         <v>100002</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -6622,7 +6758,7 @@
         <v>100002</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6648,7 +6784,7 @@
         <v>100002</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -6674,7 +6810,7 @@
         <v>100002</v>
       </c>
       <c r="D97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -6700,7 +6836,7 @@
         <v>100002</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -6726,7 +6862,7 @@
         <v>100002</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6752,7 +6888,7 @@
         <v>100002</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -6778,7 +6914,7 @@
         <v>100002</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -6804,7 +6940,7 @@
         <v>100002</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6830,7 +6966,7 @@
         <v>100002</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6856,7 +6992,7 @@
         <v>100002</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6882,7 +7018,7 @@
         <v>100002</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6908,7 +7044,7 @@
         <v>100002</v>
       </c>
       <c r="D106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6934,7 +7070,7 @@
         <v>100002</v>
       </c>
       <c r="D107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6960,7 +7096,7 @@
         <v>100002</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6986,7 +7122,7 @@
         <v>100002</v>
       </c>
       <c r="D109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -7012,7 +7148,7 @@
         <v>100002</v>
       </c>
       <c r="D110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -7038,7 +7174,7 @@
         <v>100002</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -7064,7 +7200,7 @@
         <v>100002</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -7090,7 +7226,7 @@
         <v>100002</v>
       </c>
       <c r="D113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -7116,7 +7252,7 @@
         <v>100002</v>
       </c>
       <c r="D114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -7142,7 +7278,7 @@
         <v>100002</v>
       </c>
       <c r="D115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -7168,7 +7304,7 @@
         <v>100002</v>
       </c>
       <c r="D116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -7194,7 +7330,7 @@
         <v>100002</v>
       </c>
       <c r="D117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -7220,7 +7356,7 @@
         <v>100002</v>
       </c>
       <c r="D118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -7246,7 +7382,7 @@
         <v>100002</v>
       </c>
       <c r="D119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -7272,7 +7408,7 @@
         <v>100002</v>
       </c>
       <c r="D120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -7298,7 +7434,7 @@
         <v>100002</v>
       </c>
       <c r="D121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -7324,7 +7460,7 @@
         <v>100002</v>
       </c>
       <c r="D122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -7350,7 +7486,7 @@
         <v>100002</v>
       </c>
       <c r="D123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7376,7 +7512,7 @@
         <v>100002</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -7402,7 +7538,7 @@
         <v>100002</v>
       </c>
       <c r="D125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7428,7 +7564,7 @@
         <v>100002</v>
       </c>
       <c r="D126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -7454,7 +7590,7 @@
         <v>100002</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7480,7 +7616,7 @@
         <v>100002</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7506,7 +7642,7 @@
         <v>100002</v>
       </c>
       <c r="D129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7532,7 +7668,7 @@
         <v>100002</v>
       </c>
       <c r="D130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7558,7 +7694,7 @@
         <v>100002</v>
       </c>
       <c r="D131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7584,7 +7720,7 @@
         <v>100002</v>
       </c>
       <c r="D132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7610,7 +7746,7 @@
         <v>100002</v>
       </c>
       <c r="D133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7636,7 +7772,7 @@
         <v>100002</v>
       </c>
       <c r="D134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7662,7 +7798,7 @@
         <v>100002</v>
       </c>
       <c r="D135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7688,7 +7824,7 @@
         <v>100002</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7714,7 +7850,7 @@
         <v>100002</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7740,7 +7876,7 @@
         <v>100002</v>
       </c>
       <c r="D138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7766,7 +7902,7 @@
         <v>100002</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7792,7 +7928,7 @@
         <v>100002</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7818,7 +7954,7 @@
         <v>100002</v>
       </c>
       <c r="D141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7844,7 +7980,7 @@
         <v>100002</v>
       </c>
       <c r="D142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7870,7 +8006,7 @@
         <v>100002</v>
       </c>
       <c r="D143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7896,7 +8032,7 @@
         <v>100002</v>
       </c>
       <c r="D144" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7922,7 +8058,7 @@
         <v>100002</v>
       </c>
       <c r="D145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7948,7 +8084,7 @@
         <v>100002</v>
       </c>
       <c r="D146" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7974,7 +8110,7 @@
         <v>100002</v>
       </c>
       <c r="D147" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -8000,7 +8136,7 @@
         <v>100002</v>
       </c>
       <c r="D148" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -8026,7 +8162,7 @@
         <v>100002</v>
       </c>
       <c r="D149" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -8052,7 +8188,7 @@
         <v>100002</v>
       </c>
       <c r="D150" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -8078,7 +8214,7 @@
         <v>100002</v>
       </c>
       <c r="D151" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -8104,7 +8240,7 @@
         <v>100002</v>
       </c>
       <c r="D152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -8130,7 +8266,7 @@
         <v>100002</v>
       </c>
       <c r="D153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -8156,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -8182,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -8208,7 +8344,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8234,7 +8370,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8260,7 +8396,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8286,7 +8422,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8312,7 +8448,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8338,7 +8474,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8364,7 +8500,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8390,7 +8526,7 @@
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8416,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8442,7 +8578,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8468,7 +8604,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8494,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8520,7 +8656,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8546,7 +8682,7 @@
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8572,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8598,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8624,7 +8760,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8650,7 +8786,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8676,7 +8812,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8702,7 +8838,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8728,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8754,7 +8890,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8780,7 +8916,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8806,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8832,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8858,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8884,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8910,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8936,7 +9072,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8962,7 +9098,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8988,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9014,7 +9150,7 @@
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9040,7 +9176,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9066,7 +9202,7 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9092,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9118,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9144,7 +9280,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9170,7 +9306,7 @@
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9196,7 +9332,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9222,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9248,7 +9384,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9274,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9300,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -9326,7 +9462,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -9352,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -9378,7 +9514,7 @@
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -9404,7 +9540,7 @@
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -9430,7 +9566,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -9456,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -9482,7 +9618,7 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9508,7 +9644,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9534,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -9560,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -9586,7 +9722,7 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -9612,7 +9748,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -9638,7 +9774,7 @@
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -9664,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -9690,7 +9826,7 @@
         <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9716,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9742,7 +9878,7 @@
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9768,7 +9904,7 @@
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9794,7 +9930,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9820,7 +9956,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -9846,7 +9982,7 @@
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -9872,7 +10008,7 @@
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -9898,7 +10034,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -9924,7 +10060,7 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -9950,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -9976,7 +10112,7 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -10002,7 +10138,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -10028,7 +10164,7 @@
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10054,7 +10190,7 @@
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10080,7 +10216,7 @@
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10106,7 +10242,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10132,7 +10268,7 @@
         <v>100004</v>
       </c>
       <c r="D230" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10158,7 +10294,7 @@
         <v>100004</v>
       </c>
       <c r="D231" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10184,7 +10320,7 @@
         <v>100004</v>
       </c>
       <c r="D232" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10210,7 +10346,7 @@
         <v>100004</v>
       </c>
       <c r="D233" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10236,7 +10372,7 @@
         <v>100004</v>
       </c>
       <c r="D234" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10262,7 +10398,7 @@
         <v>100003</v>
       </c>
       <c r="D235" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -10288,7 +10424,7 @@
         <v>100003</v>
       </c>
       <c r="D236" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -10314,7 +10450,7 @@
         <v>100003</v>
       </c>
       <c r="D237" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -10340,7 +10476,7 @@
         <v>100003</v>
       </c>
       <c r="D238" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -10366,7 +10502,7 @@
         <v>100003</v>
       </c>
       <c r="D239" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10392,7 +10528,7 @@
         <v>100003</v>
       </c>
       <c r="D240" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10418,7 +10554,7 @@
         <v>100003</v>
       </c>
       <c r="D241" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10444,7 +10580,7 @@
         <v>100003</v>
       </c>
       <c r="D242" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10470,7 +10606,7 @@
         <v>100003</v>
       </c>
       <c r="D243" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10496,7 +10632,7 @@
         <v>100003</v>
       </c>
       <c r="D244" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10522,7 +10658,7 @@
         <v>100003</v>
       </c>
       <c r="D245" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10548,7 +10684,7 @@
         <v>100003</v>
       </c>
       <c r="D246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10574,7 +10710,7 @@
         <v>100003</v>
       </c>
       <c r="D247" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10600,7 +10736,7 @@
         <v>100003</v>
       </c>
       <c r="D248" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -10626,7 +10762,7 @@
         <v>100003</v>
       </c>
       <c r="D249" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -10652,7 +10788,7 @@
         <v>100003</v>
       </c>
       <c r="D250" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -10678,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10704,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -10730,7 +10866,7 @@
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -10756,7 +10892,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -10782,7 +10918,7 @@
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -10808,7 +10944,7 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -10834,7 +10970,7 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -10860,7 +10996,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -10886,7 +11022,7 @@
         <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -10912,7 +11048,7 @@
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -10938,7 +11074,7 @@
         <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -10964,7 +11100,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -10990,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11016,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="D264" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -11042,7 +11178,7 @@
         <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -11068,7 +11204,7 @@
         <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -11094,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -11120,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -11146,7 +11282,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -11172,7 +11308,7 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -11198,7 +11334,7 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -11224,7 +11360,7 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -11250,7 +11386,7 @@
         <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -11276,7 +11412,7 @@
         <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -11302,7 +11438,7 @@
         <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -11328,7 +11464,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -11354,7 +11490,7 @@
         <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -11380,7 +11516,7 @@
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -11406,7 +11542,7 @@
         <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11432,7 +11568,7 @@
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -11458,7 +11594,7 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -11484,7 +11620,7 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11510,7 +11646,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -11536,7 +11672,7 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -11562,7 +11698,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -11588,7 +11724,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -11614,7 +11750,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11640,7 +11776,7 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -11666,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -11692,7 +11828,7 @@
         <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -11718,7 +11854,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -11744,7 +11880,7 @@
         <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11770,7 +11906,7 @@
         <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11796,7 +11932,7 @@
         <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11822,7 +11958,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11848,7 +11984,7 @@
         <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11874,7 +12010,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -11900,7 +12036,7 @@
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -11926,7 +12062,7 @@
         <v>100003</v>
       </c>
       <c r="D299" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -11952,7 +12088,7 @@
         <v>100003</v>
       </c>
       <c r="D300" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -11978,7 +12114,7 @@
         <v>100003</v>
       </c>
       <c r="D301" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -12004,7 +12140,7 @@
         <v>100003</v>
       </c>
       <c r="D302" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -12030,7 +12166,7 @@
         <v>100003</v>
       </c>
       <c r="D303" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -12056,7 +12192,7 @@
         <v>100003</v>
       </c>
       <c r="D304" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -12082,7 +12218,7 @@
         <v>100003</v>
       </c>
       <c r="D305" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -12108,7 +12244,7 @@
         <v>100003</v>
       </c>
       <c r="D306" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -12134,7 +12270,7 @@
         <v>100003</v>
       </c>
       <c r="D307" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -12160,7 +12296,7 @@
         <v>100003</v>
       </c>
       <c r="D308" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -12186,7 +12322,7 @@
         <v>100003</v>
       </c>
       <c r="D309" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -12212,7 +12348,7 @@
         <v>100003</v>
       </c>
       <c r="D310" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -12238,7 +12374,7 @@
         <v>100003</v>
       </c>
       <c r="D311" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -12264,7 +12400,7 @@
         <v>100003</v>
       </c>
       <c r="D312" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -12290,7 +12426,7 @@
         <v>100003</v>
       </c>
       <c r="D313" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -12316,7 +12452,7 @@
         <v>100003</v>
       </c>
       <c r="D314" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -12342,7 +12478,7 @@
         <v>100003</v>
       </c>
       <c r="D315" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -12368,7 +12504,7 @@
         <v>100003</v>
       </c>
       <c r="D316" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -12399,7 +12535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -12414,16 +12550,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12431,16 +12567,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12454,7 +12590,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="4">
         <v>1111</v>
@@ -12471,7 +12607,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="4">
         <v>1111</v>
@@ -12488,7 +12624,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4">
         <v>1111</v>
@@ -12505,7 +12641,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="4">
         <v>1111</v>
@@ -12522,7 +12658,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4">
         <v>1111</v>
@@ -12539,7 +12675,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4">
         <v>1111</v>
@@ -12556,7 +12692,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4">
         <v>1111</v>
@@ -12573,7 +12709,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4">
         <v>1111</v>
@@ -12590,7 +12726,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4">
         <v>1111</v>
@@ -12607,7 +12743,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="4">
         <v>1111</v>
@@ -12624,7 +12760,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="4">
         <v>1111</v>
@@ -12641,7 +12777,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E14" s="4">
         <v>1111</v>
@@ -12658,7 +12794,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" s="4">
         <v>1111</v>
@@ -12675,7 +12811,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E16" s="4">
         <v>1111</v>
@@ -12692,10 +12828,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12709,10 +12845,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12726,10 +12862,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12743,10 +12879,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12760,10 +12896,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12777,10 +12913,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12794,10 +12930,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12811,10 +12947,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12828,10 +12964,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12845,10 +12981,10 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12862,10 +12998,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12879,10 +13015,10 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12896,10 +13032,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12913,10 +13049,10 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -12930,10 +13066,10 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>551</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12947,10 +13083,10 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12964,10 +13100,10 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12981,10 +13117,10 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12998,10 +13134,10 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -13015,10 +13151,10 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -13032,10 +13168,10 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -13049,10 +13185,10 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13066,10 +13202,10 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13083,10 +13219,10 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13100,10 +13236,10 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13117,10 +13253,10 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13134,10 +13270,10 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13151,10 +13287,10 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13168,10 +13304,10 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
+        <v>566</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13185,10 +13321,10 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13202,10 +13338,10 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13219,10 +13355,10 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13236,10 +13372,10 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13253,10 +13389,10 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13270,10 +13406,10 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13287,10 +13423,10 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -13304,10 +13440,10 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -13321,10 +13457,10 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -13338,10 +13474,10 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13355,10 +13491,10 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13372,10 +13508,10 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13389,10 +13525,10 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
+        <v>580</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13406,10 +13542,10 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -13423,10 +13559,10 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -13440,10 +13576,10 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -13457,10 +13593,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -13474,10 +13610,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -13491,10 +13627,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
+        <v>586</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -13508,10 +13644,10 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -13525,10 +13661,10 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -13542,10 +13678,10 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -13559,10 +13695,10 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -13576,10 +13712,10 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
+        <v>591</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -13593,10 +13729,10 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -13610,10 +13746,10 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -13627,10 +13763,10 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -13644,10 +13780,10 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -13661,10 +13797,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
+        <v>597</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -13678,10 +13814,10 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -13695,10 +13831,10 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13712,10 +13848,10 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13729,10 +13865,10 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13746,10 +13882,10 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13763,10 +13899,10 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -13780,10 +13916,10 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -13797,10 +13933,10 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -13814,10 +13950,10 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13831,10 +13967,10 @@
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -13848,10 +13984,10 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
+        <v>609</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -13865,10 +14001,10 @@
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -13882,10 +14018,10 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -13899,10 +14035,10 @@
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -13916,10 +14052,10 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -13933,10 +14069,10 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
+        <v>621</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -13950,10 +14086,10 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -13967,10 +14103,10 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -13984,10 +14120,10 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -14001,10 +14137,10 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -14018,10 +14154,10 @@
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -14035,10 +14171,10 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -14052,10 +14188,10 @@
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -14069,10 +14205,10 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -14086,10 +14222,10 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -14125,16 +14261,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14142,16 +14278,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14162,10 +14298,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -14179,10 +14315,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -14196,10 +14332,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -14213,10 +14349,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -14230,10 +14366,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -14247,10 +14383,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -14266,4 +14402,1250 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="24.83203125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <f>B3/100*B3/100*B3/100 * 10000000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C3+10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C12" si="0">C4+10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C12+20</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C22" si="1">C13+20</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C22+40</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:C32" si="2">C23+40</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C32+80</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:C42" si="3">C33+80</f>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="3"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="3"/>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="3"/>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4">
+        <f>C42+160</f>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" ref="C44:C52" si="4">C43+160</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="4"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="4"/>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="4"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="4"/>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="4"/>
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="4"/>
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="4"/>
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4">
+        <f>C52+320</f>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" ref="C54:C62" si="5">C53+320</f>
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="5"/>
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="5"/>
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="5"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="5"/>
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="5"/>
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="5"/>
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="5"/>
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="5"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63" s="4">
+        <f>C62+640</f>
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" ref="C64:C72" si="6">C63+640</f>
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="6"/>
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="6"/>
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="6"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="6"/>
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="6"/>
+        <v>10780</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="6"/>
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="6"/>
+        <v>12060</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="6"/>
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" s="4">
+        <f>C72+1280</f>
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" ref="C74:C82" si="7">C73+1280</f>
+        <v>15260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="7"/>
+        <v>16540</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="7"/>
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="7"/>
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="7"/>
+        <v>20380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="7"/>
+        <v>21660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="7"/>
+        <v>22940</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="7"/>
+        <v>24220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="7"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83" s="4">
+        <f>C82+2048</f>
+        <v>27548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" ref="C84:C92" si="8">C83+2048</f>
+        <v>29596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="8"/>
+        <v>31644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="8"/>
+        <v>33692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="8"/>
+        <v>35740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="8"/>
+        <v>37788</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="8"/>
+        <v>39836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="8"/>
+        <v>41884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="8"/>
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="8"/>
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93" s="4">
+        <f>C92+4096</f>
+        <v>50076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" ref="C94:C102" si="9">C93+4096</f>
+        <v>54172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="9"/>
+        <v>58268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="9"/>
+        <v>62364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="9"/>
+        <v>66460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="9"/>
+        <v>70556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="9"/>
+        <v>74652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="9"/>
+        <v>78748</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="9"/>
+        <v>82844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="9"/>
+        <v>86940</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="680" windowWidth="25000" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="MapGroupConf" sheetId="8" r:id="rId5"/>
     <sheet name="EquipQuality" sheetId="9" r:id="rId6"/>
     <sheet name="LevelExp" sheetId="10" r:id="rId7"/>
+    <sheet name="MainProperty" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="650">
   <si>
     <t>道具id</t>
   </si>
@@ -110,10 +111,6 @@
   </si>
   <si>
     <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命回复+{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>levelrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>levelval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +259,6 @@
   </si>
   <si>
     <t xml:space="preserve">随机范围 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2138,43 +2127,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> +{0}敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主属性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> +{0}生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> +{0}敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{0}智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{0}力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
+    <t>生命回复+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2242,8 +2275,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2481,7 +2518,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="231">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2595,6 +2632,8 @@
     <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2708,6 +2747,8 @@
     <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3043,16 +3084,16 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3072,16 +3113,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3089,19 +3130,19 @@
         <v>200001</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3115,19 +3156,19 @@
         <v>200002</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3141,19 +3182,19 @@
         <v>200003</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3167,19 +3208,19 @@
         <v>200004</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3193,19 +3234,19 @@
         <v>200005</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3219,19 +3260,19 @@
         <v>200006</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3245,19 +3286,19 @@
         <v>200007</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3271,19 +3312,19 @@
         <v>200008</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3297,19 +3338,19 @@
         <v>200009</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3323,19 +3364,19 @@
         <v>200010</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3349,19 +3390,19 @@
         <v>200011</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3375,19 +3416,19 @@
         <v>200012</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3401,19 +3442,19 @@
         <v>200013</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3427,19 +3468,19 @@
         <v>200014</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3456,13 +3497,13 @@
         <v>200017</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17">
@@ -3480,13 +3521,13 @@
         <v>200018</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18">
@@ -3504,13 +3545,13 @@
         <v>200019</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19">
@@ -3528,13 +3569,13 @@
         <v>200020</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20">
@@ -3558,20 +3599,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="4" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42">
+    <row r="1" spans="1:8" ht="42">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3582,25 +3623,22 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3611,25 +3649,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3637,10 +3672,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3649,16 +3684,13 @@
         <v>0.4</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3666,10 +3698,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>644</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3678,172 +3710,154 @@
         <v>0.4</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E5">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
       <c r="F5">
         <v>0.4</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>642</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>647</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>649</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.4</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.4</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>0.4</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -3852,85 +3866,76 @@
         <v>0.4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>0.4</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0.4</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -3939,56 +3944,50 @@
         <v>0.4</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0.4</v>
       </c>
       <c r="G14">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -3997,27 +3996,24 @@
         <v>0.4</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -4026,27 +4022,24 @@
         <v>0.4</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -4055,27 +4048,24 @@
         <v>0.4</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -4084,30 +4074,27 @@
         <v>0.4</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>629</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>635</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>636</v>
+        <v>78</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>0.4</v>
@@ -4116,27 +4103,24 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>630</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>633</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>0.4</v>
@@ -4145,24 +4129,21 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" t="s">
         <v>631</v>
       </c>
-      <c r="C21" t="s">
-        <v>634</v>
-      </c>
       <c r="D21" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4174,9 +4155,58 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C22" t="s">
+        <v>629</v>
+      </c>
+      <c r="D22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>628</v>
+      </c>
+      <c r="C23" t="s">
+        <v>630</v>
+      </c>
+      <c r="D23" t="s">
+        <v>634</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
     </row>
@@ -4212,13 +4242,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4226,13 +4256,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4240,13 +4270,13 @@
         <v>300001</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4254,13 +4284,13 @@
         <v>300002</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4268,13 +4298,13 @@
         <v>300003</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4294,8 +4324,8 @@
   <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4308,25 +4338,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4334,25 +4364,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4360,13 +4390,13 @@
         <v>4000001</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4386,13 +4416,13 @@
         <v>4000002</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4412,13 +4442,13 @@
         <v>4000003</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4444,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4470,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4496,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4522,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4548,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4574,7 +4604,7 @@
         <v>100001</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4600,7 +4630,7 @@
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4626,7 +4656,7 @@
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4652,7 +4682,7 @@
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4678,7 +4708,7 @@
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4704,7 +4734,7 @@
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4730,7 +4760,7 @@
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4756,7 +4786,7 @@
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4782,7 +4812,7 @@
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4808,7 +4838,7 @@
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4834,7 +4864,7 @@
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4860,7 +4890,7 @@
         <v>100001</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4880,13 +4910,13 @@
         <v>4001113</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23">
         <v>100001</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4912,7 +4942,7 @@
         <v>100001</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -4938,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4964,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4990,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5016,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5042,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5068,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5094,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5120,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5146,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5172,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5198,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5224,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5250,7 +5280,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5276,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5302,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5328,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5354,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5380,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -5406,7 +5436,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5432,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5458,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5484,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5510,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5536,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -5562,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5588,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5614,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5640,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5666,7 +5696,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5692,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5718,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5744,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5770,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5796,7 +5826,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5822,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5848,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5874,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5900,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5926,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5952,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5978,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6004,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6030,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6056,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6082,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6108,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6134,7 +6164,7 @@
         <v>100002</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6160,7 +6190,7 @@
         <v>100002</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6186,7 +6216,7 @@
         <v>100002</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6212,7 +6242,7 @@
         <v>100002</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6238,7 +6268,7 @@
         <v>100002</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6264,7 +6294,7 @@
         <v>100002</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6290,7 +6320,7 @@
         <v>100002</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6316,7 +6346,7 @@
         <v>100002</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -6342,7 +6372,7 @@
         <v>100002</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -6368,7 +6398,7 @@
         <v>100002</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -6394,7 +6424,7 @@
         <v>100002</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -6420,7 +6450,7 @@
         <v>100002</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6446,7 +6476,7 @@
         <v>100002</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6472,7 +6502,7 @@
         <v>100002</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -6498,7 +6528,7 @@
         <v>100002</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -6524,7 +6554,7 @@
         <v>100002</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -6550,7 +6580,7 @@
         <v>100002</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6576,7 +6606,7 @@
         <v>100002</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6602,7 +6632,7 @@
         <v>100002</v>
       </c>
       <c r="D89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6628,7 +6658,7 @@
         <v>100002</v>
       </c>
       <c r="D90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -6654,7 +6684,7 @@
         <v>100002</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -6680,7 +6710,7 @@
         <v>100002</v>
       </c>
       <c r="D92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -6706,7 +6736,7 @@
         <v>100002</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6732,7 +6762,7 @@
         <v>100002</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -6758,7 +6788,7 @@
         <v>100002</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6784,7 +6814,7 @@
         <v>100002</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -6810,7 +6840,7 @@
         <v>100002</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -6836,7 +6866,7 @@
         <v>100002</v>
       </c>
       <c r="D98" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -6862,7 +6892,7 @@
         <v>100002</v>
       </c>
       <c r="D99" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6888,7 +6918,7 @@
         <v>100002</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -6914,7 +6944,7 @@
         <v>100002</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -6940,7 +6970,7 @@
         <v>100002</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6966,7 +6996,7 @@
         <v>100002</v>
       </c>
       <c r="D103" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6992,7 +7022,7 @@
         <v>100002</v>
       </c>
       <c r="D104" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -7018,7 +7048,7 @@
         <v>100002</v>
       </c>
       <c r="D105" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -7044,7 +7074,7 @@
         <v>100002</v>
       </c>
       <c r="D106" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -7070,7 +7100,7 @@
         <v>100002</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -7096,7 +7126,7 @@
         <v>100002</v>
       </c>
       <c r="D108" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -7122,7 +7152,7 @@
         <v>100002</v>
       </c>
       <c r="D109" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -7148,7 +7178,7 @@
         <v>100002</v>
       </c>
       <c r="D110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -7174,7 +7204,7 @@
         <v>100002</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -7200,7 +7230,7 @@
         <v>100002</v>
       </c>
       <c r="D112" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -7226,7 +7256,7 @@
         <v>100002</v>
       </c>
       <c r="D113" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -7252,7 +7282,7 @@
         <v>100002</v>
       </c>
       <c r="D114" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -7278,7 +7308,7 @@
         <v>100002</v>
       </c>
       <c r="D115" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -7304,7 +7334,7 @@
         <v>100002</v>
       </c>
       <c r="D116" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -7330,7 +7360,7 @@
         <v>100002</v>
       </c>
       <c r="D117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -7356,7 +7386,7 @@
         <v>100002</v>
       </c>
       <c r="D118" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -7382,7 +7412,7 @@
         <v>100002</v>
       </c>
       <c r="D119" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -7408,7 +7438,7 @@
         <v>100002</v>
       </c>
       <c r="D120" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -7434,7 +7464,7 @@
         <v>100002</v>
       </c>
       <c r="D121" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -7460,7 +7490,7 @@
         <v>100002</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -7486,7 +7516,7 @@
         <v>100002</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7512,7 +7542,7 @@
         <v>100002</v>
       </c>
       <c r="D124" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -7538,7 +7568,7 @@
         <v>100002</v>
       </c>
       <c r="D125" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7564,7 +7594,7 @@
         <v>100002</v>
       </c>
       <c r="D126" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -7590,7 +7620,7 @@
         <v>100002</v>
       </c>
       <c r="D127" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7616,7 +7646,7 @@
         <v>100002</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7642,7 +7672,7 @@
         <v>100002</v>
       </c>
       <c r="D129" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7668,7 +7698,7 @@
         <v>100002</v>
       </c>
       <c r="D130" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7694,7 +7724,7 @@
         <v>100002</v>
       </c>
       <c r="D131" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7720,7 +7750,7 @@
         <v>100002</v>
       </c>
       <c r="D132" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7746,7 +7776,7 @@
         <v>100002</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7772,7 +7802,7 @@
         <v>100002</v>
       </c>
       <c r="D134" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7798,7 +7828,7 @@
         <v>100002</v>
       </c>
       <c r="D135" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7824,7 +7854,7 @@
         <v>100002</v>
       </c>
       <c r="D136" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -7850,7 +7880,7 @@
         <v>100002</v>
       </c>
       <c r="D137" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -7876,7 +7906,7 @@
         <v>100002</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7902,7 +7932,7 @@
         <v>100002</v>
       </c>
       <c r="D139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -7928,7 +7958,7 @@
         <v>100002</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -7954,7 +7984,7 @@
         <v>100002</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7980,7 +8010,7 @@
         <v>100002</v>
       </c>
       <c r="D142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -8006,7 +8036,7 @@
         <v>100002</v>
       </c>
       <c r="D143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -8032,7 +8062,7 @@
         <v>100002</v>
       </c>
       <c r="D144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -8058,7 +8088,7 @@
         <v>100002</v>
       </c>
       <c r="D145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -8084,7 +8114,7 @@
         <v>100002</v>
       </c>
       <c r="D146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -8110,7 +8140,7 @@
         <v>100002</v>
       </c>
       <c r="D147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -8136,7 +8166,7 @@
         <v>100002</v>
       </c>
       <c r="D148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -8162,7 +8192,7 @@
         <v>100002</v>
       </c>
       <c r="D149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -8188,7 +8218,7 @@
         <v>100002</v>
       </c>
       <c r="D150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -8214,7 +8244,7 @@
         <v>100002</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -8240,7 +8270,7 @@
         <v>100002</v>
       </c>
       <c r="D152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -8266,7 +8296,7 @@
         <v>100002</v>
       </c>
       <c r="D153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -8292,7 +8322,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -8318,7 +8348,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -8344,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8370,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8396,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8422,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8448,7 +8478,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8474,7 +8504,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8500,7 +8530,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8526,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8552,7 +8582,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8578,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8604,7 +8634,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8630,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8656,7 +8686,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8682,7 +8712,7 @@
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8708,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8734,7 +8764,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8760,7 +8790,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8786,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8812,7 +8842,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8838,7 +8868,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8864,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8890,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8916,7 +8946,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8942,7 +8972,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8968,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8994,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -9020,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -9046,7 +9076,7 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -9072,7 +9102,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -9098,7 +9128,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9124,7 +9154,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9150,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9176,7 +9206,7 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9202,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9228,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9254,7 +9284,7 @@
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9280,7 +9310,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9306,7 +9336,7 @@
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9332,7 +9362,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9358,7 +9388,7 @@
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9384,7 +9414,7 @@
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9410,7 +9440,7 @@
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9436,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -9462,7 +9492,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -9488,7 +9518,7 @@
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -9514,7 +9544,7 @@
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -9540,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -9566,7 +9596,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -9592,7 +9622,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -9618,7 +9648,7 @@
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9644,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9670,7 +9700,7 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -9696,7 +9726,7 @@
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -9722,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -9748,7 +9778,7 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -9774,7 +9804,7 @@
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -9800,7 +9830,7 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -9826,7 +9856,7 @@
         <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9852,7 +9882,7 @@
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9878,7 +9908,7 @@
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9904,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9930,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9956,7 +9986,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -9982,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -10008,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -10034,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -10060,7 +10090,7 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -10086,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -10112,7 +10142,7 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -10138,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -10164,7 +10194,7 @@
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10190,7 +10220,7 @@
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10216,7 +10246,7 @@
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10242,7 +10272,7 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10268,7 +10298,7 @@
         <v>100004</v>
       </c>
       <c r="D230" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10294,7 +10324,7 @@
         <v>100004</v>
       </c>
       <c r="D231" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10320,7 +10350,7 @@
         <v>100004</v>
       </c>
       <c r="D232" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10346,7 +10376,7 @@
         <v>100004</v>
       </c>
       <c r="D233" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10372,7 +10402,7 @@
         <v>100004</v>
       </c>
       <c r="D234" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10398,7 +10428,7 @@
         <v>100003</v>
       </c>
       <c r="D235" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -10424,7 +10454,7 @@
         <v>100003</v>
       </c>
       <c r="D236" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -10450,7 +10480,7 @@
         <v>100003</v>
       </c>
       <c r="D237" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -10476,7 +10506,7 @@
         <v>100003</v>
       </c>
       <c r="D238" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -10502,7 +10532,7 @@
         <v>100003</v>
       </c>
       <c r="D239" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10528,7 +10558,7 @@
         <v>100003</v>
       </c>
       <c r="D240" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10554,7 +10584,7 @@
         <v>100003</v>
       </c>
       <c r="D241" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10580,7 +10610,7 @@
         <v>100003</v>
       </c>
       <c r="D242" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10606,7 +10636,7 @@
         <v>100003</v>
       </c>
       <c r="D243" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10632,7 +10662,7 @@
         <v>100003</v>
       </c>
       <c r="D244" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10658,7 +10688,7 @@
         <v>100003</v>
       </c>
       <c r="D245" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10684,7 +10714,7 @@
         <v>100003</v>
       </c>
       <c r="D246" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10710,7 +10740,7 @@
         <v>100003</v>
       </c>
       <c r="D247" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10736,7 +10766,7 @@
         <v>100003</v>
       </c>
       <c r="D248" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -10762,7 +10792,7 @@
         <v>100003</v>
       </c>
       <c r="D249" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -10788,7 +10818,7 @@
         <v>100003</v>
       </c>
       <c r="D250" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -10814,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10840,7 +10870,7 @@
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -10866,7 +10896,7 @@
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -10892,7 +10922,7 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -10918,7 +10948,7 @@
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -10944,7 +10974,7 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -10970,7 +11000,7 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -10996,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -11022,7 +11052,7 @@
         <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -11048,7 +11078,7 @@
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -11074,7 +11104,7 @@
         <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -11100,7 +11130,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11126,7 +11156,7 @@
         <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11152,7 +11182,7 @@
         <v>3</v>
       </c>
       <c r="D264" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -11178,7 +11208,7 @@
         <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -11204,7 +11234,7 @@
         <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -11230,7 +11260,7 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -11256,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -11282,7 +11312,7 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -11308,7 +11338,7 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -11334,7 +11364,7 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -11360,7 +11390,7 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -11386,7 +11416,7 @@
         <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -11412,7 +11442,7 @@
         <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -11438,7 +11468,7 @@
         <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -11464,7 +11494,7 @@
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -11490,7 +11520,7 @@
         <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -11516,7 +11546,7 @@
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -11542,7 +11572,7 @@
         <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11568,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -11594,7 +11624,7 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -11620,7 +11650,7 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11646,7 +11676,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -11672,7 +11702,7 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -11698,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -11724,7 +11754,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -11750,7 +11780,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11776,7 +11806,7 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -11802,7 +11832,7 @@
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -11828,7 +11858,7 @@
         <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -11854,7 +11884,7 @@
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -11880,7 +11910,7 @@
         <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11906,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11932,7 +11962,7 @@
         <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11958,7 +11988,7 @@
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11984,7 +12014,7 @@
         <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -12010,7 +12040,7 @@
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -12036,7 +12066,7 @@
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -12062,7 +12092,7 @@
         <v>100003</v>
       </c>
       <c r="D299" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -12088,7 +12118,7 @@
         <v>100003</v>
       </c>
       <c r="D300" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -12114,7 +12144,7 @@
         <v>100003</v>
       </c>
       <c r="D301" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -12140,7 +12170,7 @@
         <v>100003</v>
       </c>
       <c r="D302" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -12166,7 +12196,7 @@
         <v>100003</v>
       </c>
       <c r="D303" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -12192,7 +12222,7 @@
         <v>100003</v>
       </c>
       <c r="D304" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -12218,7 +12248,7 @@
         <v>100003</v>
       </c>
       <c r="D305" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -12244,7 +12274,7 @@
         <v>100003</v>
       </c>
       <c r="D306" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -12270,7 +12300,7 @@
         <v>100003</v>
       </c>
       <c r="D307" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -12296,7 +12326,7 @@
         <v>100003</v>
       </c>
       <c r="D308" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -12322,7 +12352,7 @@
         <v>100003</v>
       </c>
       <c r="D309" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -12348,7 +12378,7 @@
         <v>100003</v>
       </c>
       <c r="D310" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -12374,7 +12404,7 @@
         <v>100003</v>
       </c>
       <c r="D311" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -12400,7 +12430,7 @@
         <v>100003</v>
       </c>
       <c r="D312" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -12426,7 +12456,7 @@
         <v>100003</v>
       </c>
       <c r="D313" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -12452,7 +12482,7 @@
         <v>100003</v>
       </c>
       <c r="D314" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -12478,7 +12508,7 @@
         <v>100003</v>
       </c>
       <c r="D315" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -12504,7 +12534,7 @@
         <v>100003</v>
       </c>
       <c r="D316" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -12550,16 +12580,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12567,16 +12597,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12590,7 +12620,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4">
         <v>1111</v>
@@ -12607,7 +12637,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" s="4">
         <v>1111</v>
@@ -12624,7 +12654,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4">
         <v>1111</v>
@@ -12641,7 +12671,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4">
         <v>1111</v>
@@ -12658,7 +12688,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4">
         <v>1111</v>
@@ -12675,7 +12705,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4">
         <v>1111</v>
@@ -12692,7 +12722,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4">
         <v>1111</v>
@@ -12709,7 +12739,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="4">
         <v>1111</v>
@@ -12726,7 +12756,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4">
         <v>1111</v>
@@ -12743,7 +12773,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="4">
         <v>1111</v>
@@ -12760,7 +12790,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4">
         <v>1111</v>
@@ -12777,7 +12807,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E14" s="4">
         <v>1111</v>
@@ -12794,7 +12824,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E15" s="4">
         <v>1111</v>
@@ -12811,7 +12841,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E16" s="4">
         <v>1111</v>
@@ -12828,10 +12858,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12845,10 +12875,10 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12862,10 +12892,10 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12879,10 +12909,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12896,10 +12926,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12913,10 +12943,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12930,10 +12960,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12947,10 +12977,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12964,10 +12994,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12981,10 +13011,10 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12998,10 +13028,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -13015,10 +13045,10 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -13032,10 +13062,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
+        <v>546</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -13049,10 +13079,10 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -13066,10 +13096,10 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -13083,10 +13113,10 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -13100,10 +13130,10 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -13117,10 +13147,10 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -13134,10 +13164,10 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -13151,10 +13181,10 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -13168,10 +13198,10 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -13185,10 +13215,10 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13202,10 +13232,10 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13219,10 +13249,10 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13236,10 +13266,10 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13253,10 +13283,10 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13270,10 +13300,10 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
+        <v>561</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13287,10 +13317,10 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13304,10 +13334,10 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13321,10 +13351,10 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13338,10 +13368,10 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13355,10 +13385,10 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13372,10 +13402,10 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13389,10 +13419,10 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13406,10 +13436,10 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13423,10 +13453,10 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -13440,10 +13470,10 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -13457,10 +13487,10 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -13474,10 +13504,10 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13491,10 +13521,10 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
+        <v>575</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13508,10 +13538,10 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13525,10 +13555,10 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13542,10 +13572,10 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -13559,10 +13589,10 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -13576,10 +13606,10 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -13593,10 +13623,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
+        <v>581</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -13610,10 +13640,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -13627,10 +13657,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -13644,10 +13674,10 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -13661,10 +13691,10 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -13678,10 +13708,10 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
+        <v>586</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -13695,10 +13725,10 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -13712,10 +13742,10 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -13729,10 +13759,10 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -13746,10 +13776,10 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -13763,10 +13793,10 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
+        <v>592</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -13780,10 +13810,10 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -13797,10 +13827,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -13814,10 +13844,10 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -13831,10 +13861,10 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -13848,10 +13878,10 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -13865,10 +13895,10 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -13882,10 +13912,10 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -13899,10 +13929,10 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -13916,10 +13946,10 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -13933,10 +13963,10 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -13950,10 +13980,10 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
+        <v>604</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13967,10 +13997,10 @@
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -13984,10 +14014,10 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -14001,10 +14031,10 @@
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -14018,10 +14048,10 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -14035,10 +14065,10 @@
         <v>20</v>
       </c>
       <c r="D88" t="s">
+        <v>616</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -14052,10 +14082,10 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -14069,10 +14099,10 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -14086,10 +14116,10 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -14103,10 +14133,10 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -14120,10 +14150,10 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -14137,10 +14167,10 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -14154,10 +14184,10 @@
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -14171,10 +14201,10 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -14188,10 +14218,10 @@
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -14205,10 +14235,10 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -14222,10 +14252,10 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -14261,16 +14291,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14278,16 +14308,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14298,10 +14328,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -14315,10 +14345,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -14332,10 +14362,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -14349,10 +14379,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -14366,10 +14396,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -14383,10 +14413,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -14408,7 +14438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -14419,24 +14449,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -15648,4 +15678,130 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="680" windowWidth="25000" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="920" windowWidth="25000" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="651">
   <si>
     <t>道具id</t>
   </si>
@@ -2208,6 +2208,10 @@
   </si>
   <si>
     <t>魔法回复{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLevelup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3599,20 +3603,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="4" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42">
+    <row r="1" spans="1:9" ht="42">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3634,11 +3638,14 @@
       <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3661,10 +3668,13 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3687,10 +3697,13 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3713,10 +3726,13 @@
         <v>0.3</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3741,8 +3757,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3767,8 +3786,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3791,10 +3813,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3817,10 +3842,13 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3843,10 +3871,13 @@
         <v>1</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3869,10 +3900,13 @@
         <v>0.4</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3897,8 +3931,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3921,10 +3958,13 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3947,10 +3987,13 @@
         <v>0.3</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3973,10 +4016,13 @@
         <v>0.3</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3999,10 +4045,13 @@
         <v>0.3</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4027,8 +4076,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4053,8 +4105,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4079,8 +4134,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4105,8 +4163,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4131,8 +4192,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>25</v>
       </c>
@@ -4157,8 +4221,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>26</v>
       </c>
@@ -4183,8 +4250,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>27</v>
       </c>
@@ -4207,6 +4277,9 @@
         <v>1</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +4300,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4324,7 +4397,7 @@
   <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
@@ -14278,7 +14351,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14438,8 +14511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15685,7 +15758,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="920" windowWidth="25000" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -2159,59 +2159,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>propertyid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主属性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命回复+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +{0}魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法回复{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLevelup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>propertyid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>additionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主属性id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加属性id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{0}生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命回复+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +{0}魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法回复+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法回复{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isLevelup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3605,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3639,7 +3639,7 @@
         <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>60</v>
@@ -3668,7 +3668,7 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -3682,7 +3682,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
@@ -3697,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -3726,7 +3726,7 @@
         <v>0.3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" t="s">
         <v>645</v>
       </c>
-      <c r="C5" t="s">
-        <v>646</v>
-      </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3766,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -14511,14 +14511,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="24.83203125" style="4" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -14527,8 +14524,8 @@
       <c r="B1" t="s">
         <v>636</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>637</v>
+      <c r="C1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14538,8 +14535,8 @@
       <c r="B2" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>637</v>
+      <c r="C2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14549,9 +14546,9 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <f>B3/100*B3/100*B3/100 * 10000000</f>
-        <v>10</v>
+      <c r="C3">
+        <f>B3*B3*20</f>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14561,9 +14558,9 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <f>C3+10</f>
-        <v>20</v>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">B4*B4*20</f>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14573,9 +14570,9 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C12" si="0">C4+10</f>
-        <v>30</v>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14585,9 +14582,9 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14597,9 +14594,9 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14609,9 +14606,9 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14621,9 +14618,9 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14633,9 +14630,9 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14645,9 +14642,9 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14657,9 +14654,9 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14669,9 +14666,9 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
-        <f>C12+20</f>
-        <v>120</v>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2420</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14681,9 +14678,9 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14:C22" si="1">C13+20</f>
-        <v>140</v>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2880</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14693,9 +14690,9 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>160</v>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3380</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14705,9 +14702,9 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>180</v>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3920</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14717,9 +14714,9 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>200</v>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4500</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14729,9 +14726,9 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>220</v>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14741,9 +14738,9 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>240</v>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5780</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14753,9 +14750,9 @@
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="1"/>
-        <v>260</v>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6480</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14765,9 +14762,9 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" si="1"/>
-        <v>280</v>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>7220</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14777,9 +14774,9 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" si="1"/>
-        <v>300</v>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14789,9 +14786,9 @@
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
-        <f>C22+40</f>
-        <v>340</v>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>8820</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14801,9 +14798,9 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="4">
-        <f t="shared" ref="C24:C32" si="2">C23+40</f>
-        <v>380</v>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>9680</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14813,9 +14810,9 @@
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" si="2"/>
-        <v>420</v>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>10580</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14825,9 +14822,9 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" si="2"/>
-        <v>460</v>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>11520</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14837,9 +14834,9 @@
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" si="2"/>
-        <v>500</v>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>12500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -14849,9 +14846,9 @@
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="2"/>
-        <v>540</v>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>13520</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -14861,9 +14858,9 @@
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" si="2"/>
-        <v>580</v>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>14580</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -14873,9 +14870,9 @@
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" si="2"/>
-        <v>620</v>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>15680</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14885,9 +14882,9 @@
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" si="2"/>
-        <v>660</v>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>16820</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14897,9 +14894,9 @@
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" si="2"/>
-        <v>700</v>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -14909,9 +14906,9 @@
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
-        <f>C32+80</f>
-        <v>780</v>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>19220</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -14921,9 +14918,9 @@
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
-        <f t="shared" ref="C34:C42" si="3">C33+80</f>
-        <v>860</v>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>20480</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -14933,9 +14930,9 @@
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
-        <f t="shared" si="3"/>
-        <v>940</v>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>21780</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14945,9 +14942,9 @@
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
-        <f t="shared" si="3"/>
-        <v>1020</v>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>23120</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14957,9 +14954,9 @@
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
-        <f t="shared" si="3"/>
-        <v>1100</v>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>24500</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -14969,9 +14966,9 @@
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" si="3"/>
-        <v>1180</v>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>25920</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -14981,9 +14978,9 @@
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
-        <f t="shared" si="3"/>
-        <v>1260</v>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>27380</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14993,9 +14990,9 @@
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
-        <f t="shared" si="3"/>
-        <v>1340</v>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>28880</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15005,9 +15002,9 @@
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="4">
-        <f t="shared" si="3"/>
-        <v>1420</v>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>30420</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15017,9 +15014,9 @@
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="4">
-        <f t="shared" si="3"/>
-        <v>1500</v>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>32000</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15029,9 +15026,9 @@
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="4">
-        <f>C42+160</f>
-        <v>1660</v>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>33620</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15041,9 +15038,9 @@
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="4">
-        <f t="shared" ref="C44:C52" si="4">C43+160</f>
-        <v>1820</v>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>35280</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -15053,9 +15050,9 @@
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" si="4"/>
-        <v>1980</v>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>36980</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -15065,9 +15062,9 @@
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" s="4">
-        <f t="shared" si="4"/>
-        <v>2140</v>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>38720</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15077,9 +15074,9 @@
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="4">
-        <f t="shared" si="4"/>
-        <v>2300</v>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>40500</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15089,9 +15086,9 @@
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" s="4">
-        <f t="shared" si="4"/>
-        <v>2460</v>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>42320</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15101,9 +15098,9 @@
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" s="4">
-        <f t="shared" si="4"/>
-        <v>2620</v>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>44180</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -15113,9 +15110,9 @@
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" s="4">
-        <f t="shared" si="4"/>
-        <v>2780</v>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>46080</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -15125,9 +15122,9 @@
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="4">
-        <f t="shared" si="4"/>
-        <v>2940</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>48020</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -15137,9 +15134,9 @@
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" s="4">
-        <f t="shared" si="4"/>
-        <v>3100</v>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -15149,9 +15146,9 @@
       <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" s="4">
-        <f>C52+320</f>
-        <v>3420</v>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>52020</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -15161,9 +15158,9 @@
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54" s="4">
-        <f t="shared" ref="C54:C62" si="5">C53+320</f>
-        <v>3740</v>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>54080</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -15173,9 +15170,9 @@
       <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55" s="4">
-        <f t="shared" si="5"/>
-        <v>4060</v>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>56180</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -15185,9 +15182,9 @@
       <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56" s="4">
-        <f t="shared" si="5"/>
-        <v>4380</v>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>58320</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -15197,9 +15194,9 @@
       <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57" s="4">
-        <f t="shared" si="5"/>
-        <v>4700</v>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>60500</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -15209,9 +15206,9 @@
       <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58" s="4">
-        <f t="shared" si="5"/>
-        <v>5020</v>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>62720</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -15221,9 +15218,9 @@
       <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59" s="4">
-        <f t="shared" si="5"/>
-        <v>5340</v>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>64980</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -15233,9 +15230,9 @@
       <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60" s="4">
-        <f t="shared" si="5"/>
-        <v>5660</v>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>67280</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -15245,9 +15242,9 @@
       <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61" s="4">
-        <f t="shared" si="5"/>
-        <v>5980</v>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>69620</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -15257,9 +15254,9 @@
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" s="4">
-        <f t="shared" si="5"/>
-        <v>6300</v>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>72000</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -15269,9 +15266,9 @@
       <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63" s="4">
-        <f>C62+640</f>
-        <v>6940</v>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>74420</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -15281,9 +15278,9 @@
       <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64" s="4">
-        <f t="shared" ref="C64:C72" si="6">C63+640</f>
-        <v>7580</v>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>76880</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -15293,9 +15290,9 @@
       <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65" s="4">
-        <f t="shared" si="6"/>
-        <v>8220</v>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>79380</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -15305,9 +15302,9 @@
       <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66" s="4">
-        <f t="shared" si="6"/>
-        <v>8860</v>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>81920</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -15317,9 +15314,9 @@
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" s="4">
-        <f t="shared" si="6"/>
-        <v>9500</v>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>84500</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -15329,9 +15326,9 @@
       <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68" s="4">
-        <f t="shared" si="6"/>
-        <v>10140</v>
+      <c r="C68">
+        <f t="shared" ref="C68:C102" si="1">B68*B68*20</f>
+        <v>87120</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -15341,9 +15338,9 @@
       <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69" s="4">
-        <f t="shared" si="6"/>
-        <v>10780</v>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>89780</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -15353,9 +15350,9 @@
       <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70" s="4">
-        <f t="shared" si="6"/>
-        <v>11420</v>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>92480</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -15365,9 +15362,9 @@
       <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71" s="4">
-        <f t="shared" si="6"/>
-        <v>12060</v>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>95220</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -15377,9 +15374,9 @@
       <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72" s="4">
-        <f t="shared" si="6"/>
-        <v>12700</v>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>98000</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -15389,9 +15386,9 @@
       <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73" s="4">
-        <f>C72+1280</f>
-        <v>13980</v>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>100820</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -15401,9 +15398,9 @@
       <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74" s="4">
-        <f t="shared" ref="C74:C82" si="7">C73+1280</f>
-        <v>15260</v>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>103680</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -15413,9 +15410,9 @@
       <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75" s="4">
-        <f t="shared" si="7"/>
-        <v>16540</v>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>106580</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -15425,9 +15422,9 @@
       <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76" s="4">
-        <f t="shared" si="7"/>
-        <v>17820</v>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>109520</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -15437,9 +15434,9 @@
       <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77" s="4">
-        <f t="shared" si="7"/>
-        <v>19100</v>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>112500</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -15449,9 +15446,9 @@
       <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78" s="4">
-        <f t="shared" si="7"/>
-        <v>20380</v>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>115520</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -15461,9 +15458,9 @@
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" s="4">
-        <f t="shared" si="7"/>
-        <v>21660</v>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>118580</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -15473,9 +15470,9 @@
       <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80" s="4">
-        <f t="shared" si="7"/>
-        <v>22940</v>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>121680</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -15485,9 +15482,9 @@
       <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81" s="4">
-        <f t="shared" si="7"/>
-        <v>24220</v>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>124820</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -15497,9 +15494,9 @@
       <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82" s="4">
-        <f t="shared" si="7"/>
-        <v>25500</v>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>128000</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -15509,9 +15506,9 @@
       <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" s="4">
-        <f>C82+2048</f>
-        <v>27548</v>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>131220</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -15521,9 +15518,9 @@
       <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" s="4">
-        <f t="shared" ref="C84:C92" si="8">C83+2048</f>
-        <v>29596</v>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>134480</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -15533,9 +15530,9 @@
       <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" s="4">
-        <f t="shared" si="8"/>
-        <v>31644</v>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>137780</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -15545,9 +15542,9 @@
       <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86" s="4">
-        <f t="shared" si="8"/>
-        <v>33692</v>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>141120</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -15557,9 +15554,9 @@
       <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87" s="4">
-        <f t="shared" si="8"/>
-        <v>35740</v>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>144500</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -15569,9 +15566,9 @@
       <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" s="4">
-        <f t="shared" si="8"/>
-        <v>37788</v>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>147920</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -15581,9 +15578,9 @@
       <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89" s="4">
-        <f t="shared" si="8"/>
-        <v>39836</v>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>151380</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -15593,9 +15590,9 @@
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90" s="4">
-        <f t="shared" si="8"/>
-        <v>41884</v>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>154880</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -15605,9 +15602,9 @@
       <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91" s="4">
-        <f t="shared" si="8"/>
-        <v>43932</v>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>158420</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -15617,9 +15614,9 @@
       <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92" s="4">
-        <f t="shared" si="8"/>
-        <v>45980</v>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>162000</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -15629,9 +15626,9 @@
       <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93" s="4">
-        <f>C92+4096</f>
-        <v>50076</v>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>165620</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -15641,9 +15638,9 @@
       <c r="B94">
         <v>92</v>
       </c>
-      <c r="C94" s="4">
-        <f t="shared" ref="C94:C102" si="9">C93+4096</f>
-        <v>54172</v>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>169280</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -15653,9 +15650,9 @@
       <c r="B95">
         <v>93</v>
       </c>
-      <c r="C95" s="4">
-        <f t="shared" si="9"/>
-        <v>58268</v>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>172980</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -15665,9 +15662,9 @@
       <c r="B96">
         <v>94</v>
       </c>
-      <c r="C96" s="4">
-        <f t="shared" si="9"/>
-        <v>62364</v>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>176720</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -15677,9 +15674,9 @@
       <c r="B97">
         <v>95</v>
       </c>
-      <c r="C97" s="4">
-        <f t="shared" si="9"/>
-        <v>66460</v>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>180500</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -15689,9 +15686,9 @@
       <c r="B98">
         <v>96</v>
       </c>
-      <c r="C98" s="4">
-        <f t="shared" si="9"/>
-        <v>70556</v>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>184320</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -15701,9 +15698,9 @@
       <c r="B99">
         <v>97</v>
       </c>
-      <c r="C99" s="4">
-        <f t="shared" si="9"/>
-        <v>74652</v>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>188180</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -15713,9 +15710,9 @@
       <c r="B100">
         <v>98</v>
       </c>
-      <c r="C100" s="4">
-        <f t="shared" si="9"/>
-        <v>78748</v>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>192080</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -15725,9 +15722,9 @@
       <c r="B101">
         <v>99</v>
       </c>
-      <c r="C101" s="4">
-        <f t="shared" si="9"/>
-        <v>82844</v>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>196020</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -15737,9 +15734,9 @@
       <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102" s="4">
-        <f t="shared" si="9"/>
-        <v>86940</v>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -15765,18 +15762,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" t="s">
         <v>640</v>
-      </c>
-      <c r="B1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2" t="s">
         <v>638</v>
-      </c>
-      <c r="B2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="720" windowWidth="24960" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="652">
   <si>
     <t>道具id</t>
   </si>
@@ -2209,6 +2209,14 @@
   </si>
   <si>
     <t>是否使用等级成长公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/MapObj/prop/box1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3602,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4460,11 +4468,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="A24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4604,16 +4612,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>4001001</v>
-      </c>
-      <c r="B6">
-        <v>4001001</v>
+        <v>4100001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>650</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>651</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4622,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4630,16 +4638,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>4001002</v>
+        <v>4001001</v>
       </c>
       <c r="B7">
-        <v>4001002</v>
+        <v>4001001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4656,16 +4664,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>4001003</v>
+        <v>4001002</v>
       </c>
       <c r="B8">
-        <v>4001003</v>
+        <v>4001002</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4682,22 +4690,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>4001004</v>
+        <v>4001003</v>
       </c>
       <c r="B9">
-        <v>4001004</v>
+        <v>4001003</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4708,22 +4716,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>4001005</v>
+        <v>4001004</v>
       </c>
       <c r="B10">
-        <v>4001005</v>
+        <v>4001004</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4734,25 +4742,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>4001101</v>
+        <v>4001005</v>
       </c>
       <c r="B11">
-        <v>4001101</v>
+        <v>4001005</v>
       </c>
       <c r="C11">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4760,16 +4768,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>4001102</v>
+        <v>4001101</v>
       </c>
       <c r="B12">
-        <v>4001102</v>
+        <v>4001101</v>
       </c>
       <c r="C12">
         <v>100001</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4786,16 +4794,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>4001103</v>
+        <v>4001102</v>
       </c>
       <c r="B13">
-        <v>4001103</v>
+        <v>4001102</v>
       </c>
       <c r="C13">
         <v>100001</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4812,16 +4820,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>4001104</v>
+        <v>4001103</v>
       </c>
       <c r="B14">
-        <v>4001104</v>
+        <v>4001103</v>
       </c>
       <c r="C14">
         <v>100001</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4838,16 +4846,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>4001105</v>
+        <v>4001104</v>
       </c>
       <c r="B15">
-        <v>4001105</v>
+        <v>4001104</v>
       </c>
       <c r="C15">
         <v>100001</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4864,22 +4872,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>4001106</v>
+        <v>4001105</v>
       </c>
       <c r="B16">
-        <v>4001106</v>
+        <v>4001105</v>
       </c>
       <c r="C16">
         <v>100001</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4890,22 +4898,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>4001107</v>
+        <v>4001106</v>
       </c>
       <c r="B17">
-        <v>4001107</v>
+        <v>4001106</v>
       </c>
       <c r="C17">
         <v>100001</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -4916,16 +4924,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>4001108</v>
+        <v>4001107</v>
       </c>
       <c r="B18">
-        <v>4001108</v>
+        <v>4001107</v>
       </c>
       <c r="C18">
         <v>100001</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4942,16 +4950,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>4001109</v>
+        <v>4001108</v>
       </c>
       <c r="B19">
-        <v>4001109</v>
+        <v>4001108</v>
       </c>
       <c r="C19">
         <v>100001</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4968,16 +4976,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>4001110</v>
+        <v>4001109</v>
       </c>
       <c r="B20">
-        <v>4001110</v>
+        <v>4001109</v>
       </c>
       <c r="C20">
         <v>100001</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4994,16 +5002,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>4001111</v>
+        <v>4001110</v>
       </c>
       <c r="B21">
-        <v>4001111</v>
+        <v>4001110</v>
       </c>
       <c r="C21">
         <v>100001</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5020,22 +5028,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>4001112</v>
+        <v>4001111</v>
       </c>
       <c r="B22">
-        <v>4001112</v>
+        <v>4001111</v>
       </c>
       <c r="C22">
         <v>100001</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -5046,77 +5054,77 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>4001113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>202</v>
+        <v>4001112</v>
+      </c>
+      <c r="B23">
+        <v>4001112</v>
       </c>
       <c r="C23">
         <v>100001</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>4001114</v>
-      </c>
-      <c r="B24">
-        <v>4001114</v>
+        <v>4001113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
       </c>
       <c r="C24">
         <v>100001</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>4002001</v>
+        <v>4001114</v>
       </c>
       <c r="B25">
-        <v>4002001</v>
+        <v>4001114</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5124,16 +5132,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>4002002</v>
+        <v>4002001</v>
       </c>
       <c r="B26">
-        <v>4002002</v>
+        <v>4002001</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5150,16 +5158,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>4002003</v>
+        <v>4002002</v>
       </c>
       <c r="B27">
-        <v>4002003</v>
+        <v>4002002</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5176,16 +5184,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>4002004</v>
+        <v>4002003</v>
       </c>
       <c r="B28">
-        <v>4002004</v>
+        <v>4002003</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5202,16 +5210,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>4002005</v>
+        <v>4002004</v>
       </c>
       <c r="B29">
-        <v>4002005</v>
+        <v>4002004</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5228,16 +5236,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>4002006</v>
+        <v>4002005</v>
       </c>
       <c r="B30">
-        <v>4002006</v>
+        <v>4002005</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5254,16 +5262,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>4002007</v>
+        <v>4002006</v>
       </c>
       <c r="B31">
-        <v>4002007</v>
+        <v>4002006</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5278,18 +5286,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+    <row r="32" spans="1:8">
       <c r="A32">
-        <v>4002008</v>
+        <v>4002007</v>
       </c>
       <c r="B32">
-        <v>4002008</v>
+        <v>4002007</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5304,18 +5312,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33">
-        <v>4002009</v>
+        <v>4002008</v>
       </c>
       <c r="B33">
-        <v>4002009</v>
+        <v>4002008</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5332,16 +5340,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>4002010</v>
+        <v>4002009</v>
       </c>
       <c r="B34">
-        <v>4002010</v>
+        <v>4002009</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5356,18 +5364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    <row r="35" spans="1:8">
       <c r="A35">
-        <v>4002011</v>
+        <v>4002010</v>
       </c>
       <c r="B35">
-        <v>4002011</v>
+        <v>4002010</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5384,16 +5392,16 @@
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36">
-        <v>4002012</v>
+        <v>4002011</v>
       </c>
       <c r="B36">
-        <v>4002012</v>
+        <v>4002011</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5410,16 +5418,16 @@
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37">
-        <v>4002013</v>
+        <v>4002012</v>
       </c>
       <c r="B37">
-        <v>4002013</v>
+        <v>4002012</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5436,16 +5444,16 @@
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1">
       <c r="A38">
-        <v>4002014</v>
+        <v>4002013</v>
       </c>
       <c r="B38">
-        <v>4002014</v>
+        <v>4002013</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5462,16 +5470,16 @@
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1">
       <c r="A39">
-        <v>4002015</v>
+        <v>4002014</v>
       </c>
       <c r="B39">
-        <v>4002015</v>
+        <v>4002014</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5488,16 +5496,16 @@
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40">
-        <v>4002016</v>
+        <v>4002015</v>
       </c>
       <c r="B40">
-        <v>4002016</v>
+        <v>4002015</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5514,16 +5522,16 @@
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41">
-        <v>4002017</v>
+        <v>4002016</v>
       </c>
       <c r="B41">
-        <v>4002017</v>
+        <v>4002016</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5540,22 +5548,22 @@
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="A42">
-        <v>4002018</v>
+        <v>4002017</v>
       </c>
       <c r="B42">
-        <v>4002018</v>
+        <v>4002017</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -5566,16 +5574,16 @@
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1">
       <c r="A43">
-        <v>4002019</v>
+        <v>4002018</v>
       </c>
       <c r="B43">
-        <v>4002019</v>
+        <v>4002018</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5592,22 +5600,22 @@
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1">
       <c r="A44">
-        <v>4002020</v>
+        <v>4002019</v>
       </c>
       <c r="B44">
-        <v>4002020</v>
+        <v>4002019</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5618,16 +5626,16 @@
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1">
       <c r="A45">
-        <v>4002021</v>
+        <v>4002020</v>
       </c>
       <c r="B45">
-        <v>4002021</v>
+        <v>4002020</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5644,16 +5652,16 @@
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1">
       <c r="A46">
-        <v>4002022</v>
+        <v>4002021</v>
       </c>
       <c r="B46">
-        <v>4002022</v>
+        <v>4002021</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5670,16 +5678,16 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1">
       <c r="A47">
-        <v>4002023</v>
+        <v>4002022</v>
       </c>
       <c r="B47">
-        <v>4002023</v>
+        <v>4002022</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5696,16 +5704,16 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1">
       <c r="A48">
-        <v>4002024</v>
+        <v>4002023</v>
       </c>
       <c r="B48">
-        <v>4002024</v>
+        <v>4002023</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -5720,18 +5728,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="15" customHeight="1">
       <c r="A49">
-        <v>4002025</v>
+        <v>4002024</v>
       </c>
       <c r="B49">
-        <v>4002025</v>
+        <v>4002024</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5748,16 +5756,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>4002026</v>
+        <v>4002025</v>
       </c>
       <c r="B50">
-        <v>4002026</v>
+        <v>4002025</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5774,16 +5782,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>4002027</v>
+        <v>4002026</v>
       </c>
       <c r="B51">
-        <v>4002027</v>
+        <v>4002026</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5800,16 +5808,16 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>4002028</v>
+        <v>4002027</v>
       </c>
       <c r="B52">
-        <v>4002028</v>
+        <v>4002027</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5826,16 +5834,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>4002029</v>
+        <v>4002028</v>
       </c>
       <c r="B53">
-        <v>4002029</v>
+        <v>4002028</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5852,16 +5860,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>4002030</v>
+        <v>4002029</v>
       </c>
       <c r="B54">
-        <v>4002030</v>
+        <v>4002029</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5878,16 +5886,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>4002031</v>
+        <v>4002030</v>
       </c>
       <c r="B55">
-        <v>4002031</v>
+        <v>4002030</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5904,16 +5912,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>4002032</v>
+        <v>4002031</v>
       </c>
       <c r="B56">
-        <v>4002032</v>
+        <v>4002031</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5930,16 +5938,16 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>4002033</v>
+        <v>4002032</v>
       </c>
       <c r="B57">
-        <v>4002033</v>
+        <v>4002032</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5956,16 +5964,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>4002034</v>
+        <v>4002033</v>
       </c>
       <c r="B58">
-        <v>4002034</v>
+        <v>4002033</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5982,16 +5990,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>4002035</v>
+        <v>4002034</v>
       </c>
       <c r="B59">
-        <v>4002035</v>
+        <v>4002034</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -6008,16 +6016,16 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>4002036</v>
+        <v>4002035</v>
       </c>
       <c r="B60">
-        <v>4002036</v>
+        <v>4002035</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -6034,16 +6042,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>4002037</v>
+        <v>4002036</v>
       </c>
       <c r="B61">
-        <v>4002037</v>
+        <v>4002036</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -6060,16 +6068,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>4002038</v>
+        <v>4002037</v>
       </c>
       <c r="B62">
-        <v>4002038</v>
+        <v>4002037</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -6086,16 +6094,16 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>4002039</v>
+        <v>4002038</v>
       </c>
       <c r="B63">
-        <v>4002039</v>
+        <v>4002038</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -6112,16 +6120,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>4002040</v>
+        <v>4002039</v>
       </c>
       <c r="B64">
-        <v>4002040</v>
+        <v>4002039</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6138,16 +6146,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>4002041</v>
+        <v>4002040</v>
       </c>
       <c r="B65">
-        <v>4002041</v>
+        <v>4002040</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -6164,16 +6172,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>4002042</v>
+        <v>4002041</v>
       </c>
       <c r="B66">
-        <v>4002042</v>
+        <v>4002041</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6190,16 +6198,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>4002043</v>
+        <v>4002042</v>
       </c>
       <c r="B67">
-        <v>4002043</v>
+        <v>4002042</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -6216,16 +6224,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>4002044</v>
+        <v>4002043</v>
       </c>
       <c r="B68">
-        <v>4002044</v>
+        <v>4002043</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6242,16 +6250,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>4002045</v>
+        <v>4002044</v>
       </c>
       <c r="B69">
-        <v>4002045</v>
+        <v>4002044</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -6268,16 +6276,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>4002046</v>
+        <v>4002045</v>
       </c>
       <c r="B70">
-        <v>4002046</v>
+        <v>4002045</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -6294,16 +6302,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>4002101</v>
+        <v>4002046</v>
       </c>
       <c r="B71">
-        <v>4002101</v>
+        <v>4002046</v>
       </c>
       <c r="C71">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6312,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6320,16 +6328,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>4002102</v>
+        <v>4002101</v>
       </c>
       <c r="B72">
-        <v>4002102</v>
+        <v>4002101</v>
       </c>
       <c r="C72">
         <v>100002</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6346,16 +6354,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>4002103</v>
+        <v>4002102</v>
       </c>
       <c r="B73">
-        <v>4002103</v>
+        <v>4002102</v>
       </c>
       <c r="C73">
         <v>100002</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6372,16 +6380,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>4002104</v>
+        <v>4002103</v>
       </c>
       <c r="B74">
-        <v>4002104</v>
+        <v>4002103</v>
       </c>
       <c r="C74">
         <v>100002</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6398,16 +6406,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>4002105</v>
+        <v>4002104</v>
       </c>
       <c r="B75">
-        <v>4002105</v>
+        <v>4002104</v>
       </c>
       <c r="C75">
         <v>100002</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6424,16 +6432,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>4002106</v>
+        <v>4002105</v>
       </c>
       <c r="B76">
-        <v>4002106</v>
+        <v>4002105</v>
       </c>
       <c r="C76">
         <v>100002</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6450,16 +6458,16 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>4002107</v>
+        <v>4002106</v>
       </c>
       <c r="B77">
-        <v>4002107</v>
+        <v>4002106</v>
       </c>
       <c r="C77">
         <v>100002</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6476,16 +6484,16 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>4002108</v>
+        <v>4002107</v>
       </c>
       <c r="B78">
-        <v>4002108</v>
+        <v>4002107</v>
       </c>
       <c r="C78">
         <v>100002</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -6502,16 +6510,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>4002109</v>
+        <v>4002108</v>
       </c>
       <c r="B79">
-        <v>4002109</v>
+        <v>4002108</v>
       </c>
       <c r="C79">
         <v>100002</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -6528,16 +6536,16 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>4002110</v>
+        <v>4002109</v>
       </c>
       <c r="B80">
-        <v>4002110</v>
+        <v>4002109</v>
       </c>
       <c r="C80">
         <v>100002</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -6554,16 +6562,16 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>4002111</v>
+        <v>4002110</v>
       </c>
       <c r="B81">
-        <v>4002111</v>
+        <v>4002110</v>
       </c>
       <c r="C81">
         <v>100002</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -6580,16 +6588,16 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>4002112</v>
+        <v>4002111</v>
       </c>
       <c r="B82">
-        <v>4002112</v>
+        <v>4002111</v>
       </c>
       <c r="C82">
         <v>100002</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6606,16 +6614,16 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>4002113</v>
+        <v>4002112</v>
       </c>
       <c r="B83">
-        <v>4002113</v>
+        <v>4002112</v>
       </c>
       <c r="C83">
         <v>100002</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6632,16 +6640,16 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>4002114</v>
+        <v>4002113</v>
       </c>
       <c r="B84">
-        <v>4002114</v>
+        <v>4002113</v>
       </c>
       <c r="C84">
         <v>100002</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -6658,16 +6666,16 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>4002115</v>
+        <v>4002114</v>
       </c>
       <c r="B85">
-        <v>4002115</v>
+        <v>4002114</v>
       </c>
       <c r="C85">
         <v>100002</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -6684,16 +6692,16 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>4002116</v>
+        <v>4002115</v>
       </c>
       <c r="B86">
-        <v>4002116</v>
+        <v>4002115</v>
       </c>
       <c r="C86">
         <v>100002</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -6710,16 +6718,16 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>4002117</v>
+        <v>4002116</v>
       </c>
       <c r="B87">
-        <v>4002117</v>
+        <v>4002116</v>
       </c>
       <c r="C87">
         <v>100002</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6736,16 +6744,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>4002118</v>
+        <v>4002117</v>
       </c>
       <c r="B88">
-        <v>4002118</v>
+        <v>4002117</v>
       </c>
       <c r="C88">
         <v>100002</v>
       </c>
       <c r="D88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6762,16 +6770,16 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>4002119</v>
+        <v>4002118</v>
       </c>
       <c r="B89">
-        <v>4002119</v>
+        <v>4002118</v>
       </c>
       <c r="C89">
         <v>100002</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6788,22 +6796,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>4002120</v>
+        <v>4002119</v>
       </c>
       <c r="B90">
-        <v>4002120</v>
+        <v>4002119</v>
       </c>
       <c r="C90">
         <v>100002</v>
       </c>
       <c r="D90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -6814,16 +6822,16 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>4002121</v>
+        <v>4002120</v>
       </c>
       <c r="B91">
-        <v>4002121</v>
+        <v>4002120</v>
       </c>
       <c r="C91">
         <v>100002</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -6840,16 +6848,16 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>4002122</v>
+        <v>4002121</v>
       </c>
       <c r="B92">
-        <v>4002122</v>
+        <v>4002121</v>
       </c>
       <c r="C92">
         <v>100002</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -6866,22 +6874,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>4002123</v>
+        <v>4002122</v>
       </c>
       <c r="B93">
-        <v>4002123</v>
+        <v>4002122</v>
       </c>
       <c r="C93">
         <v>100002</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -6892,16 +6900,16 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>4002124</v>
+        <v>4002123</v>
       </c>
       <c r="B94">
-        <v>4002124</v>
+        <v>4002123</v>
       </c>
       <c r="C94">
         <v>100002</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -6918,16 +6926,16 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>4002125</v>
+        <v>4002124</v>
       </c>
       <c r="B95">
-        <v>4002125</v>
+        <v>4002124</v>
       </c>
       <c r="C95">
         <v>100002</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6944,16 +6952,16 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>4002126</v>
+        <v>4002125</v>
       </c>
       <c r="B96">
-        <v>4002126</v>
+        <v>4002125</v>
       </c>
       <c r="C96">
         <v>100002</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -6970,16 +6978,16 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>4002127</v>
+        <v>4002126</v>
       </c>
       <c r="B97">
-        <v>4002127</v>
+        <v>4002126</v>
       </c>
       <c r="C97">
         <v>100002</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -6996,16 +7004,16 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>4002128</v>
+        <v>4002127</v>
       </c>
       <c r="B98">
-        <v>4002128</v>
+        <v>4002127</v>
       </c>
       <c r="C98">
         <v>100002</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -7022,16 +7030,16 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>4002129</v>
+        <v>4002128</v>
       </c>
       <c r="B99">
-        <v>4002129</v>
+        <v>4002128</v>
       </c>
       <c r="C99">
         <v>100002</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -7048,22 +7056,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>4002130</v>
+        <v>4002129</v>
       </c>
       <c r="B100">
-        <v>4002130</v>
+        <v>4002129</v>
       </c>
       <c r="C100">
         <v>100002</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -7074,16 +7082,16 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>4002131</v>
+        <v>4002130</v>
       </c>
       <c r="B101">
-        <v>4002131</v>
+        <v>4002130</v>
       </c>
       <c r="C101">
         <v>100002</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -7100,22 +7108,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>4002132</v>
+        <v>4002131</v>
       </c>
       <c r="B102">
-        <v>4002132</v>
+        <v>4002131</v>
       </c>
       <c r="C102">
         <v>100002</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -7126,16 +7134,16 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>4002133</v>
+        <v>4002132</v>
       </c>
       <c r="B103">
-        <v>4002133</v>
+        <v>4002132</v>
       </c>
       <c r="C103">
         <v>100002</v>
       </c>
       <c r="D103" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -7152,16 +7160,16 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>4002134</v>
+        <v>4002133</v>
       </c>
       <c r="B104">
-        <v>4002134</v>
+        <v>4002133</v>
       </c>
       <c r="C104">
         <v>100002</v>
       </c>
       <c r="D104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -7178,16 +7186,16 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>4002135</v>
+        <v>4002134</v>
       </c>
       <c r="B105">
-        <v>4002135</v>
+        <v>4002134</v>
       </c>
       <c r="C105">
         <v>100002</v>
       </c>
       <c r="D105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -7204,16 +7212,16 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>4002136</v>
+        <v>4002135</v>
       </c>
       <c r="B106">
-        <v>4002136</v>
+        <v>4002135</v>
       </c>
       <c r="C106">
         <v>100002</v>
       </c>
       <c r="D106" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -7230,16 +7238,16 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>4002137</v>
+        <v>4002136</v>
       </c>
       <c r="B107">
-        <v>4002137</v>
+        <v>4002136</v>
       </c>
       <c r="C107">
         <v>100002</v>
       </c>
       <c r="D107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -7256,16 +7264,16 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>4002138</v>
+        <v>4002137</v>
       </c>
       <c r="B108">
-        <v>4002138</v>
+        <v>4002137</v>
       </c>
       <c r="C108">
         <v>100002</v>
       </c>
       <c r="D108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -7282,16 +7290,16 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>4002139</v>
+        <v>4002138</v>
       </c>
       <c r="B109">
-        <v>4002139</v>
+        <v>4002138</v>
       </c>
       <c r="C109">
         <v>100002</v>
       </c>
       <c r="D109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -7308,16 +7316,16 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>4002140</v>
+        <v>4002139</v>
       </c>
       <c r="B110">
-        <v>4002140</v>
+        <v>4002139</v>
       </c>
       <c r="C110">
         <v>100002</v>
       </c>
       <c r="D110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -7334,16 +7342,16 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>4002141</v>
+        <v>4002140</v>
       </c>
       <c r="B111">
-        <v>4002141</v>
+        <v>4002140</v>
       </c>
       <c r="C111">
         <v>100002</v>
       </c>
       <c r="D111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -7360,16 +7368,16 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>4002142</v>
+        <v>4002141</v>
       </c>
       <c r="B112">
-        <v>4002142</v>
+        <v>4002141</v>
       </c>
       <c r="C112">
         <v>100002</v>
       </c>
       <c r="D112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -7386,16 +7394,16 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>4002143</v>
+        <v>4002142</v>
       </c>
       <c r="B113">
-        <v>4002143</v>
+        <v>4002142</v>
       </c>
       <c r="C113">
         <v>100002</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -7412,16 +7420,16 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>4002144</v>
+        <v>4002143</v>
       </c>
       <c r="B114">
-        <v>4002144</v>
+        <v>4002143</v>
       </c>
       <c r="C114">
         <v>100002</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -7438,16 +7446,16 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>4002145</v>
+        <v>4002144</v>
       </c>
       <c r="B115">
-        <v>4002145</v>
+        <v>4002144</v>
       </c>
       <c r="C115">
         <v>100002</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -7464,16 +7472,16 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>4002146</v>
+        <v>4002145</v>
       </c>
       <c r="B116">
-        <v>4002146</v>
+        <v>4002145</v>
       </c>
       <c r="C116">
         <v>100002</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -7490,16 +7498,16 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>4002147</v>
+        <v>4002146</v>
       </c>
       <c r="B117">
-        <v>4002147</v>
+        <v>4002146</v>
       </c>
       <c r="C117">
         <v>100002</v>
       </c>
       <c r="D117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -7516,16 +7524,16 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>4002148</v>
+        <v>4002147</v>
       </c>
       <c r="B118">
-        <v>4002148</v>
+        <v>4002147</v>
       </c>
       <c r="C118">
         <v>100002</v>
       </c>
       <c r="D118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -7542,16 +7550,16 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>4002149</v>
+        <v>4002148</v>
       </c>
       <c r="B119">
-        <v>4002149</v>
+        <v>4002148</v>
       </c>
       <c r="C119">
         <v>100002</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -7568,16 +7576,16 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>4002150</v>
+        <v>4002149</v>
       </c>
       <c r="B120">
-        <v>4002150</v>
+        <v>4002149</v>
       </c>
       <c r="C120">
         <v>100002</v>
       </c>
       <c r="D120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -7594,16 +7602,16 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>4002151</v>
+        <v>4002150</v>
       </c>
       <c r="B121">
-        <v>4002151</v>
+        <v>4002150</v>
       </c>
       <c r="C121">
         <v>100002</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -7620,16 +7628,16 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>4002152</v>
+        <v>4002151</v>
       </c>
       <c r="B122">
-        <v>4002152</v>
+        <v>4002151</v>
       </c>
       <c r="C122">
         <v>100002</v>
       </c>
       <c r="D122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -7646,16 +7654,16 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>4002153</v>
+        <v>4002152</v>
       </c>
       <c r="B123">
-        <v>4002153</v>
+        <v>4002152</v>
       </c>
       <c r="C123">
         <v>100002</v>
       </c>
       <c r="D123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7672,16 +7680,16 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>4002154</v>
+        <v>4002153</v>
       </c>
       <c r="B124">
-        <v>4002154</v>
+        <v>4002153</v>
       </c>
       <c r="C124">
         <v>100002</v>
       </c>
       <c r="D124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -7698,16 +7706,16 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>4002155</v>
+        <v>4002154</v>
       </c>
       <c r="B125">
-        <v>4002155</v>
+        <v>4002154</v>
       </c>
       <c r="C125">
         <v>100002</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7724,16 +7732,16 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>4002156</v>
+        <v>4002155</v>
       </c>
       <c r="B126">
-        <v>4002156</v>
+        <v>4002155</v>
       </c>
       <c r="C126">
         <v>100002</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -7750,16 +7758,16 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>4002157</v>
+        <v>4002156</v>
       </c>
       <c r="B127">
-        <v>4002157</v>
+        <v>4002156</v>
       </c>
       <c r="C127">
         <v>100002</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7776,16 +7784,16 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>4002158</v>
+        <v>4002157</v>
       </c>
       <c r="B128">
-        <v>4002158</v>
+        <v>4002157</v>
       </c>
       <c r="C128">
         <v>100002</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7802,16 +7810,16 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>4002159</v>
+        <v>4002158</v>
       </c>
       <c r="B129">
-        <v>4002159</v>
+        <v>4002158</v>
       </c>
       <c r="C129">
         <v>100002</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7828,16 +7836,16 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>4002160</v>
+        <v>4002159</v>
       </c>
       <c r="B130">
-        <v>4002160</v>
+        <v>4002159</v>
       </c>
       <c r="C130">
         <v>100002</v>
       </c>
       <c r="D130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7854,16 +7862,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>4002161</v>
+        <v>4002160</v>
       </c>
       <c r="B131">
-        <v>4002161</v>
+        <v>4002160</v>
       </c>
       <c r="C131">
         <v>100002</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -7880,16 +7888,16 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>4002162</v>
+        <v>4002161</v>
       </c>
       <c r="B132">
-        <v>4002162</v>
+        <v>4002161</v>
       </c>
       <c r="C132">
         <v>100002</v>
       </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -7906,16 +7914,16 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>4002163</v>
+        <v>4002162</v>
       </c>
       <c r="B133">
-        <v>4002163</v>
+        <v>4002162</v>
       </c>
       <c r="C133">
         <v>100002</v>
       </c>
       <c r="D133" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -7932,16 +7940,16 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>4002164</v>
+        <v>4002163</v>
       </c>
       <c r="B134">
-        <v>4002164</v>
+        <v>4002163</v>
       </c>
       <c r="C134">
         <v>100002</v>
       </c>
       <c r="D134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7958,16 +7966,16 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>4002165</v>
+        <v>4002164</v>
       </c>
       <c r="B135">
-        <v>4002165</v>
+        <v>4002164</v>
       </c>
       <c r="C135">
         <v>100002</v>
       </c>
       <c r="D135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7984,16 +7992,16 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>4002166</v>
+        <v>4002165</v>
       </c>
       <c r="B136">
-        <v>4002166</v>
+        <v>4002165</v>
       </c>
       <c r="C136">
         <v>100002</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -8010,16 +8018,16 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>4002167</v>
+        <v>4002166</v>
       </c>
       <c r="B137">
-        <v>4002167</v>
+        <v>4002166</v>
       </c>
       <c r="C137">
         <v>100002</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -8036,16 +8044,16 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138">
-        <v>4002168</v>
+        <v>4002167</v>
       </c>
       <c r="B138">
-        <v>4002168</v>
+        <v>4002167</v>
       </c>
       <c r="C138">
         <v>100002</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -8062,16 +8070,16 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139">
-        <v>4002169</v>
+        <v>4002168</v>
       </c>
       <c r="B139">
-        <v>4002169</v>
+        <v>4002168</v>
       </c>
       <c r="C139">
         <v>100002</v>
       </c>
       <c r="D139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -8088,16 +8096,16 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140">
-        <v>4002170</v>
+        <v>4002169</v>
       </c>
       <c r="B140">
-        <v>4002170</v>
+        <v>4002169</v>
       </c>
       <c r="C140">
         <v>100002</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -8114,16 +8122,16 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141">
-        <v>4002171</v>
+        <v>4002170</v>
       </c>
       <c r="B141">
-        <v>4002171</v>
+        <v>4002170</v>
       </c>
       <c r="C141">
         <v>100002</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -8140,16 +8148,16 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>4002172</v>
+        <v>4002171</v>
       </c>
       <c r="B142">
-        <v>4002172</v>
+        <v>4002171</v>
       </c>
       <c r="C142">
         <v>100002</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -8166,16 +8174,16 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143">
-        <v>4002173</v>
+        <v>4002172</v>
       </c>
       <c r="B143">
-        <v>4002173</v>
+        <v>4002172</v>
       </c>
       <c r="C143">
         <v>100002</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -8192,16 +8200,16 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>4002174</v>
+        <v>4002173</v>
       </c>
       <c r="B144">
-        <v>4002174</v>
+        <v>4002173</v>
       </c>
       <c r="C144">
         <v>100002</v>
       </c>
       <c r="D144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -8218,16 +8226,16 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>4002175</v>
+        <v>4002174</v>
       </c>
       <c r="B145">
-        <v>4002175</v>
+        <v>4002174</v>
       </c>
       <c r="C145">
         <v>100002</v>
       </c>
       <c r="D145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -8244,16 +8252,16 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>4002176</v>
+        <v>4002175</v>
       </c>
       <c r="B146">
-        <v>4002176</v>
+        <v>4002175</v>
       </c>
       <c r="C146">
         <v>100002</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -8270,16 +8278,16 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>4002177</v>
+        <v>4002176</v>
       </c>
       <c r="B147">
-        <v>4002177</v>
+        <v>4002176</v>
       </c>
       <c r="C147">
         <v>100002</v>
       </c>
       <c r="D147" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -8296,16 +8304,16 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>4002178</v>
+        <v>4002177</v>
       </c>
       <c r="B148">
-        <v>4002178</v>
+        <v>4002177</v>
       </c>
       <c r="C148">
         <v>100002</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -8322,16 +8330,16 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>4002179</v>
+        <v>4002178</v>
       </c>
       <c r="B149">
-        <v>4002179</v>
+        <v>4002178</v>
       </c>
       <c r="C149">
         <v>100002</v>
       </c>
       <c r="D149" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -8348,16 +8356,16 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>4002180</v>
+        <v>4002179</v>
       </c>
       <c r="B150">
-        <v>4002180</v>
+        <v>4002179</v>
       </c>
       <c r="C150">
         <v>100002</v>
       </c>
       <c r="D150" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -8374,16 +8382,16 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>4002181</v>
+        <v>4002180</v>
       </c>
       <c r="B151">
-        <v>4002181</v>
+        <v>4002180</v>
       </c>
       <c r="C151">
         <v>100002</v>
       </c>
       <c r="D151" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -8400,16 +8408,16 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>4002182</v>
+        <v>4002181</v>
       </c>
       <c r="B152">
-        <v>4002182</v>
+        <v>4002181</v>
       </c>
       <c r="C152">
         <v>100002</v>
       </c>
       <c r="D152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -8426,16 +8434,16 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>4002183</v>
+        <v>4002182</v>
       </c>
       <c r="B153">
-        <v>4002183</v>
+        <v>4002182</v>
       </c>
       <c r="C153">
         <v>100002</v>
       </c>
       <c r="D153" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -8452,16 +8460,16 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>4003001</v>
+        <v>4002183</v>
       </c>
       <c r="B154">
-        <v>4003001</v>
+        <v>4002183</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>100002</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -8470,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8478,16 +8486,16 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <v>4003002</v>
+        <v>4003001</v>
       </c>
       <c r="B155">
-        <v>4003002</v>
+        <v>4003001</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -8504,16 +8512,16 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>4003003</v>
+        <v>4003002</v>
       </c>
       <c r="B156">
-        <v>4003003</v>
+        <v>4003002</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8530,16 +8538,16 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <v>4003004</v>
+        <v>4003003</v>
       </c>
       <c r="B157">
-        <v>4003004</v>
+        <v>4003003</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8556,16 +8564,16 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>4003005</v>
+        <v>4003004</v>
       </c>
       <c r="B158">
-        <v>4003005</v>
+        <v>4003004</v>
       </c>
       <c r="C158">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8582,16 +8590,16 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>4003006</v>
+        <v>4003005</v>
       </c>
       <c r="B159">
-        <v>4003006</v>
+        <v>4003005</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8608,16 +8616,16 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>4003007</v>
+        <v>4003006</v>
       </c>
       <c r="B160">
-        <v>4003007</v>
+        <v>4003006</v>
       </c>
       <c r="C160">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8634,16 +8642,16 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>4003008</v>
+        <v>4003007</v>
       </c>
       <c r="B161">
-        <v>4003008</v>
+        <v>4003007</v>
       </c>
       <c r="C161">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8660,16 +8668,16 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>4003009</v>
+        <v>4003008</v>
       </c>
       <c r="B162">
-        <v>4003009</v>
+        <v>4003008</v>
       </c>
       <c r="C162">
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8686,16 +8694,16 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>4003010</v>
+        <v>4003009</v>
       </c>
       <c r="B163">
-        <v>4003010</v>
+        <v>4003009</v>
       </c>
       <c r="C163">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8712,16 +8720,16 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>4003011</v>
+        <v>4003010</v>
       </c>
       <c r="B164">
-        <v>4003011</v>
+        <v>4003010</v>
       </c>
       <c r="C164">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8738,16 +8746,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165">
-        <v>4003012</v>
+        <v>4003011</v>
       </c>
       <c r="B165">
-        <v>4003012</v>
+        <v>4003011</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8764,16 +8772,16 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166">
-        <v>4003013</v>
+        <v>4003012</v>
       </c>
       <c r="B166">
-        <v>4003013</v>
+        <v>4003012</v>
       </c>
       <c r="C166">
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8790,16 +8798,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167">
-        <v>4003014</v>
+        <v>4003013</v>
       </c>
       <c r="B167">
-        <v>4003014</v>
+        <v>4003013</v>
       </c>
       <c r="C167">
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8816,16 +8824,16 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168">
-        <v>4003015</v>
+        <v>4003014</v>
       </c>
       <c r="B168">
-        <v>4003015</v>
+        <v>4003014</v>
       </c>
       <c r="C168">
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8842,16 +8850,16 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
-        <v>4003016</v>
+        <v>4003015</v>
       </c>
       <c r="B169">
-        <v>4003016</v>
+        <v>4003015</v>
       </c>
       <c r="C169">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8868,16 +8876,16 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170">
-        <v>4003017</v>
+        <v>4003016</v>
       </c>
       <c r="B170">
-        <v>4003017</v>
+        <v>4003016</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8894,16 +8902,16 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171">
-        <v>4003018</v>
+        <v>4003017</v>
       </c>
       <c r="B171">
-        <v>4003018</v>
+        <v>4003017</v>
       </c>
       <c r="C171">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8920,16 +8928,16 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172">
-        <v>4003019</v>
+        <v>4003018</v>
       </c>
       <c r="B172">
-        <v>4003019</v>
+        <v>4003018</v>
       </c>
       <c r="C172">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8946,16 +8954,16 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173">
-        <v>4003020</v>
+        <v>4003019</v>
       </c>
       <c r="B173">
-        <v>4003020</v>
+        <v>4003019</v>
       </c>
       <c r="C173">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8972,16 +8980,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174">
-        <v>4003021</v>
+        <v>4003020</v>
       </c>
       <c r="B174">
-        <v>4003021</v>
+        <v>4003020</v>
       </c>
       <c r="C174">
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8998,16 +9006,16 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175">
-        <v>4003022</v>
+        <v>4003021</v>
       </c>
       <c r="B175">
-        <v>4003022</v>
+        <v>4003021</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -9024,16 +9032,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176">
-        <v>4003023</v>
+        <v>4003022</v>
       </c>
       <c r="B176">
-        <v>4003023</v>
+        <v>4003022</v>
       </c>
       <c r="C176">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -9050,16 +9058,16 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177">
-        <v>4003024</v>
+        <v>4003023</v>
       </c>
       <c r="B177">
-        <v>4003024</v>
+        <v>4003023</v>
       </c>
       <c r="C177">
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -9076,16 +9084,16 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178">
-        <v>4003025</v>
+        <v>4003024</v>
       </c>
       <c r="B178">
-        <v>4003025</v>
+        <v>4003024</v>
       </c>
       <c r="C178">
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -9102,16 +9110,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179">
-        <v>4003026</v>
+        <v>4003025</v>
       </c>
       <c r="B179">
-        <v>4003026</v>
+        <v>4003025</v>
       </c>
       <c r="C179">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -9128,16 +9136,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180">
-        <v>4003027</v>
+        <v>4003026</v>
       </c>
       <c r="B180">
-        <v>4003027</v>
+        <v>4003026</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -9154,16 +9162,16 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181">
-        <v>4003028</v>
+        <v>4003027</v>
       </c>
       <c r="B181">
-        <v>4003028</v>
+        <v>4003027</v>
       </c>
       <c r="C181">
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -9180,16 +9188,16 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182">
-        <v>4003029</v>
+        <v>4003028</v>
       </c>
       <c r="B182">
-        <v>4003029</v>
+        <v>4003028</v>
       </c>
       <c r="C182">
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -9206,16 +9214,16 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183">
-        <v>4003030</v>
+        <v>4003029</v>
       </c>
       <c r="B183">
-        <v>4003030</v>
+        <v>4003029</v>
       </c>
       <c r="C183">
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -9232,16 +9240,16 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184">
-        <v>4003031</v>
+        <v>4003030</v>
       </c>
       <c r="B184">
-        <v>4003031</v>
+        <v>4003030</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -9258,16 +9266,16 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185">
-        <v>4003032</v>
+        <v>4003031</v>
       </c>
       <c r="B185">
-        <v>4003032</v>
+        <v>4003031</v>
       </c>
       <c r="C185">
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9284,16 +9292,16 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186">
-        <v>4003033</v>
+        <v>4003032</v>
       </c>
       <c r="B186">
-        <v>4003033</v>
+        <v>4003032</v>
       </c>
       <c r="C186">
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9310,16 +9318,16 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187">
-        <v>4003034</v>
+        <v>4003033</v>
       </c>
       <c r="B187">
-        <v>4003034</v>
+        <v>4003033</v>
       </c>
       <c r="C187">
         <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9336,16 +9344,16 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188">
-        <v>4003035</v>
+        <v>4003034</v>
       </c>
       <c r="B188">
-        <v>4003035</v>
+        <v>4003034</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9362,16 +9370,16 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189">
-        <v>4003036</v>
+        <v>4003035</v>
       </c>
       <c r="B189">
-        <v>4003036</v>
+        <v>4003035</v>
       </c>
       <c r="C189">
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9388,16 +9396,16 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190">
-        <v>4003037</v>
+        <v>4003036</v>
       </c>
       <c r="B190">
-        <v>4003037</v>
+        <v>4003036</v>
       </c>
       <c r="C190">
         <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9414,16 +9422,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191">
-        <v>4003038</v>
+        <v>4003037</v>
       </c>
       <c r="B191">
-        <v>4003038</v>
+        <v>4003037</v>
       </c>
       <c r="C191">
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9440,16 +9448,16 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192">
-        <v>4003039</v>
+        <v>4003038</v>
       </c>
       <c r="B192">
-        <v>4003039</v>
+        <v>4003038</v>
       </c>
       <c r="C192">
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9466,16 +9474,16 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193">
-        <v>4003040</v>
+        <v>4003039</v>
       </c>
       <c r="B193">
-        <v>4003040</v>
+        <v>4003039</v>
       </c>
       <c r="C193">
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9492,16 +9500,16 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194">
-        <v>4003041</v>
+        <v>4003040</v>
       </c>
       <c r="B194">
-        <v>4003041</v>
+        <v>4003040</v>
       </c>
       <c r="C194">
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9518,16 +9526,16 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195">
-        <v>4003042</v>
+        <v>4003041</v>
       </c>
       <c r="B195">
-        <v>4003042</v>
+        <v>4003041</v>
       </c>
       <c r="C195">
         <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9544,16 +9552,16 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196">
-        <v>4003043</v>
+        <v>4003042</v>
       </c>
       <c r="B196">
-        <v>4003043</v>
+        <v>4003042</v>
       </c>
       <c r="C196">
         <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9570,16 +9578,16 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197">
-        <v>4003044</v>
+        <v>4003043</v>
       </c>
       <c r="B197">
-        <v>4003044</v>
+        <v>4003043</v>
       </c>
       <c r="C197">
         <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9596,22 +9604,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198">
-        <v>4003045</v>
+        <v>4003044</v>
       </c>
       <c r="B198">
-        <v>4003045</v>
+        <v>4003044</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D198" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -9622,16 +9630,16 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199">
-        <v>4003046</v>
+        <v>4003045</v>
       </c>
       <c r="B199">
-        <v>4003046</v>
+        <v>4003045</v>
       </c>
       <c r="C199">
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -9648,16 +9656,16 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200">
-        <v>4003047</v>
+        <v>4003046</v>
       </c>
       <c r="B200">
-        <v>4003047</v>
+        <v>4003046</v>
       </c>
       <c r="C200">
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E200">
         <v>2</v>
@@ -9674,16 +9682,16 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201">
-        <v>4003048</v>
+        <v>4003047</v>
       </c>
       <c r="B201">
-        <v>4003048</v>
+        <v>4003047</v>
       </c>
       <c r="C201">
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -9700,16 +9708,16 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202">
-        <v>4003049</v>
+        <v>4003048</v>
       </c>
       <c r="B202">
-        <v>4003049</v>
+        <v>4003048</v>
       </c>
       <c r="C202">
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -9726,16 +9734,16 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203">
-        <v>4003050</v>
+        <v>4003049</v>
       </c>
       <c r="B203">
-        <v>4003050</v>
+        <v>4003049</v>
       </c>
       <c r="C203">
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -9752,22 +9760,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204">
-        <v>4003051</v>
+        <v>4003050</v>
       </c>
       <c r="B204">
-        <v>4003051</v>
+        <v>4003050</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -9778,16 +9786,16 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205">
-        <v>4003052</v>
+        <v>4003051</v>
       </c>
       <c r="B205">
-        <v>4003052</v>
+        <v>4003051</v>
       </c>
       <c r="C205">
         <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9804,16 +9812,16 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206">
-        <v>4003053</v>
+        <v>4003052</v>
       </c>
       <c r="B206">
-        <v>4003053</v>
+        <v>4003052</v>
       </c>
       <c r="C206">
         <v>3</v>
       </c>
       <c r="D206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9830,16 +9838,16 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207">
-        <v>4003054</v>
+        <v>4003053</v>
       </c>
       <c r="B207">
-        <v>4003054</v>
+        <v>4003053</v>
       </c>
       <c r="C207">
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -9856,16 +9864,16 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208">
-        <v>4003055</v>
+        <v>4003054</v>
       </c>
       <c r="B208">
-        <v>4003055</v>
+        <v>4003054</v>
       </c>
       <c r="C208">
         <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -9882,16 +9890,16 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209">
-        <v>4003056</v>
+        <v>4003055</v>
       </c>
       <c r="B209">
-        <v>4003056</v>
+        <v>4003055</v>
       </c>
       <c r="C209">
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -9908,16 +9916,16 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210">
-        <v>4003057</v>
+        <v>4003056</v>
       </c>
       <c r="B210">
-        <v>4003057</v>
+        <v>4003056</v>
       </c>
       <c r="C210">
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -9934,16 +9942,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211">
-        <v>4003058</v>
+        <v>4003057</v>
       </c>
       <c r="B211">
-        <v>4003058</v>
+        <v>4003057</v>
       </c>
       <c r="C211">
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -9960,16 +9968,16 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212">
-        <v>4003059</v>
+        <v>4003058</v>
       </c>
       <c r="B212">
-        <v>4003059</v>
+        <v>4003058</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -9986,16 +9994,16 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213">
-        <v>4003060</v>
+        <v>4003059</v>
       </c>
       <c r="B213">
-        <v>4003060</v>
+        <v>4003059</v>
       </c>
       <c r="C213">
         <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -10012,16 +10020,16 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214">
-        <v>4003061</v>
+        <v>4003060</v>
       </c>
       <c r="B214">
-        <v>4003061</v>
+        <v>4003060</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
       <c r="D214" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -10038,16 +10046,16 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215">
-        <v>4003062</v>
+        <v>4003061</v>
       </c>
       <c r="B215">
-        <v>4003062</v>
+        <v>4003061</v>
       </c>
       <c r="C215">
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -10064,16 +10072,16 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216">
-        <v>4003063</v>
+        <v>4003062</v>
       </c>
       <c r="B216">
-        <v>4003063</v>
+        <v>4003062</v>
       </c>
       <c r="C216">
         <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -10090,16 +10098,16 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217">
-        <v>4003064</v>
+        <v>4003063</v>
       </c>
       <c r="B217">
-        <v>4003064</v>
+        <v>4003063</v>
       </c>
       <c r="C217">
         <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -10116,16 +10124,16 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218">
-        <v>4003065</v>
+        <v>4003064</v>
       </c>
       <c r="B218">
-        <v>4003065</v>
+        <v>4003064</v>
       </c>
       <c r="C218">
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -10142,16 +10150,16 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219">
-        <v>4003066</v>
+        <v>4003065</v>
       </c>
       <c r="B219">
-        <v>4003066</v>
+        <v>4003065</v>
       </c>
       <c r="C219">
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -10168,16 +10176,16 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220">
-        <v>4003067</v>
+        <v>4003066</v>
       </c>
       <c r="B220">
-        <v>4003067</v>
+        <v>4003066</v>
       </c>
       <c r="C220">
         <v>3</v>
       </c>
       <c r="D220" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -10194,16 +10202,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221">
-        <v>4003068</v>
+        <v>4003067</v>
       </c>
       <c r="B221">
-        <v>4003068</v>
+        <v>4003067</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -10220,16 +10228,16 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222">
-        <v>4003069</v>
+        <v>4003068</v>
       </c>
       <c r="B222">
-        <v>4003069</v>
+        <v>4003068</v>
       </c>
       <c r="C222">
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -10246,16 +10254,16 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223">
-        <v>4003070</v>
+        <v>4003069</v>
       </c>
       <c r="B223">
-        <v>4003070</v>
+        <v>4003069</v>
       </c>
       <c r="C223">
         <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -10272,16 +10280,16 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224">
-        <v>4003071</v>
+        <v>4003070</v>
       </c>
       <c r="B224">
-        <v>4003071</v>
+        <v>4003070</v>
       </c>
       <c r="C224">
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -10298,16 +10306,16 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225">
-        <v>4003072</v>
+        <v>4003071</v>
       </c>
       <c r="B225">
-        <v>4003072</v>
+        <v>4003071</v>
       </c>
       <c r="C225">
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -10324,16 +10332,16 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226">
-        <v>4003073</v>
+        <v>4003072</v>
       </c>
       <c r="B226">
-        <v>4003073</v>
+        <v>4003072</v>
       </c>
       <c r="C226">
         <v>3</v>
       </c>
       <c r="D226" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10350,16 +10358,16 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227">
-        <v>4003074</v>
+        <v>4003073</v>
       </c>
       <c r="B227">
-        <v>4003074</v>
+        <v>4003073</v>
       </c>
       <c r="C227">
         <v>3</v>
       </c>
       <c r="D227" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10376,16 +10384,16 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228">
-        <v>4003075</v>
+        <v>4003074</v>
       </c>
       <c r="B228">
-        <v>4003075</v>
+        <v>4003074</v>
       </c>
       <c r="C228">
         <v>3</v>
       </c>
       <c r="D228" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10402,16 +10410,16 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229">
-        <v>4003076</v>
+        <v>4003075</v>
       </c>
       <c r="B229">
-        <v>4003076</v>
+        <v>4003075</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10428,16 +10436,16 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230">
-        <v>4003077</v>
+        <v>4003076</v>
       </c>
       <c r="B230">
-        <v>4003077</v>
+        <v>4003076</v>
       </c>
       <c r="C230">
-        <v>100004</v>
+        <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10446,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -10454,16 +10462,16 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231">
-        <v>4003078</v>
+        <v>4003077</v>
       </c>
       <c r="B231">
-        <v>4003078</v>
+        <v>4003077</v>
       </c>
       <c r="C231">
         <v>100004</v>
       </c>
       <c r="D231" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10480,16 +10488,16 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232">
-        <v>4003079</v>
+        <v>4003078</v>
       </c>
       <c r="B232">
-        <v>4003079</v>
+        <v>4003078</v>
       </c>
       <c r="C232">
         <v>100004</v>
       </c>
       <c r="D232" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10506,16 +10514,16 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233">
-        <v>4003080</v>
+        <v>4003079</v>
       </c>
       <c r="B233">
-        <v>4003080</v>
+        <v>4003079</v>
       </c>
       <c r="C233">
         <v>100004</v>
       </c>
       <c r="D233" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10532,16 +10540,16 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234">
-        <v>4003081</v>
+        <v>4003080</v>
       </c>
       <c r="B234">
-        <v>4003081</v>
+        <v>4003080</v>
       </c>
       <c r="C234">
         <v>100004</v>
       </c>
       <c r="D234" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10558,16 +10566,16 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235">
-        <v>4003082</v>
+        <v>4003081</v>
       </c>
       <c r="B235">
-        <v>4003082</v>
+        <v>4003081</v>
       </c>
       <c r="C235">
-        <v>100003</v>
+        <v>100004</v>
       </c>
       <c r="D235" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -10584,16 +10592,16 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236">
-        <v>4003083</v>
+        <v>4003082</v>
       </c>
       <c r="B236">
-        <v>4003083</v>
+        <v>4003082</v>
       </c>
       <c r="C236">
         <v>100003</v>
       </c>
       <c r="D236" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -10610,16 +10618,16 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237">
-        <v>4003084</v>
+        <v>4003083</v>
       </c>
       <c r="B237">
-        <v>4003084</v>
+        <v>4003083</v>
       </c>
       <c r="C237">
         <v>100003</v>
       </c>
       <c r="D237" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -10636,16 +10644,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238">
-        <v>4003085</v>
+        <v>4003084</v>
       </c>
       <c r="B238">
-        <v>4003085</v>
+        <v>4003084</v>
       </c>
       <c r="C238">
         <v>100003</v>
       </c>
       <c r="D238" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -10662,16 +10670,16 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239">
-        <v>4003086</v>
+        <v>4003085</v>
       </c>
       <c r="B239">
-        <v>4003086</v>
+        <v>4003085</v>
       </c>
       <c r="C239">
         <v>100003</v>
       </c>
       <c r="D239" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10688,16 +10696,16 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240">
-        <v>4003087</v>
+        <v>4003086</v>
       </c>
       <c r="B240">
-        <v>4003087</v>
+        <v>4003086</v>
       </c>
       <c r="C240">
         <v>100003</v>
       </c>
       <c r="D240" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10714,16 +10722,16 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241">
-        <v>4003088</v>
+        <v>4003087</v>
       </c>
       <c r="B241">
-        <v>4003088</v>
+        <v>4003087</v>
       </c>
       <c r="C241">
         <v>100003</v>
       </c>
       <c r="D241" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -10740,16 +10748,16 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242">
-        <v>4003089</v>
+        <v>4003088</v>
       </c>
       <c r="B242">
-        <v>4003089</v>
+        <v>4003088</v>
       </c>
       <c r="C242">
         <v>100003</v>
       </c>
       <c r="D242" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10766,16 +10774,16 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243">
-        <v>4003090</v>
+        <v>4003089</v>
       </c>
       <c r="B243">
-        <v>4003090</v>
+        <v>4003089</v>
       </c>
       <c r="C243">
         <v>100003</v>
       </c>
       <c r="D243" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -10792,16 +10800,16 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244">
-        <v>4003091</v>
+        <v>4003090</v>
       </c>
       <c r="B244">
-        <v>4003091</v>
+        <v>4003090</v>
       </c>
       <c r="C244">
         <v>100003</v>
       </c>
       <c r="D244" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10818,16 +10826,16 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245">
-        <v>4003092</v>
+        <v>4003091</v>
       </c>
       <c r="B245">
-        <v>4003092</v>
+        <v>4003091</v>
       </c>
       <c r="C245">
         <v>100003</v>
       </c>
       <c r="D245" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10844,16 +10852,16 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246">
-        <v>4003093</v>
+        <v>4003092</v>
       </c>
       <c r="B246">
-        <v>4003093</v>
+        <v>4003092</v>
       </c>
       <c r="C246">
         <v>100003</v>
       </c>
       <c r="D246" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10870,16 +10878,16 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247">
-        <v>4003094</v>
+        <v>4003093</v>
       </c>
       <c r="B247">
-        <v>4003094</v>
+        <v>4003093</v>
       </c>
       <c r="C247">
         <v>100003</v>
       </c>
       <c r="D247" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10896,16 +10904,16 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248">
-        <v>4003095</v>
+        <v>4003094</v>
       </c>
       <c r="B248">
-        <v>4003095</v>
+        <v>4003094</v>
       </c>
       <c r="C248">
         <v>100003</v>
       </c>
       <c r="D248" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -10922,16 +10930,16 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249">
-        <v>4003096</v>
+        <v>4003095</v>
       </c>
       <c r="B249">
-        <v>4003096</v>
+        <v>4003095</v>
       </c>
       <c r="C249">
         <v>100003</v>
       </c>
       <c r="D249" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -10948,16 +10956,16 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250">
-        <v>4003097</v>
+        <v>4003096</v>
       </c>
       <c r="B250">
-        <v>4003097</v>
+        <v>4003096</v>
       </c>
       <c r="C250">
         <v>100003</v>
       </c>
       <c r="D250" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -10974,16 +10982,16 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251">
-        <v>4003098</v>
+        <v>4003097</v>
       </c>
       <c r="B251">
-        <v>4003098</v>
+        <v>4003097</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>100003</v>
       </c>
       <c r="D251" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10992,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -11000,16 +11008,16 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252">
-        <v>4003099</v>
+        <v>4003098</v>
       </c>
       <c r="B252">
-        <v>4003099</v>
+        <v>4003098</v>
       </c>
       <c r="C252">
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -11026,16 +11034,16 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253">
-        <v>4003100</v>
+        <v>4003099</v>
       </c>
       <c r="B253">
-        <v>4003100</v>
+        <v>4003099</v>
       </c>
       <c r="C253">
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -11052,16 +11060,16 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254">
-        <v>4003101</v>
+        <v>4003100</v>
       </c>
       <c r="B254">
-        <v>4003101</v>
+        <v>4003100</v>
       </c>
       <c r="C254">
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -11078,16 +11086,16 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255">
-        <v>4003102</v>
+        <v>4003101</v>
       </c>
       <c r="B255">
-        <v>4003102</v>
+        <v>4003101</v>
       </c>
       <c r="C255">
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11104,16 +11112,16 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256">
-        <v>4003103</v>
+        <v>4003102</v>
       </c>
       <c r="B256">
-        <v>4003103</v>
+        <v>4003102</v>
       </c>
       <c r="C256">
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -11130,16 +11138,16 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257">
-        <v>4003104</v>
+        <v>4003103</v>
       </c>
       <c r="B257">
-        <v>4003104</v>
+        <v>4003103</v>
       </c>
       <c r="C257">
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -11156,16 +11164,16 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258">
-        <v>4003105</v>
+        <v>4003104</v>
       </c>
       <c r="B258">
-        <v>4003105</v>
+        <v>4003104</v>
       </c>
       <c r="C258">
         <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -11182,16 +11190,16 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259">
-        <v>4003106</v>
+        <v>4003105</v>
       </c>
       <c r="B259">
-        <v>4003106</v>
+        <v>4003105</v>
       </c>
       <c r="C259">
         <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -11208,16 +11216,16 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260">
-        <v>4003107</v>
+        <v>4003106</v>
       </c>
       <c r="B260">
-        <v>4003107</v>
+        <v>4003106</v>
       </c>
       <c r="C260">
         <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -11234,16 +11242,16 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261">
-        <v>4003108</v>
+        <v>4003107</v>
       </c>
       <c r="B261">
-        <v>4003108</v>
+        <v>4003107</v>
       </c>
       <c r="C261">
         <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -11260,16 +11268,16 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262">
-        <v>4003109</v>
+        <v>4003108</v>
       </c>
       <c r="B262">
-        <v>4003109</v>
+        <v>4003108</v>
       </c>
       <c r="C262">
         <v>3</v>
       </c>
       <c r="D262" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11286,16 +11294,16 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263">
-        <v>4003110</v>
+        <v>4003109</v>
       </c>
       <c r="B263">
-        <v>4003110</v>
+        <v>4003109</v>
       </c>
       <c r="C263">
         <v>3</v>
       </c>
       <c r="D263" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11312,16 +11320,16 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264">
-        <v>4003111</v>
+        <v>4003110</v>
       </c>
       <c r="B264">
-        <v>4003111</v>
+        <v>4003110</v>
       </c>
       <c r="C264">
         <v>3</v>
       </c>
       <c r="D264" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -11338,16 +11346,16 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265">
-        <v>4003112</v>
+        <v>4003111</v>
       </c>
       <c r="B265">
-        <v>4003112</v>
+        <v>4003111</v>
       </c>
       <c r="C265">
         <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -11364,16 +11372,16 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266">
-        <v>4003113</v>
+        <v>4003112</v>
       </c>
       <c r="B266">
-        <v>4003113</v>
+        <v>4003112</v>
       </c>
       <c r="C266">
         <v>3</v>
       </c>
       <c r="D266" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -11390,16 +11398,16 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267">
-        <v>4003114</v>
+        <v>4003113</v>
       </c>
       <c r="B267">
-        <v>4003114</v>
+        <v>4003113</v>
       </c>
       <c r="C267">
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -11416,16 +11424,16 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268">
-        <v>4003115</v>
+        <v>4003114</v>
       </c>
       <c r="B268">
-        <v>4003115</v>
+        <v>4003114</v>
       </c>
       <c r="C268">
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -11442,16 +11450,16 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269">
-        <v>4003116</v>
+        <v>4003115</v>
       </c>
       <c r="B269">
-        <v>4003116</v>
+        <v>4003115</v>
       </c>
       <c r="C269">
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -11468,16 +11476,16 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270">
-        <v>4003117</v>
+        <v>4003116</v>
       </c>
       <c r="B270">
-        <v>4003117</v>
+        <v>4003116</v>
       </c>
       <c r="C270">
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -11494,16 +11502,16 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271">
-        <v>4003118</v>
+        <v>4003117</v>
       </c>
       <c r="B271">
-        <v>4003118</v>
+        <v>4003117</v>
       </c>
       <c r="C271">
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -11520,16 +11528,16 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272">
-        <v>4003119</v>
+        <v>4003118</v>
       </c>
       <c r="B272">
-        <v>4003119</v>
+        <v>4003118</v>
       </c>
       <c r="C272">
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -11546,16 +11554,16 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273">
-        <v>4003120</v>
+        <v>4003119</v>
       </c>
       <c r="B273">
-        <v>4003120</v>
+        <v>4003119</v>
       </c>
       <c r="C273">
         <v>3</v>
       </c>
       <c r="D273" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -11572,16 +11580,16 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274">
-        <v>4003121</v>
+        <v>4003120</v>
       </c>
       <c r="B274">
-        <v>4003121</v>
+        <v>4003120</v>
       </c>
       <c r="C274">
         <v>3</v>
       </c>
       <c r="D274" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -11598,16 +11606,16 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275">
-        <v>4003122</v>
+        <v>4003121</v>
       </c>
       <c r="B275">
-        <v>4003122</v>
+        <v>4003121</v>
       </c>
       <c r="C275">
         <v>3</v>
       </c>
       <c r="D275" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -11624,16 +11632,16 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276">
-        <v>4003123</v>
+        <v>4003122</v>
       </c>
       <c r="B276">
-        <v>4003123</v>
+        <v>4003122</v>
       </c>
       <c r="C276">
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -11650,16 +11658,16 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277">
-        <v>4003124</v>
+        <v>4003123</v>
       </c>
       <c r="B277">
-        <v>4003124</v>
+        <v>4003123</v>
       </c>
       <c r="C277">
         <v>3</v>
       </c>
       <c r="D277" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -11676,16 +11684,16 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278">
-        <v>4003125</v>
+        <v>4003124</v>
       </c>
       <c r="B278">
-        <v>4003125</v>
+        <v>4003124</v>
       </c>
       <c r="C278">
         <v>3</v>
       </c>
       <c r="D278" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -11702,16 +11710,16 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279">
-        <v>4003126</v>
+        <v>4003125</v>
       </c>
       <c r="B279">
-        <v>4003126</v>
+        <v>4003125</v>
       </c>
       <c r="C279">
         <v>3</v>
       </c>
       <c r="D279" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -11728,16 +11736,16 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280">
-        <v>4003127</v>
+        <v>4003126</v>
       </c>
       <c r="B280">
-        <v>4003127</v>
+        <v>4003126</v>
       </c>
       <c r="C280">
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -11754,16 +11762,16 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281">
-        <v>4003128</v>
+        <v>4003127</v>
       </c>
       <c r="B281">
-        <v>4003128</v>
+        <v>4003127</v>
       </c>
       <c r="C281">
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -11780,16 +11788,16 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282">
-        <v>4003129</v>
+        <v>4003128</v>
       </c>
       <c r="B282">
-        <v>4003129</v>
+        <v>4003128</v>
       </c>
       <c r="C282">
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11806,16 +11814,16 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283">
-        <v>4003130</v>
+        <v>4003129</v>
       </c>
       <c r="B283">
-        <v>4003130</v>
+        <v>4003129</v>
       </c>
       <c r="C283">
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -11832,16 +11840,16 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284">
-        <v>4003131</v>
+        <v>4003130</v>
       </c>
       <c r="B284">
-        <v>4003131</v>
+        <v>4003130</v>
       </c>
       <c r="C284">
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -11858,16 +11866,16 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285">
-        <v>4003132</v>
+        <v>4003131</v>
       </c>
       <c r="B285">
-        <v>4003132</v>
+        <v>4003131</v>
       </c>
       <c r="C285">
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -11884,16 +11892,16 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286">
-        <v>4003133</v>
+        <v>4003132</v>
       </c>
       <c r="B286">
-        <v>4003133</v>
+        <v>4003132</v>
       </c>
       <c r="C286">
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -11910,16 +11918,16 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287">
-        <v>4003134</v>
+        <v>4003133</v>
       </c>
       <c r="B287">
-        <v>4003134</v>
+        <v>4003133</v>
       </c>
       <c r="C287">
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11936,16 +11944,16 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288">
-        <v>4003135</v>
+        <v>4003134</v>
       </c>
       <c r="B288">
-        <v>4003135</v>
+        <v>4003134</v>
       </c>
       <c r="C288">
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -11962,16 +11970,16 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289">
-        <v>4003136</v>
+        <v>4003135</v>
       </c>
       <c r="B289">
-        <v>4003136</v>
+        <v>4003135</v>
       </c>
       <c r="C289">
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -11988,16 +11996,16 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290">
-        <v>4003137</v>
+        <v>4003136</v>
       </c>
       <c r="B290">
-        <v>4003137</v>
+        <v>4003136</v>
       </c>
       <c r="C290">
         <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -12014,16 +12022,16 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291">
-        <v>4003138</v>
+        <v>4003137</v>
       </c>
       <c r="B291">
-        <v>4003138</v>
+        <v>4003137</v>
       </c>
       <c r="C291">
         <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -12040,16 +12048,16 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292">
-        <v>4003139</v>
+        <v>4003138</v>
       </c>
       <c r="B292">
-        <v>4003139</v>
+        <v>4003138</v>
       </c>
       <c r="C292">
         <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -12066,16 +12074,16 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293">
-        <v>4003140</v>
+        <v>4003139</v>
       </c>
       <c r="B293">
-        <v>4003140</v>
+        <v>4003139</v>
       </c>
       <c r="C293">
         <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -12092,16 +12100,16 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294">
-        <v>4003141</v>
+        <v>4003140</v>
       </c>
       <c r="B294">
-        <v>4003141</v>
+        <v>4003140</v>
       </c>
       <c r="C294">
         <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -12118,16 +12126,16 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295">
-        <v>4003142</v>
+        <v>4003141</v>
       </c>
       <c r="B295">
-        <v>4003142</v>
+        <v>4003141</v>
       </c>
       <c r="C295">
         <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -12144,16 +12152,16 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296">
-        <v>4003143</v>
+        <v>4003142</v>
       </c>
       <c r="B296">
-        <v>4003143</v>
+        <v>4003142</v>
       </c>
       <c r="C296">
         <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -12170,16 +12178,16 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297">
-        <v>4003144</v>
+        <v>4003143</v>
       </c>
       <c r="B297">
-        <v>4003144</v>
+        <v>4003143</v>
       </c>
       <c r="C297">
         <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -12196,16 +12204,16 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298">
-        <v>4003145</v>
+        <v>4003144</v>
       </c>
       <c r="B298">
-        <v>4003145</v>
+        <v>4003144</v>
       </c>
       <c r="C298">
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -12222,16 +12230,16 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299">
-        <v>4003146</v>
+        <v>4003145</v>
       </c>
       <c r="B299">
-        <v>4003146</v>
+        <v>4003145</v>
       </c>
       <c r="C299">
-        <v>100003</v>
+        <v>3</v>
       </c>
       <c r="D299" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -12240,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="G299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -12248,16 +12256,16 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300">
-        <v>4003147</v>
+        <v>4003146</v>
       </c>
       <c r="B300">
-        <v>4003147</v>
+        <v>4003146</v>
       </c>
       <c r="C300">
         <v>100003</v>
       </c>
       <c r="D300" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -12274,16 +12282,16 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301">
-        <v>4003148</v>
+        <v>4003147</v>
       </c>
       <c r="B301">
-        <v>4003148</v>
+        <v>4003147</v>
       </c>
       <c r="C301">
         <v>100003</v>
       </c>
       <c r="D301" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -12300,16 +12308,16 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302">
-        <v>4003149</v>
+        <v>4003148</v>
       </c>
       <c r="B302">
-        <v>4003149</v>
+        <v>4003148</v>
       </c>
       <c r="C302">
         <v>100003</v>
       </c>
       <c r="D302" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -12326,16 +12334,16 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303">
-        <v>4003150</v>
+        <v>4003149</v>
       </c>
       <c r="B303">
-        <v>4003150</v>
+        <v>4003149</v>
       </c>
       <c r="C303">
         <v>100003</v>
       </c>
       <c r="D303" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -12352,16 +12360,16 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304">
-        <v>4003151</v>
+        <v>4003150</v>
       </c>
       <c r="B304">
-        <v>4003151</v>
+        <v>4003150</v>
       </c>
       <c r="C304">
         <v>100003</v>
       </c>
       <c r="D304" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -12378,16 +12386,16 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305">
-        <v>4003152</v>
+        <v>4003151</v>
       </c>
       <c r="B305">
-        <v>4003152</v>
+        <v>4003151</v>
       </c>
       <c r="C305">
         <v>100003</v>
       </c>
       <c r="D305" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -12404,16 +12412,16 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306">
-        <v>4003153</v>
+        <v>4003152</v>
       </c>
       <c r="B306">
-        <v>4003153</v>
+        <v>4003152</v>
       </c>
       <c r="C306">
         <v>100003</v>
       </c>
       <c r="D306" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -12430,16 +12438,16 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307">
-        <v>4003154</v>
+        <v>4003153</v>
       </c>
       <c r="B307">
-        <v>4003154</v>
+        <v>4003153</v>
       </c>
       <c r="C307">
         <v>100003</v>
       </c>
       <c r="D307" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -12456,16 +12464,16 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308">
-        <v>4003155</v>
+        <v>4003154</v>
       </c>
       <c r="B308">
-        <v>4003155</v>
+        <v>4003154</v>
       </c>
       <c r="C308">
         <v>100003</v>
       </c>
       <c r="D308" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -12482,16 +12490,16 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309">
-        <v>4003156</v>
+        <v>4003155</v>
       </c>
       <c r="B309">
-        <v>4003156</v>
+        <v>4003155</v>
       </c>
       <c r="C309">
         <v>100003</v>
       </c>
       <c r="D309" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -12508,16 +12516,16 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310">
-        <v>4003157</v>
+        <v>4003156</v>
       </c>
       <c r="B310">
-        <v>4003157</v>
+        <v>4003156</v>
       </c>
       <c r="C310">
         <v>100003</v>
       </c>
       <c r="D310" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -12534,16 +12542,16 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311">
-        <v>4003158</v>
+        <v>4003157</v>
       </c>
       <c r="B311">
-        <v>4003158</v>
+        <v>4003157</v>
       </c>
       <c r="C311">
         <v>100003</v>
       </c>
       <c r="D311" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -12560,16 +12568,16 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312">
-        <v>4003159</v>
+        <v>4003158</v>
       </c>
       <c r="B312">
-        <v>4003159</v>
+        <v>4003158</v>
       </c>
       <c r="C312">
         <v>100003</v>
       </c>
       <c r="D312" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -12586,16 +12594,16 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313">
-        <v>4003160</v>
+        <v>4003159</v>
       </c>
       <c r="B313">
-        <v>4003160</v>
+        <v>4003159</v>
       </c>
       <c r="C313">
         <v>100003</v>
       </c>
       <c r="D313" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -12612,16 +12620,16 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314">
-        <v>4003161</v>
+        <v>4003160</v>
       </c>
       <c r="B314">
-        <v>4003161</v>
+        <v>4003160</v>
       </c>
       <c r="C314">
         <v>100003</v>
       </c>
       <c r="D314" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -12638,16 +12646,16 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315">
-        <v>4003162</v>
+        <v>4003161</v>
       </c>
       <c r="B315">
-        <v>4003162</v>
+        <v>4003161</v>
       </c>
       <c r="C315">
         <v>100003</v>
       </c>
       <c r="D315" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -12664,27 +12672,53 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316">
-        <v>4003163</v>
+        <v>4003162</v>
       </c>
       <c r="B316">
-        <v>4003163</v>
+        <v>4003162</v>
       </c>
       <c r="C316">
         <v>100003</v>
       </c>
       <c r="D316" t="s">
+        <v>452</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>3</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317">
+        <v>4003163</v>
+      </c>
+      <c r="B317">
+        <v>4003163</v>
+      </c>
+      <c r="C317">
+        <v>100003</v>
+      </c>
+      <c r="D317" t="s">
         <v>453</v>
       </c>
-      <c r="E316">
-        <v>1</v>
-      </c>
-      <c r="F316">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>3</v>
-      </c>
-      <c r="H316">
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>3</v>
+      </c>
+      <c r="H317">
         <v>0</v>
       </c>
     </row>
@@ -12704,8 +12738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="25940" windowHeight="17880" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1493">
   <si>
     <t>道具id</t>
   </si>
@@ -4693,6 +4693,14 @@
         en_type_editormap = 3,
         en_type_fixeditormap = 4,
         en_type_randomgroup = 5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelData/group2_1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -40362,10 +40370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -40423,6 +40431,23 @@
       </c>
       <c r="E3" s="4" t="s">
         <v>1485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>5001002</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1491</v>
       </c>
     </row>
   </sheetData>
@@ -41846,7 +41871,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
+++ b/Assets/ExcelTools/xlsx/关卡道具配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="15600" activeTab="4"/>
+    <workbookView xWindow="4360" yWindow="0" windowWidth="25480" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EquipConf" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1543">
   <si>
     <t>道具id</t>
   </si>
@@ -4684,7 +4684,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group</t>
+    <t>LevelData/group2_0001_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0001_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0001_3</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0010_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0010_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0010_3</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0010_4</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0011_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0100_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0100_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0100_3</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0101_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0110_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0110_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0110_3</t>
+  </si>
+  <si>
+    <t>LevelData/group2_0111_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1000_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1000_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1000_3</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1000_4</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1001_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1010_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1010_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1011_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1100_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1100_2</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1100_3</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1100_4</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1101_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1110_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_1111_1</t>
+  </si>
+  <si>
+    <t>LevelData/group2_start_1111</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4696,11 +4848,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
+    <t>当type = fixeditormap时,
+group为关卡id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelData/group2_1000</t>
+    <t>-1为起始点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4768,8 +4921,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5015,7 +5176,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="243">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -5133,6 +5294,10 @@
     <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -5250,6 +5415,10 @@
     <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -40370,10 +40539,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -40396,7 +40565,7 @@
         <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -40444,10 +40613,537 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5001003</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5001004</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5001005</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>1492</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1491</v>
+      <c r="E7" s="4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5001006</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5001007</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>5001008</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>5001009</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>5001010</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>5001011</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>5001012</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>5001013</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>5001014</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>5001015</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>5001016</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>5001017</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>5001018</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>5001019</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>5001020</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>5001021</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>5001022</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>5001023</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>5001024</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>5001025</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>5001026</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>5001027</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>5001028</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>5001029</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>5001030</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>5001031</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>5001032</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>5001033</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
@@ -41868,15 +42564,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="70">
@@ -41884,10 +42581,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1489</v>
+        <v>1540</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1541</v>
       </c>
       <c r="D1" t="s">
         <v>1487</v>
@@ -41928,6 +42625,23 @@
       </c>
       <c r="E3">
         <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
